--- a/EAB_Michigan_2024_data.xlsx
+++ b/EAB_Michigan_2024_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/EAB_Michigan_2024_2025_github_folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A8B8685-2037-4F32-B797-F3B9B0987861}"/>
+  <xr:revisionPtr revIDLastSave="765" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05234388-A8DA-4733-9D83-73936CA27711}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="48">
   <si>
     <t>center_tree_number</t>
   </si>
@@ -143,6 +143,36 @@
   </si>
   <si>
     <t>woodpecker_marks_y_n</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>percent_cover_0_0.5_1_3.5_8_15.5_25.5_etc</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>In NW, there is an approx. 2m tall ash just outside the microplot.</t>
+  </si>
+  <si>
+    <t>1m north of a fork of fallen elm (2nd fork on left).</t>
+  </si>
+  <si>
+    <t>Just .5m east of autum olive.</t>
+  </si>
+  <si>
+    <t>submergd</t>
+  </si>
+  <si>
+    <t>not counting taller than dbh for % cover</t>
   </si>
 </sst>
 </file>
@@ -496,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D88F145-B9A5-4ED2-BA4E-B069605466DD}">
   <dimension ref="A1:B16385"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -49716,7 +49746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -49728,20 +49758,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4294AC29-14D4-407D-99E4-B7615C9E66E2}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.08984375" customWidth="1"/>
     <col min="2" max="2" width="8.54296875" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="11" width="16.1796875" customWidth="1"/>
-    <col min="12" max="12" width="17.36328125" customWidth="1"/>
+    <col min="4" max="4" width="17.36328125" customWidth="1"/>
+    <col min="5" max="12" width="7.1796875" customWidth="1"/>
     <col min="13" max="13" width="24.08984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -49755,35 +49785,1886 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>3.5</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>3.5</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>15.5</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>3.5</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>3.5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>3.5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.5</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>45.5</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>9</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>94</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>25.5</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>94</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>3.5</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>97</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>3.5</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>97</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>97</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>25.5</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>6</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>97</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>35.5</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>7</v>
+      </c>
+      <c r="J21">
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <v>6</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>98</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>98</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>98</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>99</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0.5</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>99</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>99</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>25.5</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>99</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0.5</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>96</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>15.5</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>7</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>96</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>7</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>96</v>
+      </c>
+      <c r="B32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>15.5</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>96</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>15.5</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>25.5</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>7</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>95</v>
+      </c>
+      <c r="B35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>15.5</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>7</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>95</v>
+      </c>
+      <c r="B36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>35.5</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>95</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>15.5</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>55.5</v>
+      </c>
+      <c r="E38">
+        <v>9</v>
+      </c>
+      <c r="F38">
+        <v>7</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>7</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>45.5</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>9</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>4</v>
+      </c>
+      <c r="L39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <v>7</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>5</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>3.5</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>50</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>35.5</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>4</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>3.5</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>4</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>15.5</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>4</v>
+      </c>
+      <c r="M46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>25.5</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <v>5</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>53</v>
+      </c>
+      <c r="B48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>3.5</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>3.5</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -49797,7 +51678,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -49845,7 +51726,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/EAB_Michigan_2024_data.xlsx
+++ b/EAB_Michigan_2024_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/EAB_Michigan_2024_2025_github_folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="765" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05234388-A8DA-4733-9D83-73936CA27711}"/>
+  <xr:revisionPtr revIDLastSave="1485" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{052D567D-4B03-4FF3-A238-B821288A10C1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="471">
   <si>
     <t>center_tree_number</t>
   </si>
@@ -160,9 +160,6 @@
     <t>W</t>
   </si>
   <si>
-    <t>In NW, there is an approx. 2m tall ash just outside the microplot.</t>
-  </si>
-  <si>
     <t>1m north of a fork of fallen elm (2nd fork on left).</t>
   </si>
   <si>
@@ -174,12 +171,1284 @@
   <si>
     <t>not counting taller than dbh for % cover</t>
   </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>Lat</t>
+  </si>
+  <si>
+    <t>Lon</t>
+  </si>
+  <si>
+    <t>Transect</t>
+  </si>
+  <si>
+    <t>Plot_ID</t>
+  </si>
+  <si>
+    <t>Directions</t>
+  </si>
+  <si>
+    <t>Center_tree</t>
+  </si>
+  <si>
+    <t>Lat_updated_2024</t>
+  </si>
+  <si>
+    <t>Lon_updated_2024</t>
+  </si>
+  <si>
+    <t>Directions_updated_2024</t>
+  </si>
+  <si>
+    <t>Center_tree_updated_2024</t>
+  </si>
+  <si>
+    <t>Kensington</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>KENUPHD</t>
+  </si>
+  <si>
+    <t>Aspen trail across from Nature Ctr. Stay right, then right onto Tamarack Tr.  Plot on left side.  Fence uphill on left.</t>
+  </si>
+  <si>
+    <t>Prunus serotina            22.3 cm.</t>
+  </si>
+  <si>
+    <t>KENUPHD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continue N from KENUPHD </t>
+  </si>
+  <si>
+    <t>Prunus virginiana (buck rub)  8.6 cm.</t>
+  </si>
+  <si>
+    <t>KENUPHD3</t>
+  </si>
+  <si>
+    <t>Continue N &amp; bear slightly toward fence from KENUPHD2 (center tree is NE of fenced area).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ulmus rubra 35.0 cm. </t>
+  </si>
+  <si>
+    <t>Hudson Mills</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>HMHD</t>
+  </si>
+  <si>
+    <t>Near pond.Middle plot.</t>
+  </si>
+  <si>
+    <t>Ostraya virginiana (two stems)   13.5 + 7.9 cm.</t>
+  </si>
+  <si>
+    <t>HMHD2</t>
+  </si>
+  <si>
+    <t>S of HMHD.  Adjacent to the pond. 1st plot.</t>
+  </si>
+  <si>
+    <t>5-stemmed Quercus rubra, 2 alive 35 + 35.3 cm.</t>
+  </si>
+  <si>
+    <t>HMHD3</t>
+  </si>
+  <si>
+    <t>West of HMMAT.  Adjacent to low wet area to SE.  3rd plot.</t>
+  </si>
+  <si>
+    <t>Prunus serotina  16.5 cm.</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>KENDRY</t>
+  </si>
+  <si>
+    <t>Deer run to Marsh shortcut to Chickadee loop (shelter). KENUP on rt. flagged hornbeam on left.  Walk NW   Left side of trail.</t>
+  </si>
+  <si>
+    <t>Carya ovata 17.2 cm.</t>
+  </si>
+  <si>
+    <t>KENDRY2</t>
+  </si>
+  <si>
+    <t>Deer run to Marsh shortcut to Chickadee loop (shelter).  Past KENDRY.  Turn E into stand.  Right side of trail.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carya spp.- 2 stemmed 32.4 + 11.9   </t>
+  </si>
+  <si>
+    <t>KENDRY3</t>
+  </si>
+  <si>
+    <t>Left side of Chickadee trail .  Enter stand at flagged cherry.  NE from KENDRY.</t>
+  </si>
+  <si>
+    <t>Quercus alba 14.9</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>HMDRY</t>
+  </si>
+  <si>
+    <t>Take trail to the left toward point #12.  Turn left before shortcut.  Turn left (South) into stand past point # 11 (Life in Layers)</t>
+  </si>
+  <si>
+    <t>Quercus rubra (on big mound) 31.1 cm.</t>
+  </si>
+  <si>
+    <t>HMDRY2</t>
+  </si>
+  <si>
+    <t>SW of HMDRY</t>
+  </si>
+  <si>
+    <t>Tilia americana, btwn. 2 stones 10.6 cm.</t>
+  </si>
+  <si>
+    <t>HMDRY3</t>
+  </si>
+  <si>
+    <t>S of HMDRY2.  Down slight slope and past large rock pile.</t>
+  </si>
+  <si>
+    <t>Prunus 28.3 cm.</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>KENUP</t>
+  </si>
+  <si>
+    <t>Deer run to Swamp shortcut to Chickadee loop (shelter).  Turn right into stand at marked cherry.  Four-stemmed ash at the edge of the trail.</t>
+  </si>
+  <si>
+    <t>Acer rubrum (2 fused trunks) 25.2 cm.</t>
+  </si>
+  <si>
+    <t>KENUP2</t>
+  </si>
+  <si>
+    <t>Enter Chickadee loop near shelter.  Go right into stand at marked elm tree.  On same side as KENUP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amelanchier 9.5 cm. </t>
+  </si>
+  <si>
+    <t>KENUP3</t>
+  </si>
+  <si>
+    <t>First plot on right from Chickadee loop shelter.  Turn into stand at flagged ironwood (Ostraya viriginiana)</t>
+  </si>
+  <si>
+    <t>Ostrya  8.3 cm.</t>
+  </si>
+  <si>
+    <t>Island Lake</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>ILOPEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Park at open area to left.  Cross road to gated path. Take path past wet area and enter stand at right where ground is dry.  </t>
+  </si>
+  <si>
+    <t>Acer saccharum                           53.3 cm.</t>
+  </si>
+  <si>
+    <t>ILOPEN2</t>
+  </si>
+  <si>
+    <t>N of ILOPEN</t>
+  </si>
+  <si>
+    <t>Tilia americana            31.1 cm.</t>
+  </si>
+  <si>
+    <t>ILOPEN3</t>
+  </si>
+  <si>
+    <t>NW of ILOPEN</t>
+  </si>
+  <si>
+    <t>Quercus bicolor 23.3 cm.</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continue on Chickadee loop from KENDRY2.  Look for flagged elm at right.  Flagged center will be visible from trail. </t>
+  </si>
+  <si>
+    <t>Acer rubrum 27.4 cm.</t>
+  </si>
+  <si>
+    <t>KENDRY3A</t>
+  </si>
+  <si>
+    <t>Continue E from KENDRY3 to marked cherry.  Entance tree deeply grooved.</t>
+  </si>
+  <si>
+    <t>Prunus serotina 22.2 cm.</t>
+  </si>
+  <si>
+    <t>KENDRY3B</t>
+  </si>
+  <si>
+    <t>Before KENDRY3 on right side of Chickadee trail.  1st plot, closest to trail.  Turn into stand at marked beech.</t>
+  </si>
+  <si>
+    <t>Moved center to Acer rubrum from Prunus (needs tag)  14.1 cm.</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>ILLOW</t>
+  </si>
+  <si>
+    <t>NE of ILOPEN</t>
+  </si>
+  <si>
+    <t>Tilia americana  32.9 cm.</t>
+  </si>
+  <si>
+    <t>ILLOW2</t>
+  </si>
+  <si>
+    <t>N of ILOPEN2, 5 m away from a huge cottonwood</t>
+  </si>
+  <si>
+    <t>Acer sacharinum, S of huge cottonwood  54.5 cm.</t>
+  </si>
+  <si>
+    <t>ILLOW3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Walk left up park road and look for flagged red maple sapling right side of road.  Turn right at flagged tree.  Plot is ~40 m from road.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acer saccharinum, (DBH above scar)    22.0 </t>
+  </si>
+  <si>
+    <t>Proud Lake</t>
+  </si>
+  <si>
+    <t>PLINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Park at top of Boat Launch Rd. off Bass Lake Rd.  Plot is down hill in low area before foot bridge.  </t>
+  </si>
+  <si>
+    <t>Prunus serotina 24.1 cm.</t>
+  </si>
+  <si>
+    <t>PLINT2</t>
+  </si>
+  <si>
+    <t>First of 2 plots on top of hill/ridge. Head NE off trail before trail turns left. Closest of the 3 plots to parking lot.</t>
+  </si>
+  <si>
+    <t>Quercus spp. 10.9 cm.</t>
+  </si>
+  <si>
+    <t>PLINT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plot is North of parking lot.(befpre bridge). Go about 320 ' into woods.  Plot is very close to pkg. lot. </t>
+  </si>
+  <si>
+    <t>Prunus serotina  22.1 cm.</t>
+  </si>
+  <si>
+    <t>Highland</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>HLMAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duck Lake Rd. to Livingston Rd.  Pkg on rt. Trail across rd.-stay left until T intersection.  Trail goes under road.  Turn left on seldom used trail w/8 on trail marker.  It faces the opposite way.  Turn right to find 1st  plot. </t>
+  </si>
+  <si>
+    <t>Acer saccharum 22.0 cm.</t>
+  </si>
+  <si>
+    <t>HLMAT2</t>
+  </si>
+  <si>
+    <t>Turn left out of plot on xc ski trail from HLMAT. On rt. look for sm. flagged beech &amp; woody debris/huge downed tree.  Turn right go up hill. Stream is N of plot.</t>
+  </si>
+  <si>
+    <t>Acer saccharum 40.2 cm.</t>
+  </si>
+  <si>
+    <t>HLMAT3</t>
+  </si>
+  <si>
+    <t>Cross small bridge over stream and turn left into stand up the hill at carved beech tree. Go uphill total distance hiked from parking lot is ~1.4 mi.</t>
+  </si>
+  <si>
+    <t>Quercus rubra  44.0 cm.</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>PLDRYMAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boat Launch Rd. off Bass Lake Rd.  Take trail in past wet area &amp; cross bridge over stream.  Plot on right side (N) of trail, very close to trail. Enter woods at flagged cherry. </t>
+  </si>
+  <si>
+    <t>Acer rubrum  10.1 cm.</t>
+  </si>
+  <si>
+    <t>PLDRYMAT2</t>
+  </si>
+  <si>
+    <t>Same as above. Before powerline.   Plot on right side of trail, very close to trail.</t>
+  </si>
+  <si>
+    <t>Prunus  (2 stem)                  36.1 + 18.9 cm.</t>
+  </si>
+  <si>
+    <t>PLDRYMAT2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pass PLINT plots, cross bridge over stream.  Farthest right plot on this side.  Follow deer trail right and uphill.  Plot on a slope. </t>
+  </si>
+  <si>
+    <t>Prunus serotina 18.8 cm.</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>PLCONF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same as above. Take trail past power line. Plot N of trail, very close to trail in white pine stand. </t>
+  </si>
+  <si>
+    <t>Acer rubrum, (2-stem)                   5.3 + 4.3 cm.</t>
+  </si>
+  <si>
+    <t>PLDRYMAT3</t>
+  </si>
+  <si>
+    <t>Same as above, take trail past power line. Plot lies E (rt. Of PLCONF). Very close to trail off rt. side.</t>
+  </si>
+  <si>
+    <t>Acer rubrum,  (3-stem) 22.6 + 16.5 + 10 cm.</t>
+  </si>
+  <si>
+    <t>PLDRYMAT3A</t>
+  </si>
+  <si>
+    <t>Same as above, take trail past powerlines.  Plot  immed. E. of #34, and #35. Very close to trail off right side.</t>
+  </si>
+  <si>
+    <t>Quercus velutina  20.2 cm.</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>PLWET</t>
+  </si>
+  <si>
+    <t>Trail head near park office at Wixom Rd.  Take River trail to Yellow Birch sign.Enter wet area at last (4th boardwalk) into stand.</t>
+  </si>
+  <si>
+    <t>Carpinus  4.1 cm.</t>
+  </si>
+  <si>
+    <t>PLWET2</t>
+  </si>
+  <si>
+    <t>Take River trail. Turn N (L) into stand. After 2nd or 3rd?  boardwalk. Middle plot.</t>
+  </si>
+  <si>
+    <t>Acer  6.2 cm.</t>
+  </si>
+  <si>
+    <t>PLWET3</t>
+  </si>
+  <si>
+    <t>Poison sumac in your face. Take River trail. Turn NW into stand at beginning of 1st or 2nd? board walk.</t>
+  </si>
+  <si>
+    <t>Larix   21.3 cm.</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>KENWET</t>
+  </si>
+  <si>
+    <t>Park at NC, take Deer Run trail ~100 ft. 1st plot closest to NC on left side of trail.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quercus macrocarpa, (bur) 22.8 cm. </t>
+  </si>
+  <si>
+    <t>KENWET2</t>
+  </si>
+  <si>
+    <t>5th Kenwet plot. on Deer Run trail.  Cross boardwalk over marsh. Enter at small stream walk up hill to plot ctr..</t>
+  </si>
+  <si>
+    <t>2-stem Carpinus caroliniana 8.1 + 6.9 cm.</t>
+  </si>
+  <si>
+    <t>KENWET4</t>
+  </si>
+  <si>
+    <t>6th Kenwet plot.Deer run trail, cross boardwalk over marsh.  Go in on rt. side not straight in. Before squirrel sign. Last plot on left where Kamal got stuck.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamarack 26.3 cm.         </t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>KENWET3</t>
+  </si>
+  <si>
+    <t>3rd Kenwet plot.Deer run trail .  Turn left into stand at flagged oak, just before bridge.</t>
+  </si>
+  <si>
+    <t>Carpinus 9.0 cm.     New ctr.2.25 m. from orig.</t>
+  </si>
+  <si>
+    <t>KENWET3A</t>
+  </si>
+  <si>
+    <t>2nd Kenwet plot.  Deer run trail to flagged 2-stemed ash at left.  Uphill.</t>
+  </si>
+  <si>
+    <t>4-stem Basswood .  Orig. ctr. was ash.</t>
+  </si>
+  <si>
+    <t>KENWET3B</t>
+  </si>
+  <si>
+    <t>4th Kenwet plot.From KENWET3 go further back into stand (45 degrees) away from boardwalk.</t>
+  </si>
+  <si>
+    <t>Acer palmatum (Japanese maple)    9.8 cm.</t>
+  </si>
+  <si>
+    <t>Pontiac Lake</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>PONUP</t>
+  </si>
+  <si>
+    <t>Gale Rd.  Hike in ~ 50m.  Turn left into stand at flagged red maple seedling (leaning) ~3m from trail edge.  Bear slightly to left to find center tree. 1st plot on left.</t>
+  </si>
+  <si>
+    <t>Acer rubrum  15.7 cm.</t>
+  </si>
+  <si>
+    <t>PONUP2</t>
+  </si>
+  <si>
+    <t>Gale Rd.  Look for flagged elm sapling on left ~2m from edge of trail.  Turn left into stand. Something buried at plot ctr.-stone ring. 2nd plot on Lt.</t>
+  </si>
+  <si>
+    <t>Acer rubrum 30.0 cm.</t>
+  </si>
+  <si>
+    <t>PONUP3</t>
+  </si>
+  <si>
+    <t>Continue N on trail from PONUP2.  Flagged elm sapling on L.  Enter stand and head SW to flagged white oak.3rd plot on left.</t>
+  </si>
+  <si>
+    <t>Quercus alba  30.3 cm.</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>PONHD</t>
+  </si>
+  <si>
+    <t>Go North West from PONUP3.  Farthest back on hump beneath ridge.</t>
+  </si>
+  <si>
+    <t>Quercus rubra 28.7 cm.</t>
+  </si>
+  <si>
+    <t>PONHD2</t>
+  </si>
+  <si>
+    <t>Gale Rd. trail to T intersection (~.15mi), go left around the bend and up hill.  Go L (SW) into stand at flag.  On top of ridge.</t>
+  </si>
+  <si>
+    <t>Quercus rubra 18.7 cm.</t>
+  </si>
+  <si>
+    <t>PONHD3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South of PONHD2.  Chair plot on backside from swamp. </t>
+  </si>
+  <si>
+    <t>Large tooth aspen (dying) 33.5 cm.</t>
+  </si>
+  <si>
+    <t>PONEAST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gale Rd. trail to flagged elm on right.  Use GPS to navigate to plot (3rd plot in).    Pond to S. of plot ~80m. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carya ovata 30.9 cm.           </t>
+  </si>
+  <si>
+    <t>PONEAST2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gale Rd. to flagged elm.  Go east (R) into stand. </t>
+  </si>
+  <si>
+    <t>Sassafras albidium 13.2 cm.</t>
+  </si>
+  <si>
+    <t>PONEAST3</t>
+  </si>
+  <si>
+    <t>Gale Rd.  to flagged elm.  Go east (R) into stand. Closest poneast plot to trail.</t>
+  </si>
+  <si>
+    <t>Quercus rubra 31.9 cm.</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>PONRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gale Rd. trail to second flagged tree on right side of trail.  Enter stand and head east.  Follow GPS to PONRT. Way back  in middle.On hill looks down on swamp. Annie's </t>
+  </si>
+  <si>
+    <t>Quercus rubra  29.2 cm.</t>
+  </si>
+  <si>
+    <t>PONRT2</t>
+  </si>
+  <si>
+    <t>Paper wasp nest in ground at E 18m. Gale Rd. path to T-intersection.  Take path to right.  Flagged hickory 3-4 m from trail on right marks entrance to plot. Annie's</t>
+  </si>
+  <si>
+    <t>Acer rubrum (2 fused trunks)  21.9 cm.</t>
+  </si>
+  <si>
+    <t>PONRT3</t>
+  </si>
+  <si>
+    <t>Gale Rd. trail to flagged red maple on right side of trail. Turn right into stand at large forked red oak. Scraggly.  Annie's</t>
+  </si>
+  <si>
+    <t>Hickory  28.9 cm.</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>ILRIP</t>
+  </si>
+  <si>
+    <t>Park at Riverbend picnic area and take yellow path.  Riparian area is on right before you come to bridge over Huron River.  Plot closest to river and bridge, not far in on left.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acer saccharinum (5 stems) 6.1 + 3.8 + 2.4 + 2.5 + 2.1 + 5.0 cm. </t>
+  </si>
+  <si>
+    <t>ILRIP2</t>
+  </si>
+  <si>
+    <t>Go SE from ILRIP. Plot at back. (Most North)</t>
+  </si>
+  <si>
+    <t>Acer rubrum,  (2-stemmed) 12.2 + 7.9 cm.</t>
+  </si>
+  <si>
+    <t>ILRIP3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South of ILRIP2. Plot closest to trail on right.  </t>
+  </si>
+  <si>
+    <t>Acer saccharinum         23.1 cm.</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>ILCC</t>
+  </si>
+  <si>
+    <t>(Canoe camp) Park across  road. Enter at gate on 2 track..  Take trail to the left at outhouse.  At canoe camp #2 enter woods heading SE to flagged black ash tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quercus  12.5 cm.                              </t>
+  </si>
+  <si>
+    <t>ILCC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW from ILCC. Forested dry area. </t>
+  </si>
+  <si>
+    <t>Quercus bicolor  30.4 cm.</t>
+  </si>
+  <si>
+    <t>ILCC3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contine S from ILCC2.  Last plot of the three-- often under H20. </t>
+  </si>
+  <si>
+    <t>Acer saccharinum  14.7 cm.</t>
+  </si>
+  <si>
+    <t>Indian Springs</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>ISMATDRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Take Nature Trail through construction area, meadow, stay to left.  Enter woods on left before reaching old stove landmark on trail.  </t>
+  </si>
+  <si>
+    <t>Acer saccharum (2 stems)                   15.2 + 16.8 cm.</t>
+  </si>
+  <si>
+    <t>ISMATDRY2</t>
+  </si>
+  <si>
+    <t>SE of ISMATDRY. Head toward the back.</t>
+  </si>
+  <si>
+    <t>Acer saccharum 9.0 cm.</t>
+  </si>
+  <si>
+    <t>ISMATDRY3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Take Nature Trail to old stove, go left into plot past ISDRYMAT.  Use GPS to navigate to plot.  Old wire fence runs across SE quadrant of plot.  </t>
+  </si>
+  <si>
+    <t>Tilia americana (2 stems) 5.4 + 16.6 cm.</t>
+  </si>
+  <si>
+    <t>ISLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(low ash density) Wet plots. NWest of ISMATDRY2.  Enter stand past old stove landmark, before bridge, follow deer trail to right.  Head SE.  </t>
+  </si>
+  <si>
+    <t>Carpinus caroliniana    (6 stems, 3 primary) 12.1 + 10 + 10.7 + 3.6 + 2.8 + 1.9 cm.</t>
+  </si>
+  <si>
+    <t>ISLD2</t>
+  </si>
+  <si>
+    <t>South of ISLD, closest to road.  Can be under water.</t>
+  </si>
+  <si>
+    <t>Acer saccharinum 13.3 cm.</t>
+  </si>
+  <si>
+    <t>ISLD3</t>
+  </si>
+  <si>
+    <t>West of ISLD just NW of 3 large tamaraks.  Farthest back close to road.</t>
+  </si>
+  <si>
+    <t>Tamarack  34.7 cm.</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>ISMATDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Deer exclosure) Take path to second deer exclosure (in wooded area).  Go SE into stand (left) to flagged red oak (past triple ash tree).  </t>
+  </si>
+  <si>
+    <t>Quercus rubra   22 cm.</t>
+  </si>
+  <si>
+    <t>ISMATDE2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NE of ISMATDE.  Short distance from trail.  Take nature trail, turn left (SE) into woods at very large  beech about 4 m from trail edge.  </t>
+  </si>
+  <si>
+    <t>Quercus bicolor  42.1 cm.</t>
+  </si>
+  <si>
+    <t>ISMATDE3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE of ISMATDE2.  Cross low, wet area, beware of wire fence that runs through W side of stand. Farthest back of group. </t>
+  </si>
+  <si>
+    <t>Prunus serotina  (2 stems) 13.2 + 18.3 cm.</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>ISRIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farthest back.  From #77 go W back into open woods w/stream on right. To exit go S thru tangle, skunk cabbage, forest, &amp; watch out for downed fence before trail.   </t>
+  </si>
+  <si>
+    <t>Acer rubra                     14.5 cm.</t>
+  </si>
+  <si>
+    <t>ISRIP2</t>
+  </si>
+  <si>
+    <t>2nd plot.  W. of ISRIP3 #78. Before remains of old bridge over stream.</t>
+  </si>
+  <si>
+    <t>Acer saccharinum         28.6 cm.</t>
+  </si>
+  <si>
+    <t>ISRIP3</t>
+  </si>
+  <si>
+    <t>Turn right into stand at tilting bench on right side of trail.  Down slight incline.  Center tree visible from bench. Plot numbers run backwards in transect.</t>
+  </si>
+  <si>
+    <t>Acer rubrum 20.5 cm.</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>ISOPEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farthest back plot in Fairy Tale Forest. Take trail past stove, bridge etc. to fork in trail.  Take path to right.  Turn right (E) into stand about 25 feet before reaching large beech tree with J + A carved into it.  Plot is NE of ISOPEN3.  </t>
+  </si>
+  <si>
+    <t>Quercus rubra (on big mound) 35.8 cm.</t>
+  </si>
+  <si>
+    <t>ISOPEN2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take trail past stove, bridge.  Bench  in open area on L side of trail is a landmark to enter the stand at right (E).  If you come to fork in the trail you've gone too far. Before Fairy Tale Forest. </t>
+  </si>
+  <si>
+    <t>Quercus rubra  12.6 cm.</t>
+  </si>
+  <si>
+    <t>ISOPEN3</t>
+  </si>
+  <si>
+    <t>Take trail past stove, bridge.  Take right trail at fork past 2nd shelter.  Turn into stand at right (SE) at Y-shaped beech tree with hollow at base which sits ~9m from trail edge.  Plot is 1.11 mi from Nature Ctr.  Middle plot.</t>
+  </si>
+  <si>
+    <t>Carpinus caroliniana (2 stems) 5.7 + 2 cm.</t>
+  </si>
+  <si>
+    <t>HLMATFR</t>
+  </si>
+  <si>
+    <t>Farthest back transect at Haven Hill area. Park at Haven Hill Lake parking lot.  Take nature trail at N end of parking lot.  Cross dam.  Stay to right 1st fork in trail (white &amp; yellow foot trail).  Stay left at 2nd fork (shubby oak on right and tall grass at left).  Stay to right, stream on left, wetland on right.</t>
+  </si>
+  <si>
+    <t>Acer saccharum  8.9 cm.</t>
+  </si>
+  <si>
+    <t>HLMATFR2</t>
+  </si>
+  <si>
+    <t>See directions above.SW of HLMATFR.  Behind HLMATFR.</t>
+  </si>
+  <si>
+    <t>Acer rubrum                   14 cm.</t>
+  </si>
+  <si>
+    <t>HLMATFR3</t>
+  </si>
+  <si>
+    <t>Go back out to trail from HLMATFR2.  Turn left, heading west.  Last plot on left.</t>
+  </si>
+  <si>
+    <t>Ostraya virginiana (2 stems) 17.7 + 16 cm.</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>HLRIP</t>
+  </si>
+  <si>
+    <t>Park at Haven Hill.  Take nature trail at N end of parking lot.  Plot is on R side of trail (E) on hill between trail and park road.  Enter at meteor rock. Middle plot up hill from 86.</t>
+  </si>
+  <si>
+    <t>Populus grandidentata 14.8 cm.</t>
+  </si>
+  <si>
+    <t>HLRIP2</t>
+  </si>
+  <si>
+    <t>Park at Haven Hill.  Enter stand at right at "meteor" (large porous rock)  on the right side of trail.  Plot is SE of HLRIP</t>
+  </si>
+  <si>
+    <t>Populus grandidentata 30.9 cm.</t>
+  </si>
+  <si>
+    <t>HLRIP3</t>
+  </si>
+  <si>
+    <t>NE of HLRIP.  Can enter at bend in trail or go downhill from #85 HLRIP.</t>
+  </si>
+  <si>
+    <t>Prunus serotina  (2 stems)                       30 + 11.2 cm.</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>HLUP</t>
+  </si>
+  <si>
+    <t>Park at Haven Hill.  Take nature trail at N end of parking lot.  Go past marker 14 on CC ski trail.  Plot is on hill to left of trail.  Enter stand opposite large dead debarked tree on right of path (next to white oak with large canker about 15ft up).  Before HLMATFR on left hillside.</t>
+  </si>
+  <si>
+    <t>Acer rubrum  18.2 cm.</t>
+  </si>
+  <si>
+    <t>HLUP2</t>
+  </si>
+  <si>
+    <t>W of HLUP, on hillside facing the lake</t>
+  </si>
+  <si>
+    <t>Quercus alba  48.3 cm.</t>
+  </si>
+  <si>
+    <t>HLUP3</t>
+  </si>
+  <si>
+    <t>Go uphill, (N) and to the right so that trail is straight ahead (N).  NW of HLUP, NE of HLUP2</t>
+  </si>
+  <si>
+    <t>Fagus grandifolia            18.8 cm.</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>HMMAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Park at Nature Center.  Take Nature Trail to the left.  Pass picnic area and disc golf course.  Take deer trail at right into stand.  There is a poplar stand just before the deer trail.  Head NE.  </t>
+  </si>
+  <si>
+    <t>Quercus rubra               50.6 + 40.1 cm.</t>
+  </si>
+  <si>
+    <t>HMMAT2</t>
+  </si>
+  <si>
+    <t>Slight NW of HMMAT.</t>
+  </si>
+  <si>
+    <t>Carya glabra   28.3 cm.</t>
+  </si>
+  <si>
+    <t>HMMAT3</t>
+  </si>
+  <si>
+    <t>N and slight W of HMMAT2</t>
+  </si>
+  <si>
+    <t>Quercus alba, 2-stems 26.3 + 27.7 cm.</t>
+  </si>
+  <si>
+    <t>ZA</t>
+  </si>
+  <si>
+    <t>PONNEW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gale Rd. trail -- right side.  Enter stand few meters away from entrance and head east.  On left side of marsh. </t>
+  </si>
+  <si>
+    <t>Acer rubrum               12.5 cm</t>
+  </si>
+  <si>
+    <t>PONNEW2</t>
+  </si>
+  <si>
+    <t>Very close to trail and further N from PONNEW - Yellow jackets NW in 5.4 dbh</t>
+  </si>
+  <si>
+    <t>Acer palmatum (2-trunk) 5.5 + 13.2 cm.</t>
+  </si>
+  <si>
+    <t>PONNEW3</t>
+  </si>
+  <si>
+    <t>Towards the marsh from PONNEW2 NE</t>
+  </si>
+  <si>
+    <t>Tilia 14 cm.</t>
+  </si>
+  <si>
+    <t>ZB</t>
+  </si>
+  <si>
+    <t>PONRD</t>
+  </si>
+  <si>
+    <t>Towards the marsh from PONNEW3.  Kamal's 2nd one in from PONNEW</t>
+  </si>
+  <si>
+    <t>Tilia americana                  24.9 cm.</t>
+  </si>
+  <si>
+    <t>PONRD2</t>
+  </si>
+  <si>
+    <t>Around the marsh and N from PONRD.  Kamal's</t>
+  </si>
+  <si>
+    <t>Tilia spp. (3-stems) 19.8 + 12.5 + 9.3 cm.</t>
+  </si>
+  <si>
+    <t>PONRD3</t>
+  </si>
+  <si>
+    <t>Follow marsh around to N side of swamp W from PONRD2,   Kamal's</t>
+  </si>
+  <si>
+    <t>Quercus rubra  24.3 cm.</t>
+  </si>
+  <si>
+    <t>ZC</t>
+  </si>
+  <si>
+    <t>PONWH</t>
+  </si>
+  <si>
+    <t>Slightly NW of #55 PONEAST</t>
+  </si>
+  <si>
+    <t>Quercus alba  31.3 cm.</t>
+  </si>
+  <si>
+    <t>PONWH2</t>
+  </si>
+  <si>
+    <t>Close to a large marsh Mostly E, slightly N of #100 PONWH on hill top</t>
+  </si>
+  <si>
+    <t>Acer rubrum               20.8 cm.</t>
+  </si>
+  <si>
+    <t>PONWH3</t>
+  </si>
+  <si>
+    <t>Opposite of another large marsh from PONWH2 slightly S and E of #101 PONWH2.</t>
+  </si>
+  <si>
+    <t>Tilia spp. 35 cm.</t>
+  </si>
+  <si>
+    <t>ZD</t>
+  </si>
+  <si>
+    <t>ISBR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Take Nature Trail through construction area, meadow, stay to left, then take right Bridge trail at the gazebo, cross bridge, plot on right side just after the bridge </t>
+  </si>
+  <si>
+    <t>Acer saccharinum             10 cm.</t>
+  </si>
+  <si>
+    <t>ISBR2</t>
+  </si>
+  <si>
+    <t>Into the forest at a 340Â° from ISBR and ISBR3 Plot runs up into grass/dry area</t>
+  </si>
+  <si>
+    <t>Acer saccharinum           34.4 cm.</t>
+  </si>
+  <si>
+    <t>ISBR3</t>
+  </si>
+  <si>
+    <t>Farthest back.</t>
+  </si>
+  <si>
+    <t>Quercus spp. 37.6 cm.</t>
+  </si>
+  <si>
+    <t>ZE</t>
+  </si>
+  <si>
+    <t>ISBRS</t>
+  </si>
+  <si>
+    <t>Plot on left side of trail just after the bridge.  Across trail from ISBR. SW</t>
+  </si>
+  <si>
+    <t>Acer saccharinum (3-stems) 19.7 + 13.5 + 34.8</t>
+  </si>
+  <si>
+    <t>ISBRS2</t>
+  </si>
+  <si>
+    <t>Further along the creek from ISBRS.  Limba's boots there.</t>
+  </si>
+  <si>
+    <t>Acer saccharinum (2-stems) 33.6 + 10 cm.</t>
+  </si>
+  <si>
+    <t>ISBRS3</t>
+  </si>
+  <si>
+    <t>From ISBRS, cross a small creek on right side, and go straight towards the big creek on left side.From 107 walk into dry woods, then parallel big creek, watch for lge. trees.</t>
+  </si>
+  <si>
+    <t>Acer saccharinum(4-stems) 52.1 + 19.1 + 43.5 + 30.7 cm.</t>
+  </si>
+  <si>
+    <t>ZF</t>
+  </si>
+  <si>
+    <t>ISWH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Park at Nature Center.  Take Nature Trail, enter woods on left after a marsh and before reaching old stove landmark on trail. Transect on the left side of ISMATDRY  Close to trail. </t>
+  </si>
+  <si>
+    <t>Acer saccharum  7 cm.</t>
+  </si>
+  <si>
+    <t>ISWH2</t>
+  </si>
+  <si>
+    <t>Angle SE from ISWH</t>
+  </si>
+  <si>
+    <t>Quercus spp. (2-stems??) 28.2 cm.</t>
+  </si>
+  <si>
+    <t>ISWH3</t>
+  </si>
+  <si>
+    <t>Angle more E, little S toward back, from ISWH2</t>
+  </si>
+  <si>
+    <t>Acer spp.                 34.8cm.</t>
+  </si>
+  <si>
+    <t>ZG</t>
+  </si>
+  <si>
+    <t>KENNEW</t>
+  </si>
+  <si>
+    <t>Uphill from KENUPHD.  Go past KENUPHD3, NW from it.</t>
+  </si>
+  <si>
+    <t>Ulmus 18.5 cm.</t>
+  </si>
+  <si>
+    <t>KENNEW2</t>
+  </si>
+  <si>
+    <t>Go past KENNEW towards the dirt road and fence in the back of the stand, more NW.</t>
+  </si>
+  <si>
+    <t>Walnut spp.53 cm</t>
+  </si>
+  <si>
+    <t>KENNEW3</t>
+  </si>
+  <si>
+    <t>NE of KENNEW &amp; KENNEW2</t>
+  </si>
+  <si>
+    <t>Walnut 83.8 cm.</t>
+  </si>
+  <si>
+    <t>Date_relocated_2024</t>
+  </si>
+  <si>
+    <t>5_15_2024</t>
+  </si>
+  <si>
+    <t>23.2 cm black cherry</t>
+  </si>
+  <si>
+    <t>From paired black walnuts: 320 degrees, 18 steps</t>
+  </si>
+  <si>
+    <t>11.25 cm choke cherry</t>
+  </si>
+  <si>
+    <t>E of access road - north of a big basswood</t>
+  </si>
+  <si>
+    <t>Center tree down - stump remains - PVC placed on S side. Witness tree: Black walnut 36 cm DBH 110 degrees to the center tree</t>
+  </si>
+  <si>
+    <t>In NW - there is an approx. 2m tall ash just outside the microplot.</t>
+  </si>
+  <si>
+    <t>West PVC is in the equestrian path by a few feet. We put a PVC slightly nearer to the center than 8 m</t>
+  </si>
+  <si>
+    <t>Center tree down. Center tree does have PVC and metal stake. Witness: Black walnut 63.2 cm</t>
+  </si>
+  <si>
+    <t>5_16_2024</t>
+  </si>
+  <si>
+    <t>Next to a grapevine</t>
+  </si>
+  <si>
+    <t>Acer rubrum 15.9 cm</t>
+  </si>
+  <si>
+    <t>Acer rubrum 40.0 cm</t>
+  </si>
+  <si>
+    <t>Q. rubra 28.1 cm</t>
+  </si>
+  <si>
+    <t>15 cm dbh</t>
+  </si>
+  <si>
+    <t>15.7 cm + 13.2 cm two trunk</t>
+  </si>
+  <si>
+    <t>14.2 cm</t>
+  </si>
+  <si>
+    <t>26.2 cm</t>
+  </si>
+  <si>
+    <t>2 of 3 stems are gone: also needs a tree tag - the one stem left is 20.7 cm dbh</t>
+  </si>
+  <si>
+    <t>28.5 cm dbh oak</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>NW</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>leaflet_stalk_length_mm</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>ash_trees_notes</t>
+  </si>
+  <si>
+    <t>ash_saplings_notes</t>
+  </si>
+  <si>
+    <t>ash_seedlings_notes</t>
+  </si>
+  <si>
+    <t>dead side of the tree is 3.7 cm dbh</t>
+  </si>
+  <si>
+    <t>vines on it (maybe Celastrus)</t>
+  </si>
+  <si>
+    <t>the other stem is dead</t>
+  </si>
+  <si>
+    <t>many of the saplings are in the 2-2.5 cm range</t>
+  </si>
+  <si>
+    <t>outside 18 m - need to record data for this one - may be a lingering ash</t>
+  </si>
+  <si>
+    <t>tagged - tag label gone</t>
+  </si>
+  <si>
+    <t>tagged previously - 13</t>
+  </si>
+  <si>
+    <t>smooth bark</t>
+  </si>
+  <si>
+    <t>a lot of vine pressure at this site - vines are competing with ash trees</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +1460,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -228,7 +1504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -240,6 +1516,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,7 +1805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D88F145-B9A5-4ED2-BA4E-B069605466DD}">
   <dimension ref="A1:B16385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -49744,15 +51023,3565 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="15.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>42.532541950000002</v>
+      </c>
+      <c r="D2" s="5">
+        <v>-83.670538800000003</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>42.532967239999998</v>
+      </c>
+      <c r="D3" s="5">
+        <v>-83.67076505</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5">
+        <v>42.533263560000002</v>
+      </c>
+      <c r="D4" s="5">
+        <v>-83.670932440000001</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>42.378346659999998</v>
+      </c>
+      <c r="D5" s="5">
+        <v>-83.913361170000002</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="5">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>42.377963800000003</v>
+      </c>
+      <c r="D6" s="5">
+        <v>-83.913092160000005</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="5">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5">
+        <v>42.378304020000002</v>
+      </c>
+      <c r="D7" s="5">
+        <v>-83.913823320000006</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="5">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5">
+        <v>42.53544514</v>
+      </c>
+      <c r="D8" s="5">
+        <v>-83.667223190000001</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="5">
+        <v>8</v>
+      </c>
+      <c r="C9" s="5">
+        <v>42.535633609999998</v>
+      </c>
+      <c r="D9" s="5">
+        <v>-83.666427560000002</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="5">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5">
+        <v>42.535882090000001</v>
+      </c>
+      <c r="D10" s="5">
+        <v>-83.66709668</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="5">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5">
+        <v>42.375157350000002</v>
+      </c>
+      <c r="D11" s="5">
+        <v>-83.914113369999995</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="5">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5">
+        <v>42.374745750000002</v>
+      </c>
+      <c r="D12" s="5">
+        <v>-83.914299380000003</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="5">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5">
+        <v>42.373981559999997</v>
+      </c>
+      <c r="D13" s="5">
+        <v>-83.914218869999999</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="5">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5">
+        <v>42.534636990000003</v>
+      </c>
+      <c r="D14" s="5">
+        <v>-83.666954950000004</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="5">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5">
+        <v>42.53497995</v>
+      </c>
+      <c r="D15" s="5">
+        <v>-83.666570340000007</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="5">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5">
+        <v>42.534295419999999</v>
+      </c>
+      <c r="D16" s="5">
+        <v>-83.667219650000007</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="5">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5">
+        <v>42.499414180000002</v>
+      </c>
+      <c r="D17" s="5">
+        <v>-83.716566400000005</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="5">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5">
+        <v>42.500113159999998</v>
+      </c>
+      <c r="D18" s="5">
+        <v>-83.716904080000006</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="5">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5">
+        <v>42.499844260000003</v>
+      </c>
+      <c r="D19" s="5">
+        <v>-83.717294050000007</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="5">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5">
+        <v>42.537844329999999</v>
+      </c>
+      <c r="D20" s="5">
+        <v>-83.666653620000005</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="5">
+        <v>20</v>
+      </c>
+      <c r="C21" s="5">
+        <v>42.537941680000003</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-83.665966850000004</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="5">
+        <v>21</v>
+      </c>
+      <c r="C22" s="5">
+        <v>42.537279519999998</v>
+      </c>
+      <c r="D22" s="5">
+        <v>-83.666394850000003</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="5">
+        <v>22</v>
+      </c>
+      <c r="C23" s="5">
+        <v>42.499719120000002</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-83.716309580000001</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="5">
+        <v>23</v>
+      </c>
+      <c r="C24" s="5">
+        <v>42.500855489999999</v>
+      </c>
+      <c r="D24" s="5">
+        <v>-83.716684799999996</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="5">
+        <v>24</v>
+      </c>
+      <c r="C25" s="5">
+        <v>42.497946849999998</v>
+      </c>
+      <c r="D25" s="5">
+        <v>-83.717754940000006</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="5">
+        <v>25</v>
+      </c>
+      <c r="C26" s="5">
+        <v>42.575915899999998</v>
+      </c>
+      <c r="D26" s="5">
+        <v>-83.520992419999999</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" s="5">
+        <v>26</v>
+      </c>
+      <c r="C27" s="5">
+        <v>42.576015689999998</v>
+      </c>
+      <c r="D27" s="5">
+        <v>-83.520543160000003</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B28" s="5">
+        <v>27</v>
+      </c>
+      <c r="C28" s="5">
+        <v>42.576372249999999</v>
+      </c>
+      <c r="D28" s="5">
+        <v>-83.520269220000003</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="5">
+        <v>28</v>
+      </c>
+      <c r="C29" s="5">
+        <v>42.644734560000003</v>
+      </c>
+      <c r="D29" s="5">
+        <v>-83.566695350000003</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="5">
+        <v>29</v>
+      </c>
+      <c r="C30" s="5">
+        <v>42.645909760000002</v>
+      </c>
+      <c r="D30" s="5">
+        <v>-83.566805059999993</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="5">
+        <v>30</v>
+      </c>
+      <c r="C31" s="5">
+        <v>42.646862839999997</v>
+      </c>
+      <c r="D31" s="5">
+        <v>-83.569159819999996</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B32" s="5">
+        <v>31</v>
+      </c>
+      <c r="C32" s="5">
+        <v>42.575788160000002</v>
+      </c>
+      <c r="D32" s="5">
+        <v>-83.523183520000003</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" s="5">
+        <v>32</v>
+      </c>
+      <c r="C33" s="5">
+        <v>42.575775739999997</v>
+      </c>
+      <c r="D33" s="5">
+        <v>-83.523990069999996</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" s="5">
+        <v>33</v>
+      </c>
+      <c r="C34" s="5">
+        <v>42.576354590000001</v>
+      </c>
+      <c r="D34" s="5">
+        <v>-83.521824260000002</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="5">
+        <v>34</v>
+      </c>
+      <c r="C35" s="5">
+        <v>42.575715240000001</v>
+      </c>
+      <c r="D35" s="5">
+        <v>-83.528140289999996</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+    </row>
+    <row r="36" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="5">
+        <v>35</v>
+      </c>
+      <c r="C36" s="5">
+        <v>42.575817630000003</v>
+      </c>
+      <c r="D36" s="5">
+        <v>-83.527408260000001</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+    </row>
+    <row r="37" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="5">
+        <v>36</v>
+      </c>
+      <c r="C37" s="5">
+        <v>42.576073919999999</v>
+      </c>
+      <c r="D37" s="5">
+        <v>-83.526681280000005</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+    </row>
+    <row r="38" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="5">
+        <v>37</v>
+      </c>
+      <c r="C38" s="5">
+        <v>42.574766699999998</v>
+      </c>
+      <c r="D38" s="5">
+        <v>-83.545987229999994</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B39" s="5">
+        <v>38</v>
+      </c>
+      <c r="C39" s="5">
+        <v>42.574742790000002</v>
+      </c>
+      <c r="D39" s="5">
+        <v>-83.546326820000004</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+    </row>
+    <row r="40" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" s="5">
+        <v>39</v>
+      </c>
+      <c r="C40" s="5">
+        <v>42.574286579999999</v>
+      </c>
+      <c r="D40" s="5">
+        <v>-83.547082649999993</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="5">
+        <v>40</v>
+      </c>
+      <c r="C41" s="5">
+        <v>42.530433479999999</v>
+      </c>
+      <c r="D41" s="5">
+        <v>-83.670415829999996</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+    </row>
+    <row r="42" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="5">
+        <v>41</v>
+      </c>
+      <c r="C42" s="5">
+        <v>42.531105910000001</v>
+      </c>
+      <c r="D42" s="5">
+        <v>-83.667461239999994</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+    </row>
+    <row r="43" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="5">
+        <v>42</v>
+      </c>
+      <c r="C43" s="5">
+        <v>42.531188139999998</v>
+      </c>
+      <c r="D43" s="5">
+        <v>-83.666480809999996</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+    </row>
+    <row r="44" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="5">
+        <v>43</v>
+      </c>
+      <c r="C44" s="5">
+        <v>42.531246760000002</v>
+      </c>
+      <c r="D44" s="5">
+        <v>-83.668975990000007</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+    </row>
+    <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="5">
+        <v>44</v>
+      </c>
+      <c r="C45" s="5">
+        <v>42.531016090000001</v>
+      </c>
+      <c r="D45" s="5">
+        <v>-83.669441109999994</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+    </row>
+    <row r="46" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="5">
+        <v>45</v>
+      </c>
+      <c r="C46" s="5">
+        <v>42.531465339999997</v>
+      </c>
+      <c r="D46" s="5">
+        <v>-83.668518800000001</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+    </row>
+    <row r="47" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B47" s="5">
+        <v>49</v>
+      </c>
+      <c r="C47" s="5">
+        <v>42.676019910000001</v>
+      </c>
+      <c r="D47" s="5">
+        <v>-83.483743790000005</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B48" s="5">
+        <v>50</v>
+      </c>
+      <c r="C48" s="5">
+        <v>42.676395339999999</v>
+      </c>
+      <c r="D48" s="5">
+        <v>-83.483365610000007</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B49" s="5">
+        <v>51</v>
+      </c>
+      <c r="C49" s="5">
+        <v>42.676951809999998</v>
+      </c>
+      <c r="D49" s="5">
+        <v>-83.483544170000002</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+    </row>
+    <row r="50" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B50" s="5">
+        <v>52</v>
+      </c>
+      <c r="C50" s="5">
+        <v>42.677375910000002</v>
+      </c>
+      <c r="D50" s="5">
+        <v>-83.484202699999997</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+    </row>
+    <row r="51" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B51" s="5">
+        <v>53</v>
+      </c>
+      <c r="C51" s="5">
+        <v>42.677635389999999</v>
+      </c>
+      <c r="D51" s="5">
+        <v>-83.484940769999994</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B52" s="5">
+        <v>54</v>
+      </c>
+      <c r="C52" s="5">
+        <v>42.676193439999999</v>
+      </c>
+      <c r="D52" s="5">
+        <v>-83.484580829999999</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+    </row>
+    <row r="53" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B53" s="5">
+        <v>55</v>
+      </c>
+      <c r="C53" s="5">
+        <v>42.67628637</v>
+      </c>
+      <c r="D53" s="5">
+        <v>-83.481618019999999</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+    </row>
+    <row r="54" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B54" s="5">
+        <v>56</v>
+      </c>
+      <c r="C54" s="5">
+        <v>42.676440030000002</v>
+      </c>
+      <c r="D54" s="5">
+        <v>-83.482231330000005</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+    </row>
+    <row r="55" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B55" s="5">
+        <v>57</v>
+      </c>
+      <c r="C55" s="5">
+        <v>42.676555270000001</v>
+      </c>
+      <c r="D55" s="5">
+        <v>-83.482769300000001</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+    </row>
+    <row r="56" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B56" s="5">
+        <v>58</v>
+      </c>
+      <c r="C56" s="5">
+        <v>42.676976439999997</v>
+      </c>
+      <c r="D56" s="5">
+        <v>-83.482257930000003</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+    </row>
+    <row r="57" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B57" s="5">
+        <v>59</v>
+      </c>
+      <c r="C57" s="5">
+        <v>42.678471610000003</v>
+      </c>
+      <c r="D57" s="5">
+        <v>-83.482157099999995</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+    </row>
+    <row r="58" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B58" s="5">
+        <v>60</v>
+      </c>
+      <c r="C58" s="5">
+        <v>42.677967789999997</v>
+      </c>
+      <c r="D58" s="5">
+        <v>-83.483378310000006</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+    </row>
+    <row r="59" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="5">
+        <v>61</v>
+      </c>
+      <c r="C59" s="5">
+        <v>42.505113870000002</v>
+      </c>
+      <c r="D59" s="5">
+        <v>-83.711562999999998</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+    </row>
+    <row r="60" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60" s="5">
+        <v>62</v>
+      </c>
+      <c r="C60" s="5">
+        <v>42.505480149999997</v>
+      </c>
+      <c r="D60" s="5">
+        <v>-83.711303970000003</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+    </row>
+    <row r="61" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" s="5">
+        <v>63</v>
+      </c>
+      <c r="C61" s="5">
+        <v>42.505065430000002</v>
+      </c>
+      <c r="D61" s="5">
+        <v>-83.711056709999994</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+    </row>
+    <row r="62" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="5">
+        <v>64</v>
+      </c>
+      <c r="C62" s="5">
+        <v>42.498714579999998</v>
+      </c>
+      <c r="D62" s="5">
+        <v>-83.718800340000001</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+    </row>
+    <row r="63" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" s="5">
+        <v>65</v>
+      </c>
+      <c r="C63" s="5">
+        <v>42.498261640000003</v>
+      </c>
+      <c r="D63" s="5">
+        <v>-83.719115880000004</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+    </row>
+    <row r="64" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B64" s="5">
+        <v>66</v>
+      </c>
+      <c r="C64" s="5">
+        <v>42.497555439999999</v>
+      </c>
+      <c r="D64" s="5">
+        <v>-83.719402799999997</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+    </row>
+    <row r="65" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B65" s="5">
+        <v>67</v>
+      </c>
+      <c r="C65" s="5">
+        <v>42.702597859999997</v>
+      </c>
+      <c r="D65" s="5">
+        <v>-83.496523370000006</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+    </row>
+    <row r="66" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B66" s="5">
+        <v>68</v>
+      </c>
+      <c r="C66" s="5">
+        <v>42.702138249999997</v>
+      </c>
+      <c r="D66" s="5">
+        <v>-83.496488479999996</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+    </row>
+    <row r="67" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B67" s="5">
+        <v>69</v>
+      </c>
+      <c r="C67" s="5">
+        <v>42.702235129999998</v>
+      </c>
+      <c r="D67" s="5">
+        <v>-83.495847280000007</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+    </row>
+    <row r="68" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B68" s="5">
+        <v>70</v>
+      </c>
+      <c r="C68" s="5">
+        <v>42.701692199999997</v>
+      </c>
+      <c r="D68" s="5">
+        <v>-83.497415970000006</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+    </row>
+    <row r="69" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B69" s="5">
+        <v>71</v>
+      </c>
+      <c r="C69" s="5">
+        <v>42.701292430000002</v>
+      </c>
+      <c r="D69" s="5">
+        <v>-83.497406979999994</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+    </row>
+    <row r="70" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B70" s="5">
+        <v>72</v>
+      </c>
+      <c r="C70" s="5">
+        <v>42.701428489999998</v>
+      </c>
+      <c r="D70" s="5">
+        <v>-83.497799670000006</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+    </row>
+    <row r="71" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B71" s="5">
+        <v>73</v>
+      </c>
+      <c r="C71" s="5">
+        <v>42.703543699999997</v>
+      </c>
+      <c r="D71" s="5">
+        <v>-83.494639359999994</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+    </row>
+    <row r="72" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B72" s="5">
+        <v>74</v>
+      </c>
+      <c r="C72" s="5">
+        <v>42.703753079999998</v>
+      </c>
+      <c r="D72" s="5">
+        <v>-83.494151380000005</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+    </row>
+    <row r="73" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B73" s="5">
+        <v>75</v>
+      </c>
+      <c r="C73" s="5">
+        <v>42.702789209999999</v>
+      </c>
+      <c r="D73" s="5">
+        <v>-83.493605619999997</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+      <c r="M73" s="5"/>
+    </row>
+    <row r="74" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B74" s="5">
+        <v>76</v>
+      </c>
+      <c r="C74" s="5">
+        <v>42.704633029999997</v>
+      </c>
+      <c r="D74" s="5">
+        <v>-83.495708969999995</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+    </row>
+    <row r="75" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B75" s="5">
+        <v>77</v>
+      </c>
+      <c r="C75" s="5">
+        <v>42.704812189999998</v>
+      </c>
+      <c r="D75" s="5">
+        <v>-83.494821000000002</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+    </row>
+    <row r="76" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B76" s="5">
+        <v>78</v>
+      </c>
+      <c r="C76" s="5">
+        <v>42.704878219999998</v>
+      </c>
+      <c r="D76" s="5">
+        <v>-83.494080699999998</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+    </row>
+    <row r="77" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B77" s="5">
+        <v>79</v>
+      </c>
+      <c r="C77" s="5">
+        <v>42.704802620000002</v>
+      </c>
+      <c r="D77" s="5">
+        <v>-83.497063729999994</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+    </row>
+    <row r="78" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B78" s="5">
+        <v>80</v>
+      </c>
+      <c r="C78" s="5">
+        <v>42.703887020000003</v>
+      </c>
+      <c r="D78" s="5">
+        <v>-83.49893342</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+    </row>
+    <row r="79" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B79" s="5">
+        <v>81</v>
+      </c>
+      <c r="C79" s="5">
+        <v>42.704519599999998</v>
+      </c>
+      <c r="D79" s="5">
+        <v>-83.498038410000007</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+    </row>
+    <row r="80" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B80" s="5">
+        <v>82</v>
+      </c>
+      <c r="C80" s="5">
+        <v>42.648929099999997</v>
+      </c>
+      <c r="D80" s="5">
+        <v>-83.556360560000002</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+    </row>
+    <row r="81" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B81" s="5">
+        <v>83</v>
+      </c>
+      <c r="C81" s="5">
+        <v>42.648585609999998</v>
+      </c>
+      <c r="D81" s="5">
+        <v>-83.556896170000002</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+    </row>
+    <row r="82" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B82" s="5">
+        <v>84</v>
+      </c>
+      <c r="C82" s="5">
+        <v>42.649398980000001</v>
+      </c>
+      <c r="D82" s="5">
+        <v>-83.557614830000006</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+    </row>
+    <row r="83" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B83" s="5">
+        <v>85</v>
+      </c>
+      <c r="C83" s="5">
+        <v>42.645876059999999</v>
+      </c>
+      <c r="D83" s="5">
+        <v>-83.550938880000004</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+    </row>
+    <row r="84" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B84" s="5">
+        <v>86</v>
+      </c>
+      <c r="C84" s="5">
+        <v>42.645143709999999</v>
+      </c>
+      <c r="D84" s="5">
+        <v>-83.550895679999996</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+    </row>
+    <row r="85" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" s="5">
+        <v>87</v>
+      </c>
+      <c r="C85" s="5">
+        <v>42.646372110000001</v>
+      </c>
+      <c r="D85" s="5">
+        <v>-83.55062169</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+    </row>
+    <row r="86" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B86" s="5">
+        <v>88</v>
+      </c>
+      <c r="C86" s="5">
+        <v>42.647047600000001</v>
+      </c>
+      <c r="D86" s="5">
+        <v>-83.55230573</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+    </row>
+    <row r="87" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B87" s="5">
+        <v>89</v>
+      </c>
+      <c r="C87" s="5">
+        <v>42.647055379999998</v>
+      </c>
+      <c r="D87" s="5">
+        <v>-83.553977410000002</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+    </row>
+    <row r="88" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B88" s="5">
+        <v>90</v>
+      </c>
+      <c r="C88" s="5">
+        <v>42.647456599999998</v>
+      </c>
+      <c r="D88" s="5">
+        <v>-83.553657619999996</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+    </row>
+    <row r="89" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B89" s="5">
+        <v>91</v>
+      </c>
+      <c r="C89" s="5">
+        <v>42.378244989999999</v>
+      </c>
+      <c r="D89" s="5">
+        <v>-83.911661679999995</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+    </row>
+    <row r="90" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B90" s="5">
+        <v>92</v>
+      </c>
+      <c r="C90" s="5">
+        <v>42.378254740000003</v>
+      </c>
+      <c r="D90" s="5">
+        <v>-83.912291449999998</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+    </row>
+    <row r="91" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B91" s="5">
+        <v>93</v>
+      </c>
+      <c r="C91" s="5">
+        <v>42.378729800000002</v>
+      </c>
+      <c r="D91" s="5">
+        <v>-83.912675890000003</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+    </row>
+    <row r="92" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B92" s="5">
+        <v>94</v>
+      </c>
+      <c r="C92" s="5">
+        <v>42.675545409999998</v>
+      </c>
+      <c r="D92" s="5">
+        <v>-83.482740710000002</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B93" s="5">
+        <v>95</v>
+      </c>
+      <c r="C93" s="5">
+        <v>42.675840280000003</v>
+      </c>
+      <c r="D93" s="5">
+        <v>-83.483042400000002</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B94" s="5">
+        <v>96</v>
+      </c>
+      <c r="C94" s="5">
+        <v>42.676066640000002</v>
+      </c>
+      <c r="D94" s="5">
+        <v>-83.482712809999995</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B95" s="5">
+        <v>97</v>
+      </c>
+      <c r="C95" s="5">
+        <v>42.675463550000003</v>
+      </c>
+      <c r="D95" s="5">
+        <v>-83.482106900000005</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B96" s="5">
+        <v>98</v>
+      </c>
+      <c r="C96" s="5">
+        <v>42.675977510000003</v>
+      </c>
+      <c r="D96" s="5">
+        <v>-83.481834570000004</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B97" s="5">
+        <v>99</v>
+      </c>
+      <c r="C97" s="5">
+        <v>42.676114949999999</v>
+      </c>
+      <c r="D97" s="5">
+        <v>-83.482209499999996</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B98" s="5">
+        <v>100</v>
+      </c>
+      <c r="C98" s="5">
+        <v>42.676572350000001</v>
+      </c>
+      <c r="D98" s="5">
+        <v>-83.481901570000005</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+    </row>
+    <row r="99" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B99" s="5">
+        <v>101</v>
+      </c>
+      <c r="C99" s="5">
+        <v>42.676962680000003</v>
+      </c>
+      <c r="D99" s="5">
+        <v>-83.480959240000004</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+    </row>
+    <row r="100" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B100" s="5">
+        <v>102</v>
+      </c>
+      <c r="C100" s="5">
+        <v>42.67670871</v>
+      </c>
+      <c r="D100" s="5">
+        <v>-83.480460379999997</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+    </row>
+    <row r="101" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B101" s="5">
+        <v>103</v>
+      </c>
+      <c r="C101" s="5">
+        <v>42.706404030000002</v>
+      </c>
+      <c r="D101" s="5">
+        <v>-83.493421240000004</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
+    </row>
+    <row r="102" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B102" s="5">
+        <v>104</v>
+      </c>
+      <c r="C102" s="5">
+        <v>42.706236629999999</v>
+      </c>
+      <c r="D102" s="5">
+        <v>-83.493822199999997</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
+    </row>
+    <row r="103" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B103" s="5">
+        <v>105</v>
+      </c>
+      <c r="C103" s="5">
+        <v>42.706707729999998</v>
+      </c>
+      <c r="D103" s="5">
+        <v>-83.49360969</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+    </row>
+    <row r="104" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B104" s="5">
+        <v>106</v>
+      </c>
+      <c r="C104" s="5">
+        <v>42.705727439999997</v>
+      </c>
+      <c r="D104" s="5">
+        <v>-83.493866729999993</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+    </row>
+    <row r="105" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B105" s="5">
+        <v>107</v>
+      </c>
+      <c r="C105" s="5">
+        <v>42.705357370000002</v>
+      </c>
+      <c r="D105" s="5">
+        <v>-83.494123939999994</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+    </row>
+    <row r="106" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B106" s="5">
+        <v>108</v>
+      </c>
+      <c r="C106" s="5">
+        <v>42.705142950000003</v>
+      </c>
+      <c r="D106" s="5">
+        <v>-83.494985650000004</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
+    </row>
+    <row r="107" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B107" s="5">
+        <v>109</v>
+      </c>
+      <c r="C107" s="5">
+        <v>42.702821120000003</v>
+      </c>
+      <c r="D107" s="5">
+        <v>-83.496243629999995</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="5"/>
+    </row>
+    <row r="108" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B108" s="5">
+        <v>110</v>
+      </c>
+      <c r="C108" s="5">
+        <v>42.702560490000003</v>
+      </c>
+      <c r="D108" s="5">
+        <v>-83.495794520000004</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+      <c r="M108" s="5"/>
+    </row>
+    <row r="109" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B109" s="5">
+        <v>111</v>
+      </c>
+      <c r="C109" s="5">
+        <v>42.702496060000001</v>
+      </c>
+      <c r="D109" s="5">
+        <v>-83.495138870000005</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="5"/>
+    </row>
+    <row r="110" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B110" s="5">
+        <v>112</v>
+      </c>
+      <c r="C110" s="5">
+        <v>42.53359794</v>
+      </c>
+      <c r="D110" s="5">
+        <v>-83.671224730000006</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="M110" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B111" s="5">
+        <v>113</v>
+      </c>
+      <c r="C111" s="5">
+        <v>42.53386003</v>
+      </c>
+      <c r="D111" s="5">
+        <v>-83.67146597</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+      <c r="M111" s="5"/>
+    </row>
+    <row r="112" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B112" s="5">
+        <v>114</v>
+      </c>
+      <c r="C112" s="5">
+        <v>42.534377599999999</v>
+      </c>
+      <c r="D112" s="5">
+        <v>-83.6712658</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="5"/>
+      <c r="M112" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -49760,9 +54589,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4294AC29-14D4-407D-99E4-B7615C9E66E2}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -49775,7 +54604,7 @@
     <col min="13" max="13" width="24.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -49813,7 +54642,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -50120,7 +54949,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -50199,7 +55028,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -50240,7 +55069,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -50813,7 +55642,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -50854,7 +55683,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -51541,7 +56370,7 @@
         <v>4</v>
       </c>
       <c r="M46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -51582,7 +56411,7 @@
         <v>2</v>
       </c>
       <c r="M47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -51623,7 +56452,7 @@
         <v>1</v>
       </c>
       <c r="M48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -51664,7 +56493,7 @@
         <v>0</v>
       </c>
       <c r="M49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -51674,11 +56503,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BD0D19-2CF9-4B20-BFF9-137DFE963B6F}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -51686,7 +56515,7 @@
     <col min="1" max="1" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -51713,6 +56542,684 @@
       </c>
       <c r="I1" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>451</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>455</v>
+      </c>
+      <c r="E6" t="s">
+        <v>455</v>
+      </c>
+      <c r="F6" t="s">
+        <v>455</v>
+      </c>
+      <c r="G6" t="s">
+        <v>455</v>
+      </c>
+      <c r="H6" t="s">
+        <v>455</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>453</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>455</v>
+      </c>
+      <c r="E7" t="s">
+        <v>455</v>
+      </c>
+      <c r="F7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G7" t="s">
+        <v>455</v>
+      </c>
+      <c r="H7" t="s">
+        <v>455</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>454</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>455</v>
+      </c>
+      <c r="E8" t="s">
+        <v>455</v>
+      </c>
+      <c r="F8" t="s">
+        <v>455</v>
+      </c>
+      <c r="G8" t="s">
+        <v>455</v>
+      </c>
+      <c r="H8" t="s">
+        <v>455</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>452</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>455</v>
+      </c>
+      <c r="E9" t="s">
+        <v>455</v>
+      </c>
+      <c r="F9" t="s">
+        <v>455</v>
+      </c>
+      <c r="G9" t="s">
+        <v>455</v>
+      </c>
+      <c r="H9" t="s">
+        <v>455</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>451</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>455</v>
+      </c>
+      <c r="E10" t="s">
+        <v>455</v>
+      </c>
+      <c r="F10" t="s">
+        <v>455</v>
+      </c>
+      <c r="G10" t="s">
+        <v>455</v>
+      </c>
+      <c r="H10" t="s">
+        <v>455</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>453</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>455</v>
+      </c>
+      <c r="E11" t="s">
+        <v>455</v>
+      </c>
+      <c r="F11" t="s">
+        <v>455</v>
+      </c>
+      <c r="G11" t="s">
+        <v>455</v>
+      </c>
+      <c r="H11" t="s">
+        <v>455</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>454</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>455</v>
+      </c>
+      <c r="E12" t="s">
+        <v>455</v>
+      </c>
+      <c r="F12" t="s">
+        <v>456</v>
+      </c>
+      <c r="G12" t="s">
+        <v>456</v>
+      </c>
+      <c r="H12" t="s">
+        <v>455</v>
+      </c>
+      <c r="I12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>452</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>455</v>
+      </c>
+      <c r="E13" t="s">
+        <v>455</v>
+      </c>
+      <c r="F13" t="s">
+        <v>455</v>
+      </c>
+      <c r="G13" t="s">
+        <v>455</v>
+      </c>
+      <c r="H13" t="s">
+        <v>455</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>95</v>
+      </c>
+      <c r="B14" t="s">
+        <v>451</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>95</v>
+      </c>
+      <c r="B15" t="s">
+        <v>453</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>454</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>95</v>
+      </c>
+      <c r="B17" t="s">
+        <v>452</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>49</v>
+      </c>
+      <c r="B18" t="s">
+        <v>451</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>49</v>
+      </c>
+      <c r="B19" t="s">
+        <v>453</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>49</v>
+      </c>
+      <c r="B20" t="s">
+        <v>454</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>452</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>50</v>
+      </c>
+      <c r="B22" t="s">
+        <v>451</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>50</v>
+      </c>
+      <c r="B23" t="s">
+        <v>453</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>454</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>452</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>451</v>
+      </c>
+      <c r="C26">
+        <v>26</v>
+      </c>
+      <c r="J26" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>453</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>454</v>
+      </c>
+      <c r="C28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>452</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>94</v>
+      </c>
+      <c r="B30" t="s">
+        <v>451</v>
+      </c>
+      <c r="C30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>94</v>
+      </c>
+      <c r="B31" t="s">
+        <v>453</v>
+      </c>
+      <c r="C31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>94</v>
+      </c>
+      <c r="B32" t="s">
+        <v>454</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>452</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>97</v>
+      </c>
+      <c r="B34" t="s">
+        <v>451</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>97</v>
+      </c>
+      <c r="B35" t="s">
+        <v>453</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>97</v>
+      </c>
+      <c r="B36" t="s">
+        <v>454</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>97</v>
+      </c>
+      <c r="B37" t="s">
+        <v>452</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>98</v>
+      </c>
+      <c r="B38" t="s">
+        <v>451</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
+        <v>453</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>98</v>
+      </c>
+      <c r="B40" t="s">
+        <v>454</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>98</v>
+      </c>
+      <c r="B41" t="s">
+        <v>452</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>99</v>
+      </c>
+      <c r="B42" t="s">
+        <v>451</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>99</v>
+      </c>
+      <c r="B43" t="s">
+        <v>453</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>99</v>
+      </c>
+      <c r="B44" t="s">
+        <v>454</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>99</v>
+      </c>
+      <c r="B45" t="s">
+        <v>452</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>96</v>
+      </c>
+      <c r="B46" t="s">
+        <v>451</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s">
+        <v>453</v>
+      </c>
+      <c r="C47">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>454</v>
+      </c>
+      <c r="C48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>452</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -51722,11 +57229,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA95277-679F-4206-8ACD-7B30D3EACF40}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="43" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomLeft" activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -51734,7 +57241,7 @@
     <col min="1" max="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -51745,43 +57252,1896 @@
         <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>36</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" t="s">
+        <v>455</v>
+      </c>
+      <c r="K2" t="s">
+        <v>455</v>
+      </c>
+      <c r="L2" t="s">
+        <v>456</v>
+      </c>
+      <c r="M2" t="s">
+        <v>455</v>
+      </c>
+      <c r="N2" t="s">
+        <v>455</v>
+      </c>
+      <c r="O2" t="s">
+        <v>455</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>453</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="R3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>451</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>2.42</v>
+      </c>
+      <c r="G12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" t="s">
+        <v>191</v>
+      </c>
+      <c r="J12" t="s">
+        <v>455</v>
+      </c>
+      <c r="K12" t="s">
+        <v>455</v>
+      </c>
+      <c r="L12" t="s">
+        <v>456</v>
+      </c>
+      <c r="M12" t="s">
+        <v>455</v>
+      </c>
+      <c r="N12" t="s">
+        <v>455</v>
+      </c>
+      <c r="O12" t="s">
+        <v>455</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>451</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>4.68</v>
+      </c>
+      <c r="G13">
+        <v>2.9</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>191</v>
+      </c>
+      <c r="J13" t="s">
+        <v>455</v>
+      </c>
+      <c r="K13" t="s">
+        <v>455</v>
+      </c>
+      <c r="L13" t="s">
+        <v>456</v>
+      </c>
+      <c r="M13" t="s">
+        <v>455</v>
+      </c>
+      <c r="N13" t="s">
+        <v>455</v>
+      </c>
+      <c r="O13" t="s">
+        <v>455</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>451</v>
+      </c>
+      <c r="C14">
+        <v>52</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>4.47</v>
+      </c>
+      <c r="G14">
+        <v>4.25</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" t="s">
+        <v>191</v>
+      </c>
+      <c r="J14" t="s">
+        <v>455</v>
+      </c>
+      <c r="K14" t="s">
+        <v>455</v>
+      </c>
+      <c r="L14" t="s">
+        <v>456</v>
+      </c>
+      <c r="M14" t="s">
+        <v>455</v>
+      </c>
+      <c r="N14" t="s">
+        <v>455</v>
+      </c>
+      <c r="O14" t="s">
+        <v>455</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C15">
+        <v>200</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>9.67</v>
+      </c>
+      <c r="G15">
+        <v>2.5</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>191</v>
+      </c>
+      <c r="J15" t="s">
+        <v>455</v>
+      </c>
+      <c r="K15" t="s">
+        <v>455</v>
+      </c>
+      <c r="L15" t="s">
+        <v>456</v>
+      </c>
+      <c r="M15" t="s">
+        <v>455</v>
+      </c>
+      <c r="N15" t="s">
+        <v>455</v>
+      </c>
+      <c r="O15" t="s">
+        <v>455</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>453</v>
+      </c>
+      <c r="C16">
+        <v>144</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>10.61</v>
+      </c>
+      <c r="G16">
+        <v>3.2</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" t="s">
+        <v>455</v>
+      </c>
+      <c r="K16" t="s">
+        <v>455</v>
+      </c>
+      <c r="L16" t="s">
+        <v>456</v>
+      </c>
+      <c r="M16" t="s">
+        <v>456</v>
+      </c>
+      <c r="N16" t="s">
+        <v>455</v>
+      </c>
+      <c r="O16" t="s">
+        <v>456</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>454</v>
+      </c>
+      <c r="C17">
+        <v>244</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>15.64</v>
+      </c>
+      <c r="G17">
+        <v>6.65</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" t="s">
+        <v>455</v>
+      </c>
+      <c r="K17" t="s">
+        <v>455</v>
+      </c>
+      <c r="L17" t="s">
+        <v>455</v>
+      </c>
+      <c r="M17" t="s">
+        <v>456</v>
+      </c>
+      <c r="N17" t="s">
+        <v>455</v>
+      </c>
+      <c r="O17" t="s">
+        <v>455</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>454</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>21.92</v>
+      </c>
+      <c r="G18">
+        <v>4.5</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" t="s">
+        <v>455</v>
+      </c>
+      <c r="K18" t="s">
+        <v>455</v>
+      </c>
+      <c r="L18" t="s">
+        <v>456</v>
+      </c>
+      <c r="M18" t="s">
+        <v>456</v>
+      </c>
+      <c r="N18" t="s">
+        <v>456</v>
+      </c>
+      <c r="O18" t="s">
+        <v>455</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>454</v>
+      </c>
+      <c r="F19">
+        <v>24.19</v>
+      </c>
+      <c r="G19">
+        <v>6.65</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" t="s">
+        <v>455</v>
+      </c>
+      <c r="K19" t="s">
+        <v>455</v>
+      </c>
+      <c r="L19" t="s">
+        <v>456</v>
+      </c>
+      <c r="M19" t="s">
+        <v>456</v>
+      </c>
+      <c r="N19" t="s">
+        <v>455</v>
+      </c>
+      <c r="O19" t="s">
+        <v>455</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>53</v>
+      </c>
+      <c r="B20" t="s">
+        <v>454</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>24.62</v>
+      </c>
+      <c r="G20">
+        <v>5.45</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" t="s">
+        <v>456</v>
+      </c>
+      <c r="K20" t="s">
+        <v>456</v>
+      </c>
+      <c r="L20" t="s">
+        <v>456</v>
+      </c>
+      <c r="M20" t="s">
+        <v>456</v>
+      </c>
+      <c r="N20" t="s">
+        <v>456</v>
+      </c>
+      <c r="O20" t="s">
+        <v>455</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>454</v>
+      </c>
+      <c r="C21">
+        <v>262</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>21.02</v>
+      </c>
+      <c r="G21">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>191</v>
+      </c>
+      <c r="J21" t="s">
+        <v>455</v>
+      </c>
+      <c r="K21" t="s">
+        <v>455</v>
+      </c>
+      <c r="L21" t="s">
+        <v>456</v>
+      </c>
+      <c r="M21" t="s">
+        <v>455</v>
+      </c>
+      <c r="N21" t="s">
+        <v>455</v>
+      </c>
+      <c r="O21" t="s">
+        <v>455</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>452</v>
+      </c>
+      <c r="F22">
+        <v>25.25</v>
+      </c>
+      <c r="G22">
+        <v>8.85</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22" t="s">
+        <v>100</v>
+      </c>
+      <c r="J22" t="s">
+        <v>456</v>
+      </c>
+      <c r="K22" t="s">
+        <v>456</v>
+      </c>
+      <c r="L22" t="s">
+        <v>456</v>
+      </c>
+      <c r="M22" t="s">
+        <v>456</v>
+      </c>
+      <c r="N22" t="s">
+        <v>456</v>
+      </c>
+      <c r="O22" t="s">
+        <v>455</v>
+      </c>
+      <c r="P22">
+        <v>3</v>
+      </c>
+      <c r="Q22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>452</v>
+      </c>
+      <c r="C23">
+        <v>322</v>
+      </c>
+      <c r="F23">
+        <v>16.27</v>
+      </c>
+      <c r="G23">
+        <v>2.5</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>191</v>
+      </c>
+      <c r="J23" t="s">
+        <v>455</v>
+      </c>
+      <c r="K23" t="s">
+        <v>455</v>
+      </c>
+      <c r="L23" t="s">
+        <v>456</v>
+      </c>
+      <c r="M23" t="s">
+        <v>456</v>
+      </c>
+      <c r="N23" t="s">
+        <v>455</v>
+      </c>
+      <c r="O23" t="s">
+        <v>455</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>452</v>
+      </c>
+      <c r="C24">
+        <v>293</v>
+      </c>
+      <c r="F24">
+        <v>16.97</v>
+      </c>
+      <c r="G24">
+        <v>2.9</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24" t="s">
+        <v>191</v>
+      </c>
+      <c r="J24" t="s">
+        <v>455</v>
+      </c>
+      <c r="K24" t="s">
+        <v>455</v>
+      </c>
+      <c r="L24" t="s">
+        <v>456</v>
+      </c>
+      <c r="M24" t="s">
+        <v>456</v>
+      </c>
+      <c r="N24" t="s">
+        <v>455</v>
+      </c>
+      <c r="O24" t="s">
+        <v>455</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>452</v>
+      </c>
+      <c r="C25">
+        <v>301</v>
+      </c>
+      <c r="F25">
+        <v>16.079999999999998</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>191</v>
+      </c>
+      <c r="J25" t="s">
+        <v>455</v>
+      </c>
+      <c r="K25" t="s">
+        <v>455</v>
+      </c>
+      <c r="L25" t="s">
+        <v>456</v>
+      </c>
+      <c r="M25" t="s">
+        <v>455</v>
+      </c>
+      <c r="N25" t="s">
+        <v>455</v>
+      </c>
+      <c r="O25" t="s">
+        <v>455</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>452</v>
+      </c>
+      <c r="C26">
+        <v>304</v>
+      </c>
+      <c r="F26">
+        <v>16.2</v>
+      </c>
+      <c r="G26">
+        <v>3.5</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" t="s">
+        <v>455</v>
+      </c>
+      <c r="K26" t="s">
+        <v>455</v>
+      </c>
+      <c r="L26" t="s">
+        <v>455</v>
+      </c>
+      <c r="M26" t="s">
+        <v>456</v>
+      </c>
+      <c r="N26" t="s">
+        <v>455</v>
+      </c>
+      <c r="O26" t="s">
+        <v>455</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>452</v>
+      </c>
+      <c r="C27">
+        <v>296</v>
+      </c>
+      <c r="F27">
+        <v>15.1</v>
+      </c>
+      <c r="G27">
+        <v>3.5</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" t="s">
+        <v>455</v>
+      </c>
+      <c r="K27" t="s">
+        <v>456</v>
+      </c>
+      <c r="L27" t="s">
+        <v>456</v>
+      </c>
+      <c r="M27" t="s">
+        <v>456</v>
+      </c>
+      <c r="N27" t="s">
+        <v>456</v>
+      </c>
+      <c r="O27" t="s">
+        <v>455</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>452</v>
+      </c>
+      <c r="C28">
+        <v>295</v>
+      </c>
+      <c r="F28">
+        <v>15.2</v>
+      </c>
+      <c r="G28">
+        <v>3.6</v>
+      </c>
+      <c r="H28">
+        <v>5</v>
+      </c>
+      <c r="I28" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" t="s">
+        <v>455</v>
+      </c>
+      <c r="K28" t="s">
+        <v>455</v>
+      </c>
+      <c r="L28" t="s">
+        <v>456</v>
+      </c>
+      <c r="N28" t="s">
+        <v>455</v>
+      </c>
+      <c r="O28" t="s">
+        <v>456</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
+        <v>452</v>
+      </c>
+      <c r="C29">
+        <v>303</v>
+      </c>
+      <c r="F29">
+        <v>17.5</v>
+      </c>
+      <c r="G29">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>191</v>
+      </c>
+      <c r="J29" t="s">
+        <v>455</v>
+      </c>
+      <c r="K29" t="s">
+        <v>455</v>
+      </c>
+      <c r="L29" t="s">
+        <v>456</v>
+      </c>
+      <c r="M29" t="s">
+        <v>455</v>
+      </c>
+      <c r="N29" t="s">
+        <v>455</v>
+      </c>
+      <c r="O29" t="s">
+        <v>455</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>452</v>
+      </c>
+      <c r="C30">
+        <v>301</v>
+      </c>
+      <c r="F30">
+        <v>13.5</v>
+      </c>
+      <c r="G30">
+        <v>5.7</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30" t="s">
+        <v>191</v>
+      </c>
+      <c r="J30" t="s">
+        <v>455</v>
+      </c>
+      <c r="K30" t="s">
+        <v>456</v>
+      </c>
+      <c r="L30" t="s">
+        <v>456</v>
+      </c>
+      <c r="M30" t="s">
+        <v>455</v>
+      </c>
+      <c r="N30" t="s">
+        <v>455</v>
+      </c>
+      <c r="O30" t="s">
+        <v>455</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>452</v>
+      </c>
+      <c r="C31">
+        <v>308</v>
+      </c>
+      <c r="F31">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="G31">
+        <v>4.3</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>191</v>
+      </c>
+      <c r="J31" t="s">
+        <v>455</v>
+      </c>
+      <c r="K31" t="s">
+        <v>455</v>
+      </c>
+      <c r="L31" t="s">
+        <v>456</v>
+      </c>
+      <c r="M31" t="s">
+        <v>455</v>
+      </c>
+      <c r="N31" t="s">
+        <v>455</v>
+      </c>
+      <c r="O31" t="s">
+        <v>455</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s">
+        <v>452</v>
+      </c>
+      <c r="C32">
+        <v>314</v>
+      </c>
+      <c r="F32">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G32">
+        <v>3.9</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32" t="s">
+        <v>191</v>
+      </c>
+      <c r="J32" t="s">
+        <v>455</v>
+      </c>
+      <c r="K32" t="s">
+        <v>455</v>
+      </c>
+      <c r="L32" t="s">
+        <v>456</v>
+      </c>
+      <c r="M32" t="s">
+        <v>456</v>
+      </c>
+      <c r="N32" t="s">
+        <v>455</v>
+      </c>
+      <c r="O32" t="s">
+        <v>455</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s">
+        <v>452</v>
+      </c>
+      <c r="C33">
+        <v>314</v>
+      </c>
+      <c r="F33">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G33">
+        <v>2.9</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>191</v>
+      </c>
+      <c r="J33" t="s">
+        <v>455</v>
+      </c>
+      <c r="K33" t="s">
+        <v>455</v>
+      </c>
+      <c r="L33" t="s">
+        <v>455</v>
+      </c>
+      <c r="M33" t="s">
+        <v>455</v>
+      </c>
+      <c r="N33" t="s">
+        <v>455</v>
+      </c>
+      <c r="O33" t="s">
+        <v>455</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>53</v>
+      </c>
+      <c r="B34" t="s">
+        <v>452</v>
+      </c>
+      <c r="C34">
+        <v>315</v>
+      </c>
+      <c r="F34">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G34">
+        <v>2.5</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" t="s">
+        <v>455</v>
+      </c>
+      <c r="K34" t="s">
+        <v>455</v>
+      </c>
+      <c r="L34" t="s">
+        <v>456</v>
+      </c>
+      <c r="M34" t="s">
+        <v>456</v>
+      </c>
+      <c r="N34" t="s">
+        <v>455</v>
+      </c>
+      <c r="O34" t="s">
+        <v>455</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>452</v>
+      </c>
+      <c r="C35">
+        <v>310</v>
+      </c>
+      <c r="F35">
+        <v>15.4</v>
+      </c>
+      <c r="G35">
+        <v>4.3</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>191</v>
+      </c>
+      <c r="J35" t="s">
+        <v>455</v>
+      </c>
+      <c r="K35" t="s">
+        <v>455</v>
+      </c>
+      <c r="L35" t="s">
+        <v>455</v>
+      </c>
+      <c r="M35" t="s">
+        <v>455</v>
+      </c>
+      <c r="N35" t="s">
+        <v>456</v>
+      </c>
+      <c r="O35" t="s">
+        <v>455</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>53</v>
+      </c>
+      <c r="B36" t="s">
+        <v>452</v>
+      </c>
+      <c r="C36">
+        <v>300</v>
+      </c>
+      <c r="F36">
+        <v>12.1</v>
+      </c>
+      <c r="G36">
+        <v>2.7</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J36" t="s">
+        <v>455</v>
+      </c>
+      <c r="K36" t="s">
+        <v>455</v>
+      </c>
+      <c r="L36" t="s">
+        <v>456</v>
+      </c>
+      <c r="M36" t="s">
+        <v>455</v>
+      </c>
+      <c r="N36" t="s">
+        <v>456</v>
+      </c>
+      <c r="O36" t="s">
+        <v>455</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>452</v>
+      </c>
+      <c r="C37">
+        <v>301</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>191</v>
+      </c>
+      <c r="J37" t="s">
+        <v>456</v>
+      </c>
+      <c r="K37" t="s">
+        <v>455</v>
+      </c>
+      <c r="L37" t="s">
+        <v>456</v>
+      </c>
+      <c r="M37" t="s">
+        <v>456</v>
+      </c>
+      <c r="N37" t="s">
+        <v>455</v>
+      </c>
+      <c r="O37" t="s">
+        <v>455</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>53</v>
+      </c>
+      <c r="B38" t="s">
+        <v>452</v>
+      </c>
+      <c r="C38">
+        <v>316</v>
+      </c>
+      <c r="F38">
+        <v>11.9</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>191</v>
+      </c>
+      <c r="J38" t="s">
+        <v>455</v>
+      </c>
+      <c r="K38" t="s">
+        <v>455</v>
+      </c>
+      <c r="L38" t="s">
+        <v>456</v>
+      </c>
+      <c r="M38" t="s">
+        <v>456</v>
+      </c>
+      <c r="N38" t="s">
+        <v>455</v>
+      </c>
+      <c r="O38" t="s">
+        <v>455</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>53</v>
+      </c>
+      <c r="B39" t="s">
+        <v>452</v>
+      </c>
+      <c r="C39">
+        <v>322</v>
+      </c>
+      <c r="F39">
+        <v>14</v>
+      </c>
+      <c r="G39">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>191</v>
+      </c>
+      <c r="J39" t="s">
+        <v>455</v>
+      </c>
+      <c r="K39" t="s">
+        <v>455</v>
+      </c>
+      <c r="L39" t="s">
+        <v>455</v>
+      </c>
+      <c r="M39" t="s">
+        <v>455</v>
+      </c>
+      <c r="N39" t="s">
+        <v>455</v>
+      </c>
+      <c r="O39" t="s">
+        <v>455</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>452</v>
+      </c>
+      <c r="C40">
+        <v>327</v>
+      </c>
+      <c r="F40">
+        <v>15</v>
+      </c>
+      <c r="G40">
+        <v>3.4</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>191</v>
+      </c>
+      <c r="J40" t="s">
+        <v>455</v>
+      </c>
+      <c r="K40" t="s">
+        <v>455</v>
+      </c>
+      <c r="L40" t="s">
+        <v>455</v>
+      </c>
+      <c r="M40" t="s">
+        <v>455</v>
+      </c>
+      <c r="N40" t="s">
+        <v>455</v>
+      </c>
+      <c r="O40" t="s">
+        <v>455</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>452</v>
+      </c>
+      <c r="C41">
+        <v>326</v>
+      </c>
+      <c r="F41">
+        <v>14.7</v>
+      </c>
+      <c r="G41">
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>191</v>
+      </c>
+      <c r="J41" t="s">
+        <v>455</v>
+      </c>
+      <c r="K41" t="s">
+        <v>455</v>
+      </c>
+      <c r="L41" t="s">
+        <v>456</v>
+      </c>
+      <c r="M41" t="s">
+        <v>455</v>
+      </c>
+      <c r="N41" t="s">
+        <v>455</v>
+      </c>
+      <c r="O41" t="s">
+        <v>455</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>452</v>
+      </c>
+      <c r="C42">
+        <v>334</v>
+      </c>
+      <c r="F42">
+        <v>15.6</v>
+      </c>
+      <c r="G42">
+        <v>2.8</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>191</v>
+      </c>
+      <c r="J42" t="s">
+        <v>455</v>
+      </c>
+      <c r="K42" t="s">
+        <v>455</v>
+      </c>
+      <c r="L42" t="s">
+        <v>456</v>
+      </c>
+      <c r="M42" t="s">
+        <v>455</v>
+      </c>
+      <c r="N42" t="s">
+        <v>455</v>
+      </c>
+      <c r="O42" t="s">
+        <v>455</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>452</v>
+      </c>
+      <c r="C43">
+        <v>331</v>
+      </c>
+      <c r="F43">
+        <v>10.9</v>
+      </c>
+      <c r="G43">
+        <v>3.2</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>191</v>
+      </c>
+      <c r="J43" t="s">
+        <v>455</v>
+      </c>
+      <c r="K43" t="s">
+        <v>455</v>
+      </c>
+      <c r="L43" t="s">
+        <v>455</v>
+      </c>
+      <c r="M43" t="s">
+        <v>455</v>
+      </c>
+      <c r="N43" t="s">
+        <v>455</v>
+      </c>
+      <c r="O43" t="s">
+        <v>455</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>53</v>
+      </c>
+      <c r="B44" t="s">
+        <v>452</v>
+      </c>
+      <c r="C44">
+        <v>336</v>
+      </c>
+      <c r="F44">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G44">
+        <v>3.5</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>191</v>
+      </c>
+      <c r="J44" t="s">
+        <v>455</v>
+      </c>
+      <c r="K44" t="s">
+        <v>455</v>
+      </c>
+      <c r="L44" t="s">
+        <v>456</v>
+      </c>
+      <c r="M44" t="s">
+        <v>456</v>
+      </c>
+      <c r="N44" t="s">
+        <v>455</v>
+      </c>
+      <c r="O44" t="s">
+        <v>455</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
+        <v>452</v>
+      </c>
+      <c r="C45">
+        <v>328</v>
+      </c>
+      <c r="F45">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G45">
+        <v>3.2</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>191</v>
+      </c>
+      <c r="J45" t="s">
+        <v>455</v>
+      </c>
+      <c r="K45" t="s">
+        <v>455</v>
+      </c>
+      <c r="L45" t="s">
+        <v>456</v>
+      </c>
+      <c r="M45" t="s">
+        <v>455</v>
+      </c>
+      <c r="N45" t="s">
+        <v>455</v>
+      </c>
+      <c r="O45" t="s">
+        <v>455</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>53</v>
+      </c>
+      <c r="B46" t="s">
+        <v>452</v>
+      </c>
+      <c r="C46">
+        <v>338</v>
+      </c>
+      <c r="F46">
+        <v>9</v>
+      </c>
+      <c r="G46">
+        <v>2.5</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>41</v>
+      </c>
+      <c r="J46" t="s">
+        <v>455</v>
+      </c>
+      <c r="K46" t="s">
+        <v>455</v>
+      </c>
+      <c r="L46" t="s">
+        <v>455</v>
+      </c>
+      <c r="M46" t="s">
+        <v>455</v>
+      </c>
+      <c r="N46" t="s">
+        <v>455</v>
+      </c>
+      <c r="O46" t="s">
+        <v>455</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>452</v>
+      </c>
+      <c r="C47">
+        <v>341</v>
+      </c>
+      <c r="F47">
+        <v>13.6</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>191</v>
+      </c>
+      <c r="J47" t="s">
+        <v>455</v>
+      </c>
+      <c r="K47" t="s">
+        <v>455</v>
+      </c>
+      <c r="L47" t="s">
+        <v>456</v>
+      </c>
+      <c r="M47" t="s">
+        <v>456</v>
+      </c>
+      <c r="N47" t="s">
+        <v>455</v>
+      </c>
+      <c r="O47" t="s">
+        <v>456</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/EAB_Michigan_2024_data.xlsx
+++ b/EAB_Michigan_2024_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/EAB_Michigan_2024_2025_github_folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1485" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{052D567D-4B03-4FF3-A238-B821288A10C1}"/>
+  <xr:revisionPtr revIDLastSave="1487" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45EC830A-F2CE-4D09-88C5-67D5112E89DC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="4" r:id="rId1"/>
@@ -1472,7 +1472,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1491,6 +1491,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1504,7 +1510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1519,6 +1525,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -51025,9 +51032,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K51" sqref="K51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M90" sqref="M90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -54589,9 +54596,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4294AC29-14D4-407D-99E4-B7615C9E66E2}">
   <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M41" sqref="M41"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -55724,41 +55731,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30">
+    <row r="30" spans="1:13" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
         <v>96</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="6">
         <v>0</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="6">
         <v>15.5</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="6">
         <v>0</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="6">
         <v>2</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="6">
         <v>7</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="6">
         <v>5</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="6">
         <v>4</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="6">
         <v>1</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="6">
         <v>2</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="6">
         <v>1</v>
       </c>
     </row>
@@ -56506,8 +56513,8 @@
   <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -57002,14 +57009,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30">
+    <row r="30" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
         <v>94</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="6">
         <v>14</v>
       </c>
     </row>
@@ -57231,9 +57238,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA95277-679F-4206-8ACD-7B30D3EACF40}">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView zoomScale="43" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R12" sqref="R12"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/EAB_Michigan_2024_data.xlsx
+++ b/EAB_Michigan_2024_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/EAB_Michigan_2024_2025_github_folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1487" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45EC830A-F2CE-4D09-88C5-67D5112E89DC}"/>
+  <xr:revisionPtr revIDLastSave="1899" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72C198C0-6675-4AE2-80E5-FD34572AA007}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="4" r:id="rId1"/>
@@ -18,18 +18,30 @@
     <sheet name="ash seedlings '24" sheetId="5" r:id="rId3"/>
     <sheet name="ash saplings 2024" sheetId="2" r:id="rId4"/>
     <sheet name="ash trees 2024" sheetId="3" r:id="rId5"/>
+    <sheet name="EAB trap locations" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="523">
   <si>
     <t>center_tree_number</t>
   </si>
@@ -1324,9 +1336,6 @@
     <t>Date_relocated_2024</t>
   </si>
   <si>
-    <t>5_15_2024</t>
-  </si>
-  <si>
     <t>23.2 cm black cherry</t>
   </si>
   <si>
@@ -1349,9 +1358,6 @@
   </si>
   <si>
     <t>Center tree down. Center tree does have PVC and metal stake. Witness: Black walnut 63.2 cm</t>
-  </si>
-  <si>
-    <t>5_16_2024</t>
   </si>
   <si>
     <t>Next to a grapevine</t>
@@ -1443,12 +1449,174 @@
   <si>
     <t>a lot of vine pressure at this site - vines are competing with ash trees</t>
   </si>
+  <si>
+    <t>park</t>
+  </si>
+  <si>
+    <t>set_date</t>
+  </si>
+  <si>
+    <t>trap_number</t>
+  </si>
+  <si>
+    <t>trap_type</t>
+  </si>
+  <si>
+    <t>height_ft_approx_to_top_of_trap</t>
+  </si>
+  <si>
+    <t>tree_trap_is_hung_in_species</t>
+  </si>
+  <si>
+    <t>canopy_condition_of_nearest_ash</t>
+  </si>
+  <si>
+    <t>ash_saplings_species_trap_is_above</t>
+  </si>
+  <si>
+    <t>re_lure_date</t>
+  </si>
+  <si>
+    <t>final_collection_date</t>
+  </si>
+  <si>
+    <t>EAB_trap_locations_notes</t>
+  </si>
+  <si>
+    <t>direction_to_center_tree_degrees</t>
+  </si>
+  <si>
+    <t>latitude_degree_part</t>
+  </si>
+  <si>
+    <t>latitude_minutes_part</t>
+  </si>
+  <si>
+    <t>longitude_degree_part</t>
+  </si>
+  <si>
+    <t>longitude_minutes_part</t>
+  </si>
+  <si>
+    <t>05_16_2024</t>
+  </si>
+  <si>
+    <t>05_15_2024</t>
+  </si>
+  <si>
+    <t>05_30_2024</t>
+  </si>
+  <si>
+    <t>prism</t>
+  </si>
+  <si>
+    <t>ash</t>
+  </si>
+  <si>
+    <t>green or white</t>
+  </si>
+  <si>
+    <t>diameter_at_137_cm_in_cm_of_nearest_ash</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>black ash</t>
+  </si>
+  <si>
+    <t>epicormic sprouts are older</t>
+  </si>
+  <si>
+    <t>dist_to_center_tree_meters_approx</t>
+  </si>
+  <si>
+    <t>ash (green?)</t>
+  </si>
+  <si>
+    <t>green?</t>
+  </si>
+  <si>
+    <t>the healthy ash tree was very near to an ash with canopy condition 5 (dead)</t>
+  </si>
+  <si>
+    <t>05_31_2024</t>
+  </si>
+  <si>
+    <t>on shepard hook</t>
+  </si>
+  <si>
+    <t>shepard hook</t>
+  </si>
+  <si>
+    <t>Pontiac</t>
+  </si>
+  <si>
+    <t>05_29_2024</t>
+  </si>
+  <si>
+    <t>elm</t>
+  </si>
+  <si>
+    <t>red maple</t>
+  </si>
+  <si>
+    <t>maple (silver?)</t>
+  </si>
+  <si>
+    <t>serviceberry?</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>possible basal sprout is a 5 for canopy condition - the basal sprout has woodpecker predation marks and bark splitting</t>
+  </si>
+  <si>
+    <t>multifunnel</t>
+  </si>
+  <si>
+    <t>hickory</t>
+  </si>
+  <si>
+    <t>tree tag engulfed - 24.6 dbh</t>
+  </si>
+  <si>
+    <t>37.3 cm dbh bigtooth aspen</t>
+  </si>
+  <si>
+    <t>18.6 cm Carya</t>
+  </si>
+  <si>
+    <t>ash_plot_centers_notes</t>
+  </si>
+  <si>
+    <t>basswoods - big oaks - hickories</t>
+  </si>
+  <si>
+    <t>25.9 cm - 1 trunk</t>
+  </si>
+  <si>
+    <t>very few ash - big red oaks - cherries</t>
+  </si>
+  <si>
+    <t>10.9 cm Amelanchier</t>
+  </si>
+  <si>
+    <t>9.8 cm Ostrya</t>
+  </si>
+  <si>
+    <t>3 stems left _ 9.1 _ 8.9 _ 11.6 cm</t>
+  </si>
+  <si>
+    <t>10.9 dbh</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1467,6 +1635,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -51030,11 +51204,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M112"/>
+  <dimension ref="A1:N112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M90" sqref="M90"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -51042,7 +51216,7 @@
     <col min="8" max="8" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>47</v>
       </c>
@@ -51082,8 +51256,11 @@
       <c r="M1" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N1" s="5" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>58</v>
       </c>
@@ -51109,16 +51286,16 @@
         <v>62</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>58</v>
       </c>
@@ -51144,18 +51321,18 @@
         <v>65</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>58</v>
       </c>
@@ -51181,18 +51358,18 @@
         <v>68</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>69</v>
       </c>
@@ -51223,7 +51400,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>69</v>
       </c>
@@ -51254,7 +51431,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>69</v>
       </c>
@@ -51285,7 +51462,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
@@ -51310,13 +51487,20 @@
       <c r="H8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>487</v>
+      </c>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M8" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="N8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>58</v>
       </c>
@@ -51347,7 +51531,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>58</v>
       </c>
@@ -51378,7 +51562,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>69</v>
       </c>
@@ -51409,7 +51593,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>69</v>
       </c>
@@ -51440,7 +51624,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>69</v>
       </c>
@@ -51471,7 +51655,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>58</v>
       </c>
@@ -51496,13 +51680,20 @@
       <c r="H14" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="I14" s="5"/>
+      <c r="I14" s="5" t="s">
+        <v>487</v>
+      </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-    </row>
-    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M14" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="N14" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>58</v>
       </c>
@@ -51527,13 +51718,17 @@
       <c r="H15" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="I15" s="5"/>
+      <c r="I15" s="5" t="s">
+        <v>487</v>
+      </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-    </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M15" s="5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>58</v>
       </c>
@@ -51558,11 +51753,15 @@
       <c r="H16" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I16" s="5"/>
+      <c r="I16" s="5" t="s">
+        <v>487</v>
+      </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="M16" s="5" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
@@ -52457,11 +52656,14 @@
       <c r="H45" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="I45" s="5"/>
+      <c r="I45" s="5" t="s">
+        <v>487</v>
+      </c>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
+      <c r="M45" s="5" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="46" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
@@ -52488,11 +52690,14 @@
       <c r="H46" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="I46" s="5"/>
+      <c r="I46" s="5" t="s">
+        <v>487</v>
+      </c>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
+      <c r="M46" s="5" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="47" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
@@ -52520,15 +52725,15 @@
         <v>215</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="M47" s="5" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -52557,13 +52762,13 @@
         <v>218</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -52654,15 +52859,15 @@
         <v>228</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -53434,11 +53639,15 @@
       <c r="H76" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="I76" s="5"/>
+      <c r="I76" s="5" t="s">
+        <v>499</v>
+      </c>
       <c r="J76" s="5"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
+      <c r="M76" s="5" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="77" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
@@ -53682,11 +53891,15 @@
       <c r="H84" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="I84" s="5"/>
+      <c r="I84" s="5" t="s">
+        <v>499</v>
+      </c>
       <c r="J84" s="5"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
-      <c r="M84" s="5"/>
+      <c r="M84" s="5" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="85" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
@@ -53931,13 +54144,13 @@
         <v>363</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="J92" s="5"/>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
       <c r="M92" s="5" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -53966,13 +54179,13 @@
         <v>366</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="J93" s="5"/>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
       <c r="M93" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -54001,13 +54214,13 @@
         <v>369</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="J94" s="5"/>
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
       <c r="M94" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -54036,13 +54249,13 @@
         <v>373</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="J95" s="5"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
       <c r="M95" s="5" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -54071,13 +54284,13 @@
         <v>376</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
       <c r="M96" s="5" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -54106,13 +54319,13 @@
         <v>379</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="J97" s="5"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
       <c r="M97" s="5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -54513,15 +54726,15 @@
         <v>423</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="M110" s="5" t="s">
         <v>438</v>
-      </c>
-      <c r="M110" s="5" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -54649,7 +54862,7 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -54956,7 +55169,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -56551,7 +56764,7 @@
         <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -56559,7 +56772,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -56570,7 +56783,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -56581,7 +56794,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -56592,7 +56805,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -56603,25 +56816,25 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -56632,25 +56845,25 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -56661,25 +56874,25 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H8" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -56690,25 +56903,25 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -56719,25 +56932,25 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -56748,25 +56961,25 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E11" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F11" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G11" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H11" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -56777,25 +56990,25 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="H12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I12">
         <v>50</v>
@@ -56806,25 +57019,25 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -56835,7 +57048,7 @@
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -56846,7 +57059,7 @@
         <v>95</v>
       </c>
       <c r="B15" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -56857,7 +57070,7 @@
         <v>95</v>
       </c>
       <c r="B16" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -56868,7 +57081,7 @@
         <v>95</v>
       </c>
       <c r="B17" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -56879,7 +57092,7 @@
         <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -56890,7 +57103,7 @@
         <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -56901,7 +57114,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -56912,7 +57125,7 @@
         <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -56923,7 +57136,7 @@
         <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -56934,7 +57147,7 @@
         <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -56945,7 +57158,7 @@
         <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -56956,7 +57169,7 @@
         <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -56967,13 +57180,13 @@
         <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C26">
         <v>26</v>
       </c>
       <c r="J26" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
@@ -56981,7 +57194,7 @@
         <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C27">
         <v>20</v>
@@ -56992,7 +57205,7 @@
         <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C28">
         <v>14</v>
@@ -57003,7 +57216,7 @@
         <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C29">
         <v>28</v>
@@ -57014,7 +57227,7 @@
         <v>94</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C30" s="6">
         <v>14</v>
@@ -57025,7 +57238,7 @@
         <v>94</v>
       </c>
       <c r="B31" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C31">
         <v>22</v>
@@ -57036,7 +57249,7 @@
         <v>94</v>
       </c>
       <c r="B32" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -57047,7 +57260,7 @@
         <v>94</v>
       </c>
       <c r="B33" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -57058,7 +57271,7 @@
         <v>97</v>
       </c>
       <c r="B34" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C34">
         <v>8</v>
@@ -57069,7 +57282,7 @@
         <v>97</v>
       </c>
       <c r="B35" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -57080,7 +57293,7 @@
         <v>97</v>
       </c>
       <c r="B36" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C36">
         <v>2</v>
@@ -57091,7 +57304,7 @@
         <v>97</v>
       </c>
       <c r="B37" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -57102,7 +57315,7 @@
         <v>98</v>
       </c>
       <c r="B38" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -57113,7 +57326,7 @@
         <v>98</v>
       </c>
       <c r="B39" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -57124,7 +57337,7 @@
         <v>98</v>
       </c>
       <c r="B40" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -57135,7 +57348,7 @@
         <v>98</v>
       </c>
       <c r="B41" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -57146,7 +57359,7 @@
         <v>99</v>
       </c>
       <c r="B42" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -57157,7 +57370,7 @@
         <v>99</v>
       </c>
       <c r="B43" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -57168,7 +57381,7 @@
         <v>99</v>
       </c>
       <c r="B44" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -57179,7 +57392,7 @@
         <v>99</v>
       </c>
       <c r="B45" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -57190,7 +57403,7 @@
         <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C46">
         <v>8</v>
@@ -57201,7 +57414,7 @@
         <v>96</v>
       </c>
       <c r="B47" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C47">
         <v>16</v>
@@ -57212,7 +57425,7 @@
         <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C48">
         <v>15</v>
@@ -57223,7 +57436,7 @@
         <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -57239,8 +57452,8 @@
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O56" sqref="O56"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -57262,7 +57475,7 @@
         <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>28</v>
@@ -57301,7 +57514,7 @@
         <v>36</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -57309,7 +57522,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G2">
         <v>4.0999999999999996</v>
@@ -57321,22 +57534,22 @@
         <v>121</v>
       </c>
       <c r="J2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="N2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -57350,13 +57563,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="G3">
         <v>11</v>
       </c>
       <c r="R3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -57364,7 +57577,7 @@
         <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -57372,7 +57585,7 @@
         <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -57380,7 +57593,7 @@
         <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
@@ -57388,7 +57601,7 @@
         <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
@@ -57396,7 +57609,7 @@
         <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
@@ -57404,7 +57617,7 @@
         <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
@@ -57412,7 +57625,7 @@
         <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
@@ -57420,7 +57633,7 @@
         <v>96</v>
       </c>
       <c r="B11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
@@ -57428,7 +57641,7 @@
         <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C12">
         <v>9</v>
@@ -57449,22 +57662,22 @@
         <v>191</v>
       </c>
       <c r="J12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="N12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -57478,7 +57691,7 @@
         <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C13">
         <v>30</v>
@@ -57499,22 +57712,22 @@
         <v>191</v>
       </c>
       <c r="J13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L13" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="N13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O13" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -57528,7 +57741,7 @@
         <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C14">
         <v>52</v>
@@ -57549,22 +57762,22 @@
         <v>191</v>
       </c>
       <c r="J14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L14" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="N14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O14" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -57578,7 +57791,7 @@
         <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C15">
         <v>200</v>
@@ -57599,22 +57812,22 @@
         <v>191</v>
       </c>
       <c r="J15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L15" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="N15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O15" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -57623,7 +57836,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
@@ -57631,7 +57844,7 @@
         <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C16">
         <v>144</v>
@@ -57652,22 +57865,22 @@
         <v>41</v>
       </c>
       <c r="J16" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K16" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L16" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M16" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N16" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O16" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -57676,7 +57889,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
@@ -57684,7 +57897,7 @@
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C17">
         <v>244</v>
@@ -57705,22 +57918,22 @@
         <v>41</v>
       </c>
       <c r="J17" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K17" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L17" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M17" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N17" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O17" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -57734,7 +57947,7 @@
         <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E18">
         <v>7</v>
@@ -57752,22 +57965,22 @@
         <v>41</v>
       </c>
       <c r="J18" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K18" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L18" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M18" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N18" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="O18" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -57781,7 +57994,7 @@
         <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F19">
         <v>24.19</v>
@@ -57796,22 +58009,22 @@
         <v>41</v>
       </c>
       <c r="J19" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K19" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L19" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M19" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N19" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O19" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -57825,7 +58038,7 @@
         <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E20">
         <v>4</v>
@@ -57843,22 +58056,22 @@
         <v>41</v>
       </c>
       <c r="J20" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K20" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L20" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M20" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N20" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="O20" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -57872,7 +58085,7 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C21">
         <v>262</v>
@@ -57893,22 +58106,22 @@
         <v>191</v>
       </c>
       <c r="J21" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K21" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L21" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M21" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="N21" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O21" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -57922,7 +58135,7 @@
         <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F22">
         <v>25.25</v>
@@ -57937,22 +58150,22 @@
         <v>100</v>
       </c>
       <c r="J22" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K22" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L22" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M22" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N22" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="O22" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P22">
         <v>3</v>
@@ -57966,7 +58179,7 @@
         <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C23">
         <v>322</v>
@@ -57984,22 +58197,22 @@
         <v>191</v>
       </c>
       <c r="J23" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K23" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L23" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M23" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N23" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O23" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -58008,7 +58221,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
@@ -58016,7 +58229,7 @@
         <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C24">
         <v>293</v>
@@ -58034,22 +58247,22 @@
         <v>191</v>
       </c>
       <c r="J24" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K24" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L24" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M24" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N24" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O24" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -58063,7 +58276,7 @@
         <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C25">
         <v>301</v>
@@ -58081,22 +58294,22 @@
         <v>191</v>
       </c>
       <c r="J25" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K25" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L25" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M25" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="N25" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O25" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -58110,7 +58323,7 @@
         <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C26">
         <v>304</v>
@@ -58128,22 +58341,22 @@
         <v>41</v>
       </c>
       <c r="J26" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K26" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L26" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M26" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N26" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O26" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P26">
         <v>0</v>
@@ -58157,7 +58370,7 @@
         <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C27">
         <v>296</v>
@@ -58175,22 +58388,22 @@
         <v>41</v>
       </c>
       <c r="J27" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K27" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L27" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M27" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N27" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="O27" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -58204,7 +58417,7 @@
         <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C28">
         <v>295</v>
@@ -58222,19 +58435,19 @@
         <v>41</v>
       </c>
       <c r="J28" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K28" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L28" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N28" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O28" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P28">
         <v>0</v>
@@ -58248,7 +58461,7 @@
         <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C29">
         <v>303</v>
@@ -58266,22 +58479,22 @@
         <v>191</v>
       </c>
       <c r="J29" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K29" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L29" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M29" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="N29" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O29" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P29">
         <v>0</v>
@@ -58295,7 +58508,7 @@
         <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C30">
         <v>301</v>
@@ -58313,22 +58526,22 @@
         <v>191</v>
       </c>
       <c r="J30" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K30" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L30" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M30" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="N30" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O30" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P30">
         <v>0</v>
@@ -58337,7 +58550,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
@@ -58345,7 +58558,7 @@
         <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C31">
         <v>308</v>
@@ -58363,22 +58576,22 @@
         <v>191</v>
       </c>
       <c r="J31" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K31" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L31" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M31" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="N31" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O31" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -58392,7 +58605,7 @@
         <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C32">
         <v>314</v>
@@ -58410,22 +58623,22 @@
         <v>191</v>
       </c>
       <c r="J32" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K32" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L32" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M32" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N32" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O32" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P32">
         <v>0</v>
@@ -58439,7 +58652,7 @@
         <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C33">
         <v>314</v>
@@ -58457,22 +58670,22 @@
         <v>191</v>
       </c>
       <c r="J33" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K33" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L33" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M33" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="N33" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O33" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P33">
         <v>0</v>
@@ -58486,7 +58699,7 @@
         <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C34">
         <v>315</v>
@@ -58504,22 +58717,22 @@
         <v>41</v>
       </c>
       <c r="J34" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K34" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L34" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M34" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N34" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O34" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P34">
         <v>0</v>
@@ -58533,7 +58746,7 @@
         <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C35">
         <v>310</v>
@@ -58551,22 +58764,22 @@
         <v>191</v>
       </c>
       <c r="J35" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K35" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L35" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M35" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="N35" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="O35" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -58580,7 +58793,7 @@
         <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C36">
         <v>300</v>
@@ -58598,22 +58811,22 @@
         <v>41</v>
       </c>
       <c r="J36" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K36" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L36" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M36" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="N36" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="O36" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P36">
         <v>0</v>
@@ -58627,7 +58840,7 @@
         <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C37">
         <v>301</v>
@@ -58645,22 +58858,22 @@
         <v>191</v>
       </c>
       <c r="J37" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K37" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L37" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M37" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N37" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O37" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P37">
         <v>0</v>
@@ -58669,7 +58882,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
@@ -58677,7 +58890,7 @@
         <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C38">
         <v>316</v>
@@ -58695,22 +58908,22 @@
         <v>191</v>
       </c>
       <c r="J38" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K38" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L38" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M38" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N38" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O38" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P38">
         <v>0</v>
@@ -58719,7 +58932,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
@@ -58727,7 +58940,7 @@
         <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C39">
         <v>322</v>
@@ -58745,22 +58958,22 @@
         <v>191</v>
       </c>
       <c r="J39" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K39" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L39" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M39" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="N39" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O39" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -58769,7 +58982,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
@@ -58777,7 +58990,7 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C40">
         <v>327</v>
@@ -58795,22 +59008,22 @@
         <v>191</v>
       </c>
       <c r="J40" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K40" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L40" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M40" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="N40" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O40" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P40">
         <v>0</v>
@@ -58824,7 +59037,7 @@
         <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C41">
         <v>326</v>
@@ -58842,22 +59055,22 @@
         <v>191</v>
       </c>
       <c r="J41" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K41" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L41" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M41" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="N41" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O41" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -58871,7 +59084,7 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C42">
         <v>334</v>
@@ -58889,22 +59102,22 @@
         <v>191</v>
       </c>
       <c r="J42" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K42" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L42" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M42" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="N42" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O42" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -58918,7 +59131,7 @@
         <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C43">
         <v>331</v>
@@ -58936,22 +59149,22 @@
         <v>191</v>
       </c>
       <c r="J43" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K43" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L43" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M43" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="N43" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O43" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P43">
         <v>0</v>
@@ -58965,7 +59178,7 @@
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C44">
         <v>336</v>
@@ -58983,22 +59196,22 @@
         <v>191</v>
       </c>
       <c r="J44" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K44" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L44" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M44" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N44" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O44" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P44">
         <v>0</v>
@@ -59012,7 +59225,7 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C45">
         <v>328</v>
@@ -59030,22 +59243,22 @@
         <v>191</v>
       </c>
       <c r="J45" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K45" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L45" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M45" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="N45" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O45" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -59059,7 +59272,7 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C46">
         <v>338</v>
@@ -59077,22 +59290,22 @@
         <v>41</v>
       </c>
       <c r="J46" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K46" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L46" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M46" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="N46" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O46" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -59101,7 +59314,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.35">
@@ -59109,7 +59322,7 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C47">
         <v>341</v>
@@ -59127,22 +59340,22 @@
         <v>191</v>
       </c>
       <c r="J47" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K47" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L47" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M47" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="N47" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O47" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -59154,4 +59367,1103 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8119E6BF-C4C5-438C-90A2-4DB239ACB6A8}">
+  <dimension ref="A1:AA16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G1" t="s">
+        <v>482</v>
+      </c>
+      <c r="H1" t="s">
+        <v>483</v>
+      </c>
+      <c r="I1" t="s">
+        <v>484</v>
+      </c>
+      <c r="J1" t="s">
+        <v>473</v>
+      </c>
+      <c r="K1" t="s">
+        <v>474</v>
+      </c>
+      <c r="L1" t="s">
+        <v>491</v>
+      </c>
+      <c r="M1" t="s">
+        <v>475</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>476</v>
+      </c>
+      <c r="P1" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>478</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F2">
+        <v>42</v>
+      </c>
+      <c r="G2">
+        <v>31.992999999999999</v>
+      </c>
+      <c r="H2">
+        <v>-83</v>
+      </c>
+      <c r="I2">
+        <v>-40.237000000000002</v>
+      </c>
+      <c r="J2">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>490</v>
+      </c>
+      <c r="L2">
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>100</v>
+      </c>
+      <c r="O2" t="s">
+        <v>492</v>
+      </c>
+      <c r="R2" t="s">
+        <v>454</v>
+      </c>
+      <c r="S2" t="s">
+        <v>454</v>
+      </c>
+      <c r="T2" t="s">
+        <v>454</v>
+      </c>
+      <c r="U2" t="s">
+        <v>454</v>
+      </c>
+      <c r="V2" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y2">
+        <v>23.29</v>
+      </c>
+      <c r="Z2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>488</v>
+      </c>
+      <c r="F3">
+        <v>42</v>
+      </c>
+      <c r="G3">
+        <v>31.879000000000001</v>
+      </c>
+      <c r="H3">
+        <v>-83</v>
+      </c>
+      <c r="I3">
+        <v>-40.119999999999997</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>493</v>
+      </c>
+      <c r="L3">
+        <v>9.9</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>121</v>
+      </c>
+      <c r="O3" t="s">
+        <v>492</v>
+      </c>
+      <c r="R3" t="s">
+        <v>453</v>
+      </c>
+      <c r="S3" t="s">
+        <v>453</v>
+      </c>
+      <c r="T3" t="s">
+        <v>453</v>
+      </c>
+      <c r="U3" t="s">
+        <v>454</v>
+      </c>
+      <c r="V3" t="s">
+        <v>453</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>25</v>
+      </c>
+      <c r="Z3">
+        <v>227</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>487</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>488</v>
+      </c>
+      <c r="F4">
+        <v>42</v>
+      </c>
+      <c r="G4">
+        <v>30.306000000000001</v>
+      </c>
+      <c r="H4">
+        <v>-83</v>
+      </c>
+      <c r="I4">
+        <v>-42.665999999999997</v>
+      </c>
+      <c r="J4">
+        <v>16</v>
+      </c>
+      <c r="K4" t="s">
+        <v>496</v>
+      </c>
+      <c r="L4">
+        <v>3.72</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
+        <v>497</v>
+      </c>
+      <c r="R4" t="s">
+        <v>453</v>
+      </c>
+      <c r="S4" t="s">
+        <v>453</v>
+      </c>
+      <c r="T4" t="s">
+        <v>453</v>
+      </c>
+      <c r="U4" t="s">
+        <v>453</v>
+      </c>
+      <c r="V4" t="s">
+        <v>453</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>14.2</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>487</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>488</v>
+      </c>
+      <c r="F5">
+        <v>42</v>
+      </c>
+      <c r="G5">
+        <v>30.303000000000001</v>
+      </c>
+      <c r="H5">
+        <v>-83</v>
+      </c>
+      <c r="I5">
+        <v>-42.667999999999999</v>
+      </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5" t="s">
+        <v>496</v>
+      </c>
+      <c r="L5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>191</v>
+      </c>
+      <c r="O5" t="s">
+        <v>497</v>
+      </c>
+      <c r="R5" t="s">
+        <v>453</v>
+      </c>
+      <c r="S5" t="s">
+        <v>453</v>
+      </c>
+      <c r="T5" t="s">
+        <v>453</v>
+      </c>
+      <c r="U5" t="s">
+        <v>453</v>
+      </c>
+      <c r="V5" t="s">
+        <v>453</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>5.97</v>
+      </c>
+      <c r="Z5">
+        <v>299</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>42</v>
+      </c>
+      <c r="H6">
+        <v>-83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>42</v>
+      </c>
+      <c r="H7">
+        <v>-83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>68</v>
+      </c>
+      <c r="B8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" t="s">
+        <v>499</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>488</v>
+      </c>
+      <c r="F8">
+        <v>42</v>
+      </c>
+      <c r="G8">
+        <v>38.715000000000003</v>
+      </c>
+      <c r="H8">
+        <v>-83</v>
+      </c>
+      <c r="I8">
+        <v>-33.054000000000002</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>501</v>
+      </c>
+      <c r="L8" t="s">
+        <v>492</v>
+      </c>
+      <c r="M8" t="s">
+        <v>492</v>
+      </c>
+      <c r="N8" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" t="s">
+        <v>497</v>
+      </c>
+      <c r="R8" t="s">
+        <v>492</v>
+      </c>
+      <c r="S8" t="s">
+        <v>492</v>
+      </c>
+      <c r="T8" t="s">
+        <v>492</v>
+      </c>
+      <c r="U8" t="s">
+        <v>492</v>
+      </c>
+      <c r="V8" t="s">
+        <v>492</v>
+      </c>
+      <c r="W8" t="s">
+        <v>492</v>
+      </c>
+      <c r="X8" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y8">
+        <v>10</v>
+      </c>
+      <c r="Z8">
+        <v>345</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" t="s">
+        <v>499</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>488</v>
+      </c>
+      <c r="F9">
+        <v>42</v>
+      </c>
+      <c r="G9">
+        <v>38.723999999999997</v>
+      </c>
+      <c r="H9">
+        <v>-83</v>
+      </c>
+      <c r="I9">
+        <v>-33.055999999999997</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>501</v>
+      </c>
+      <c r="L9" t="s">
+        <v>492</v>
+      </c>
+      <c r="M9" t="s">
+        <v>492</v>
+      </c>
+      <c r="N9" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" t="s">
+        <v>497</v>
+      </c>
+      <c r="R9" t="s">
+        <v>492</v>
+      </c>
+      <c r="S9" t="s">
+        <v>492</v>
+      </c>
+      <c r="T9" t="s">
+        <v>492</v>
+      </c>
+      <c r="U9" t="s">
+        <v>492</v>
+      </c>
+      <c r="V9" t="s">
+        <v>492</v>
+      </c>
+      <c r="W9" t="s">
+        <v>492</v>
+      </c>
+      <c r="X9" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y9">
+        <v>18</v>
+      </c>
+      <c r="Z9">
+        <v>13</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>502</v>
+      </c>
+      <c r="C10" t="s">
+        <v>503</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>488</v>
+      </c>
+      <c r="F10">
+        <v>42</v>
+      </c>
+      <c r="G10">
+        <v>40.661999999999999</v>
+      </c>
+      <c r="H10">
+        <v>-83</v>
+      </c>
+      <c r="I10">
+        <v>-29.109000000000002</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10" t="s">
+        <v>504</v>
+      </c>
+      <c r="L10">
+        <v>7.2</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" t="s">
+        <v>489</v>
+      </c>
+      <c r="R10" t="s">
+        <v>453</v>
+      </c>
+      <c r="S10" t="s">
+        <v>453</v>
+      </c>
+      <c r="T10" t="s">
+        <v>454</v>
+      </c>
+      <c r="U10" t="s">
+        <v>454</v>
+      </c>
+      <c r="V10" t="s">
+        <v>454</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>19.55</v>
+      </c>
+      <c r="Z10">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C11" t="s">
+        <v>503</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>488</v>
+      </c>
+      <c r="F11">
+        <v>42</v>
+      </c>
+      <c r="G11">
+        <v>40.646000000000001</v>
+      </c>
+      <c r="H11">
+        <v>-83</v>
+      </c>
+      <c r="I11">
+        <v>-29.102</v>
+      </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>505</v>
+      </c>
+      <c r="L11">
+        <v>2.1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" t="s">
+        <v>489</v>
+      </c>
+      <c r="R11" t="s">
+        <v>453</v>
+      </c>
+      <c r="S11" t="s">
+        <v>453</v>
+      </c>
+      <c r="T11" t="s">
+        <v>453</v>
+      </c>
+      <c r="U11" t="s">
+        <v>453</v>
+      </c>
+      <c r="V11" t="s">
+        <v>453</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>25</v>
+      </c>
+      <c r="Z11">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" t="s">
+        <v>499</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>488</v>
+      </c>
+      <c r="F12">
+        <v>42</v>
+      </c>
+      <c r="G12">
+        <v>42.295000000000002</v>
+      </c>
+      <c r="H12">
+        <v>-83</v>
+      </c>
+      <c r="I12">
+        <v>-29.637</v>
+      </c>
+      <c r="J12">
+        <v>30</v>
+      </c>
+      <c r="K12" t="s">
+        <v>506</v>
+      </c>
+      <c r="L12">
+        <v>2.78</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>191</v>
+      </c>
+      <c r="O12" t="s">
+        <v>497</v>
+      </c>
+      <c r="R12" t="s">
+        <v>453</v>
+      </c>
+      <c r="S12" t="s">
+        <v>453</v>
+      </c>
+      <c r="T12" t="s">
+        <v>454</v>
+      </c>
+      <c r="U12" t="s">
+        <v>453</v>
+      </c>
+      <c r="V12" t="s">
+        <v>453</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>18</v>
+      </c>
+      <c r="Z12">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C13" t="s">
+        <v>499</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>488</v>
+      </c>
+      <c r="F13">
+        <v>42</v>
+      </c>
+      <c r="G13">
+        <v>42.276000000000003</v>
+      </c>
+      <c r="H13">
+        <v>-83</v>
+      </c>
+      <c r="I13">
+        <v>-29.648</v>
+      </c>
+      <c r="J13">
+        <v>9</v>
+      </c>
+      <c r="K13" t="s">
+        <v>507</v>
+      </c>
+      <c r="L13">
+        <v>9.31</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>100</v>
+      </c>
+      <c r="O13" t="s">
+        <v>508</v>
+      </c>
+      <c r="R13" t="s">
+        <v>453</v>
+      </c>
+      <c r="S13" t="s">
+        <v>453</v>
+      </c>
+      <c r="T13" t="s">
+        <v>453</v>
+      </c>
+      <c r="U13" t="s">
+        <v>454</v>
+      </c>
+      <c r="V13" t="s">
+        <v>454</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>40</v>
+      </c>
+      <c r="Z13">
+        <v>210</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>502</v>
+      </c>
+      <c r="C14" t="s">
+        <v>503</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>510</v>
+      </c>
+      <c r="F14">
+        <v>42</v>
+      </c>
+      <c r="G14">
+        <v>40.655000000000001</v>
+      </c>
+      <c r="H14">
+        <v>-83</v>
+      </c>
+      <c r="I14">
+        <v>-29.103999999999999</v>
+      </c>
+      <c r="J14">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s">
+        <v>511</v>
+      </c>
+      <c r="L14">
+        <v>6.95</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" t="s">
+        <v>489</v>
+      </c>
+      <c r="R14" t="s">
+        <v>453</v>
+      </c>
+      <c r="S14" t="s">
+        <v>453</v>
+      </c>
+      <c r="T14" t="s">
+        <v>453</v>
+      </c>
+      <c r="U14" t="s">
+        <v>454</v>
+      </c>
+      <c r="V14" t="s">
+        <v>453</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>17.72</v>
+      </c>
+      <c r="Z14">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>502</v>
+      </c>
+      <c r="C15" t="s">
+        <v>503</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>510</v>
+      </c>
+      <c r="F15">
+        <v>42</v>
+      </c>
+      <c r="G15">
+        <v>40.665999999999997</v>
+      </c>
+      <c r="H15">
+        <v>-83</v>
+      </c>
+      <c r="I15">
+        <v>-29.119</v>
+      </c>
+      <c r="J15">
+        <v>12</v>
+      </c>
+      <c r="K15" t="s">
+        <v>489</v>
+      </c>
+      <c r="L15">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>191</v>
+      </c>
+      <c r="O15" t="s">
+        <v>492</v>
+      </c>
+      <c r="R15" t="s">
+        <v>453</v>
+      </c>
+      <c r="S15" t="s">
+        <v>453</v>
+      </c>
+      <c r="T15" t="s">
+        <v>454</v>
+      </c>
+      <c r="U15" t="s">
+        <v>453</v>
+      </c>
+      <c r="V15" t="s">
+        <v>453</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>30</v>
+      </c>
+      <c r="Z15">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>502</v>
+      </c>
+      <c r="C16" t="s">
+        <v>503</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>510</v>
+      </c>
+      <c r="F16">
+        <v>42</v>
+      </c>
+      <c r="G16">
+        <v>40.665999999999997</v>
+      </c>
+      <c r="H16">
+        <v>-83</v>
+      </c>
+      <c r="I16">
+        <v>-29.114999999999998</v>
+      </c>
+      <c r="J16">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
+        <v>489</v>
+      </c>
+      <c r="L16">
+        <v>10</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>100</v>
+      </c>
+      <c r="O16" t="s">
+        <v>492</v>
+      </c>
+      <c r="R16" t="s">
+        <v>453</v>
+      </c>
+      <c r="S16" t="s">
+        <v>454</v>
+      </c>
+      <c r="T16" t="s">
+        <v>454</v>
+      </c>
+      <c r="U16" t="s">
+        <v>453</v>
+      </c>
+      <c r="V16" t="s">
+        <v>454</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>30</v>
+      </c>
+      <c r="Z16">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/EAB_Michigan_2024_data.xlsx
+++ b/EAB_Michigan_2024_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/EAB_Michigan_2024_2025_github_folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3007" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FA9414E-7920-4F38-A868-8E335841A659}"/>
+  <xr:revisionPtr revIDLastSave="3030" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9B69F51-3B53-4C0E-B945-E3E4DAB9567D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2197" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="596">
   <si>
     <t>center_tree_number</t>
   </si>
@@ -1828,6 +1828,9 @@
   <si>
     <t>2nd_collection_date_lab_notes</t>
   </si>
+  <si>
+    <t>trap was hastily installed and is resting against the trunk</t>
+  </si>
 </sst>
 </file>
 
@@ -1901,7 +1904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1917,7 +1920,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2218,7 +2220,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>558</v>
       </c>
     </row>
@@ -2402,7 +2404,7 @@
       <c r="A31" s="1"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>565</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -2466,7 +2468,7 @@
       <c r="A43" s="1"/>
     </row>
     <row r="44" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
         <v>566</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2590,7 +2592,7 @@
       <c r="A64" s="1"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="7" t="s">
         <v>574</v>
       </c>
     </row>
@@ -51838,9 +51840,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N112"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:N1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -55462,8 +55464,8 @@
   <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -57458,7 +57460,7 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -57479,7 +57481,7 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52">
         <v>0</v>
@@ -58004,8 +58006,8 @@
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:J1"/>
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -58500,14 +58502,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="7">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>94</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" t="s">
         <v>447</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30">
         <v>14</v>
       </c>
     </row>
@@ -58821,22 +58823,22 @@
         <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="E56" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="F56" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="G56" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="H56" t="s">
-        <v>451</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
+        <v>488</v>
+      </c>
+      <c r="I56" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
@@ -58850,22 +58852,22 @@
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="E57" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="F57" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="G57" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="H57" t="s">
-        <v>451</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
+        <v>488</v>
+      </c>
+      <c r="I57" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -58981,7 +58983,7 @@
         <v>451</v>
       </c>
       <c r="I61">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
@@ -58994,6 +58996,24 @@
       <c r="C62">
         <v>0</v>
       </c>
+      <c r="D62" t="s">
+        <v>488</v>
+      </c>
+      <c r="E62" t="s">
+        <v>488</v>
+      </c>
+      <c r="F62" t="s">
+        <v>488</v>
+      </c>
+      <c r="G62" t="s">
+        <v>488</v>
+      </c>
+      <c r="H62" t="s">
+        <v>488</v>
+      </c>
+      <c r="I62" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63">
@@ -59005,6 +59025,24 @@
       <c r="C63">
         <v>0</v>
       </c>
+      <c r="D63" t="s">
+        <v>488</v>
+      </c>
+      <c r="E63" t="s">
+        <v>488</v>
+      </c>
+      <c r="F63" t="s">
+        <v>488</v>
+      </c>
+      <c r="G63" t="s">
+        <v>488</v>
+      </c>
+      <c r="H63" t="s">
+        <v>488</v>
+      </c>
+      <c r="I63" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64">
@@ -59016,8 +59054,26 @@
       <c r="C64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D64" t="s">
+        <v>488</v>
+      </c>
+      <c r="E64" t="s">
+        <v>488</v>
+      </c>
+      <c r="F64" t="s">
+        <v>488</v>
+      </c>
+      <c r="G64" t="s">
+        <v>488</v>
+      </c>
+      <c r="H64" t="s">
+        <v>488</v>
+      </c>
+      <c r="I64" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>54</v>
       </c>
@@ -59026,6 +59082,24 @@
       </c>
       <c r="C65">
         <v>0</v>
+      </c>
+      <c r="D65" t="s">
+        <v>488</v>
+      </c>
+      <c r="E65" t="s">
+        <v>488</v>
+      </c>
+      <c r="F65" t="s">
+        <v>488</v>
+      </c>
+      <c r="G65" t="s">
+        <v>488</v>
+      </c>
+      <c r="H65" t="s">
+        <v>488</v>
+      </c>
+      <c r="I65" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -59035,11 +59109,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA95277-679F-4206-8ACD-7B30D3EACF40}">
-  <dimension ref="A1:S73"/>
+  <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView zoomScale="93" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -59107,135 +59181,135 @@
         <v>455</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>534</v>
-      </c>
-      <c r="C2" t="s">
-        <v>450</v>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E2" t="s">
+        <v>488</v>
       </c>
       <c r="F2" t="s">
         <v>488</v>
       </c>
-      <c r="H2">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
+      <c r="G2" t="s">
+        <v>488</v>
+      </c>
+      <c r="H2" t="s">
+        <v>488</v>
+      </c>
+      <c r="I2" t="s">
+        <v>488</v>
       </c>
       <c r="J2" t="s">
-        <v>119</v>
+        <v>488</v>
       </c>
       <c r="K2" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="L2" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="M2" t="s">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="N2" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="O2" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="P2" t="s">
-        <v>451</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
+        <v>488</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>488</v>
+      </c>
+      <c r="R2" t="s">
+        <v>488</v>
+      </c>
+      <c r="S2" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>534</v>
       </c>
       <c r="C3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F3" t="s">
         <v>488</v>
       </c>
       <c r="H3">
-        <v>11</v>
-      </c>
-      <c r="S3" t="s">
-        <v>462</v>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" t="s">
+        <v>451</v>
+      </c>
+      <c r="L3" t="s">
+        <v>451</v>
+      </c>
+      <c r="M3" t="s">
+        <v>452</v>
+      </c>
+      <c r="N3" t="s">
+        <v>451</v>
+      </c>
+      <c r="O3" t="s">
+        <v>451</v>
+      </c>
+      <c r="P3" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>488</v>
+        <v>534</v>
       </c>
       <c r="C4" t="s">
-        <v>454</v>
-      </c>
-      <c r="D4" t="s">
-        <v>488</v>
-      </c>
-      <c r="E4" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
       <c r="F4" t="s">
         <v>488</v>
       </c>
-      <c r="G4" t="s">
-        <v>488</v>
-      </c>
-      <c r="H4" t="s">
-        <v>488</v>
-      </c>
-      <c r="I4" t="s">
-        <v>488</v>
-      </c>
-      <c r="J4" t="s">
-        <v>488</v>
-      </c>
-      <c r="K4" t="s">
-        <v>488</v>
-      </c>
-      <c r="L4" t="s">
-        <v>488</v>
-      </c>
-      <c r="M4" t="s">
-        <v>488</v>
-      </c>
-      <c r="N4" t="s">
-        <v>488</v>
-      </c>
-      <c r="O4" t="s">
-        <v>488</v>
-      </c>
-      <c r="P4" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>488</v>
-      </c>
-      <c r="R4" t="s">
-        <v>488</v>
+      <c r="H4">
+        <v>11</v>
       </c>
       <c r="S4" t="s">
-        <v>488</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
         <v>488</v>
@@ -59294,7 +59368,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
         <v>488</v>
@@ -59353,7 +59427,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
         <v>488</v>
@@ -59412,7 +59486,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
         <v>488</v>
@@ -59471,7 +59545,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
         <v>488</v>
@@ -59530,7 +59604,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
         <v>488</v>
@@ -59589,7 +59663,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
         <v>488</v>
@@ -59648,58 +59722,61 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>534</v>
+        <v>488</v>
       </c>
       <c r="C12" t="s">
-        <v>447</v>
-      </c>
-      <c r="D12">
-        <v>9</v>
-      </c>
-      <c r="E12">
-        <v>2.42</v>
+        <v>454</v>
+      </c>
+      <c r="D12" t="s">
+        <v>488</v>
+      </c>
+      <c r="E12" t="s">
+        <v>488</v>
       </c>
       <c r="F12" t="s">
         <v>488</v>
       </c>
-      <c r="G12">
-        <v>7</v>
-      </c>
-      <c r="H12">
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
+      <c r="G12" t="s">
+        <v>488</v>
+      </c>
+      <c r="H12" t="s">
+        <v>488</v>
+      </c>
+      <c r="I12" t="s">
+        <v>488</v>
       </c>
       <c r="J12" t="s">
-        <v>189</v>
+        <v>488</v>
       </c>
       <c r="K12" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="L12" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="M12" t="s">
-        <v>452</v>
+        <v>488</v>
       </c>
       <c r="N12" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="O12" t="s">
-        <v>451</v>
+        <v>488</v>
       </c>
       <c r="P12" t="s">
-        <v>451</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
+        <v>488</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>488</v>
+      </c>
+      <c r="R12" t="s">
+        <v>488</v>
+      </c>
+      <c r="S12" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -59713,19 +59790,19 @@
         <v>447</v>
       </c>
       <c r="D13">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>4.68</v>
+        <v>2.42</v>
       </c>
       <c r="F13" t="s">
         <v>488</v>
       </c>
       <c r="G13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H13">
-        <v>2.9</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -59769,19 +59846,19 @@
         <v>447</v>
       </c>
       <c r="D14">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E14">
-        <v>4.47</v>
+        <v>4.68</v>
       </c>
       <c r="F14" t="s">
         <v>488</v>
       </c>
       <c r="G14">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H14">
-        <v>4.25</v>
+        <v>2.9</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -59822,22 +59899,22 @@
         <v>534</v>
       </c>
       <c r="C15" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D15">
-        <v>200</v>
+        <v>52</v>
       </c>
       <c r="E15">
-        <v>9.67</v>
+        <v>4.47</v>
       </c>
       <c r="F15" t="s">
         <v>488</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H15">
-        <v>2.5</v>
+        <v>4.25</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -59868,9 +59945,6 @@
       </c>
       <c r="R15">
         <v>0</v>
-      </c>
-      <c r="S15" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -59881,28 +59955,28 @@
         <v>534</v>
       </c>
       <c r="C16" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D16">
-        <v>144</v>
+        <v>200</v>
       </c>
       <c r="E16">
-        <v>10.61</v>
+        <v>9.67</v>
       </c>
       <c r="F16" t="s">
         <v>488</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H16">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
+        <v>189</v>
       </c>
       <c r="K16" t="s">
         <v>451</v>
@@ -59914,13 +59988,13 @@
         <v>452</v>
       </c>
       <c r="N16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O16" t="s">
         <v>451</v>
       </c>
       <c r="P16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -59929,7 +60003,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
@@ -59940,25 +60014,25 @@
         <v>534</v>
       </c>
       <c r="C17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D17">
-        <v>244</v>
+        <v>144</v>
       </c>
       <c r="E17">
-        <v>15.64</v>
+        <v>10.61</v>
       </c>
       <c r="F17" t="s">
         <v>488</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H17">
-        <v>6.65</v>
+        <v>3.2</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
         <v>39</v>
@@ -59970,7 +60044,7 @@
         <v>451</v>
       </c>
       <c r="M17" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N17" t="s">
         <v>452</v>
@@ -59979,13 +60053,16 @@
         <v>451</v>
       </c>
       <c r="P17" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17">
         <v>0</v>
+      </c>
+      <c r="S17" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
@@ -59998,20 +60075,23 @@
       <c r="C18" t="s">
         <v>450</v>
       </c>
+      <c r="D18">
+        <v>244</v>
+      </c>
       <c r="E18">
-        <v>21.92</v>
+        <v>15.64</v>
       </c>
       <c r="F18" t="s">
         <v>488</v>
       </c>
       <c r="G18">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H18">
-        <v>4.5</v>
+        <v>6.65</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>39</v>
@@ -60023,13 +60103,13 @@
         <v>451</v>
       </c>
       <c r="M18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N18" t="s">
         <v>452</v>
       </c>
       <c r="O18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P18" t="s">
         <v>451</v>
@@ -60052,16 +60132,19 @@
         <v>450</v>
       </c>
       <c r="E19">
-        <v>24.19</v>
+        <v>21.92</v>
       </c>
       <c r="F19" t="s">
         <v>488</v>
       </c>
+      <c r="G19">
+        <v>7</v>
+      </c>
       <c r="H19">
-        <v>6.65</v>
+        <v>4.5</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" t="s">
         <v>39</v>
@@ -60079,7 +60162,7 @@
         <v>452</v>
       </c>
       <c r="O19" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P19" t="s">
         <v>451</v>
@@ -60102,28 +60185,25 @@
         <v>450</v>
       </c>
       <c r="E20">
-        <v>24.62</v>
+        <v>24.19</v>
       </c>
       <c r="F20" t="s">
         <v>488</v>
       </c>
-      <c r="G20">
-        <v>4</v>
-      </c>
       <c r="H20">
-        <v>5.45</v>
+        <v>6.65</v>
       </c>
       <c r="I20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
         <v>39</v>
       </c>
       <c r="K20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M20" t="s">
         <v>452</v>
@@ -60132,7 +60212,7 @@
         <v>452</v>
       </c>
       <c r="O20" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P20" t="s">
         <v>451</v>
@@ -60154,41 +60234,38 @@
       <c r="C21" t="s">
         <v>450</v>
       </c>
-      <c r="D21">
-        <v>262</v>
-      </c>
       <c r="E21">
-        <v>21.02</v>
+        <v>24.62</v>
       </c>
       <c r="F21" t="s">
         <v>488</v>
       </c>
       <c r="G21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H21">
-        <v>4.0999999999999996</v>
+        <v>5.45</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J21" t="s">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="K21" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L21" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M21" t="s">
         <v>452</v>
       </c>
       <c r="N21" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O21" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P21" t="s">
         <v>451</v>
@@ -60208,46 +60285,52 @@
         <v>534</v>
       </c>
       <c r="C22" t="s">
-        <v>448</v>
+        <v>450</v>
+      </c>
+      <c r="D22">
+        <v>262</v>
       </c>
       <c r="E22">
-        <v>25.25</v>
+        <v>21.02</v>
       </c>
       <c r="F22" t="s">
         <v>488</v>
       </c>
+      <c r="G22">
+        <v>6</v>
+      </c>
       <c r="H22">
-        <v>8.85</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="K22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M22" t="s">
         <v>452</v>
       </c>
       <c r="N22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P22" t="s">
         <v>451</v>
       </c>
       <c r="Q22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
@@ -60260,29 +60343,26 @@
       <c r="C23" t="s">
         <v>448</v>
       </c>
-      <c r="D23">
-        <v>322</v>
-      </c>
       <c r="E23">
-        <v>16.27</v>
+        <v>25.25</v>
       </c>
       <c r="F23" t="s">
         <v>488</v>
       </c>
       <c r="H23">
-        <v>2.5</v>
+        <v>8.85</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J23" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="K23" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L23" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M23" t="s">
         <v>452</v>
@@ -60291,19 +60371,16 @@
         <v>452</v>
       </c>
       <c r="O23" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P23" t="s">
         <v>451</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23" t="s">
-        <v>460</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
@@ -60317,16 +60394,16 @@
         <v>448</v>
       </c>
       <c r="D24">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="E24">
-        <v>16.97</v>
+        <v>16.27</v>
       </c>
       <c r="F24" t="s">
         <v>488</v>
       </c>
       <c r="H24">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -60357,6 +60434,9 @@
       </c>
       <c r="R24">
         <v>0</v>
+      </c>
+      <c r="S24" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
@@ -60370,16 +60450,16 @@
         <v>448</v>
       </c>
       <c r="D25">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="E25">
-        <v>16.079999999999998</v>
+        <v>16.97</v>
       </c>
       <c r="F25" t="s">
         <v>488</v>
       </c>
       <c r="H25">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -60397,7 +60477,7 @@
         <v>452</v>
       </c>
       <c r="N25" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O25" t="s">
         <v>451</v>
@@ -60423,22 +60503,22 @@
         <v>448</v>
       </c>
       <c r="D26">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E26">
-        <v>16.2</v>
+        <v>16.079999999999998</v>
       </c>
       <c r="F26" t="s">
         <v>488</v>
       </c>
       <c r="H26">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
+        <v>189</v>
       </c>
       <c r="K26" t="s">
         <v>451</v>
@@ -60447,10 +60527,10 @@
         <v>451</v>
       </c>
       <c r="M26" t="s">
+        <v>452</v>
+      </c>
+      <c r="N26" t="s">
         <v>451</v>
-      </c>
-      <c r="N26" t="s">
-        <v>452</v>
       </c>
       <c r="O26" t="s">
         <v>451</v>
@@ -60476,10 +60556,10 @@
         <v>448</v>
       </c>
       <c r="D27">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="E27">
-        <v>15.1</v>
+        <v>16.2</v>
       </c>
       <c r="F27" t="s">
         <v>488</v>
@@ -60488,7 +60568,7 @@
         <v>3.5</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
         <v>39</v>
@@ -60497,16 +60577,16 @@
         <v>451</v>
       </c>
       <c r="L27" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M27" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N27" t="s">
         <v>452</v>
       </c>
       <c r="O27" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="P27" t="s">
         <v>451</v>
@@ -60529,19 +60609,19 @@
         <v>448</v>
       </c>
       <c r="D28">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E28">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="F28" t="s">
         <v>488</v>
       </c>
       <c r="H28">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J28" t="s">
         <v>39</v>
@@ -60550,16 +60630,19 @@
         <v>451</v>
       </c>
       <c r="L28" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M28" t="s">
         <v>452</v>
       </c>
+      <c r="N28" t="s">
+        <v>452</v>
+      </c>
       <c r="O28" t="s">
+        <v>452</v>
+      </c>
+      <c r="P28" t="s">
         <v>451</v>
-      </c>
-      <c r="P28" t="s">
-        <v>452</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -60579,22 +60662,22 @@
         <v>448</v>
       </c>
       <c r="D29">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E29">
-        <v>17.5</v>
+        <v>15.2</v>
       </c>
       <c r="F29" t="s">
         <v>488</v>
       </c>
       <c r="H29">
-        <v>2.5499999999999998</v>
+        <v>3.6</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J29" t="s">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="K29" t="s">
         <v>451</v>
@@ -60605,14 +60688,11 @@
       <c r="M29" t="s">
         <v>452</v>
       </c>
-      <c r="N29" t="s">
-        <v>451</v>
-      </c>
       <c r="O29" t="s">
         <v>451</v>
       </c>
       <c r="P29" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -60632,19 +60712,19 @@
         <v>448</v>
       </c>
       <c r="D30">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E30">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="F30" t="s">
         <v>488</v>
       </c>
       <c r="H30">
-        <v>5.7</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
         <v>189</v>
@@ -60653,7 +60733,7 @@
         <v>451</v>
       </c>
       <c r="L30" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M30" t="s">
         <v>452</v>
@@ -60672,9 +60752,6 @@
       </c>
       <c r="R30">
         <v>0</v>
-      </c>
-      <c r="S30" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
@@ -60688,19 +60765,19 @@
         <v>448</v>
       </c>
       <c r="D31">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="E31">
-        <v>16.899999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="F31" t="s">
         <v>488</v>
       </c>
       <c r="H31">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J31" t="s">
         <v>189</v>
@@ -60709,7 +60786,7 @@
         <v>451</v>
       </c>
       <c r="L31" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M31" t="s">
         <v>452</v>
@@ -60728,6 +60805,9 @@
       </c>
       <c r="R31">
         <v>0</v>
+      </c>
+      <c r="S31" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
@@ -60741,19 +60821,19 @@
         <v>448</v>
       </c>
       <c r="D32">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="E32">
-        <v>17.100000000000001</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="F32" t="s">
         <v>488</v>
       </c>
       <c r="H32">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>189</v>
@@ -60768,7 +60848,7 @@
         <v>452</v>
       </c>
       <c r="N32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O32" t="s">
         <v>451</v>
@@ -60797,16 +60877,16 @@
         <v>314</v>
       </c>
       <c r="E33">
-        <v>16.399999999999999</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="F33" t="s">
         <v>488</v>
       </c>
       <c r="H33">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
         <v>189</v>
@@ -60818,10 +60898,10 @@
         <v>451</v>
       </c>
       <c r="M33" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N33" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O33" t="s">
         <v>451</v>
@@ -60847,22 +60927,22 @@
         <v>448</v>
       </c>
       <c r="D34">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E34">
-        <v>17.100000000000001</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="F34" t="s">
         <v>488</v>
       </c>
       <c r="H34">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>39</v>
+        <v>189</v>
       </c>
       <c r="K34" t="s">
         <v>451</v>
@@ -60871,10 +60951,10 @@
         <v>451</v>
       </c>
       <c r="M34" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N34" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O34" t="s">
         <v>451</v>
@@ -60900,22 +60980,22 @@
         <v>448</v>
       </c>
       <c r="D35">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E35">
-        <v>15.4</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="F35" t="s">
         <v>488</v>
       </c>
       <c r="H35">
-        <v>4.3</v>
+        <v>2.5</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="K35" t="s">
         <v>451</v>
@@ -60924,13 +61004,13 @@
         <v>451</v>
       </c>
       <c r="M35" t="s">
+        <v>452</v>
+      </c>
+      <c r="N35" t="s">
+        <v>452</v>
+      </c>
+      <c r="O35" t="s">
         <v>451</v>
-      </c>
-      <c r="N35" t="s">
-        <v>451</v>
-      </c>
-      <c r="O35" t="s">
-        <v>452</v>
       </c>
       <c r="P35" t="s">
         <v>451</v>
@@ -60953,22 +61033,22 @@
         <v>448</v>
       </c>
       <c r="D36">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="E36">
-        <v>12.1</v>
+        <v>15.4</v>
       </c>
       <c r="F36" t="s">
         <v>488</v>
       </c>
       <c r="H36">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="I36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>39</v>
+        <v>189</v>
       </c>
       <c r="K36" t="s">
         <v>451</v>
@@ -60977,7 +61057,7 @@
         <v>451</v>
       </c>
       <c r="M36" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N36" t="s">
         <v>451</v>
@@ -61006,25 +61086,25 @@
         <v>448</v>
       </c>
       <c r="D37">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E37">
-        <v>10</v>
+        <v>12.1</v>
       </c>
       <c r="F37" t="s">
         <v>488</v>
       </c>
       <c r="H37">
-        <v>4.5999999999999996</v>
+        <v>2.7</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J37" t="s">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="K37" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L37" t="s">
         <v>451</v>
@@ -61033,10 +61113,10 @@
         <v>452</v>
       </c>
       <c r="N37" t="s">
+        <v>451</v>
+      </c>
+      <c r="O37" t="s">
         <v>452</v>
-      </c>
-      <c r="O37" t="s">
-        <v>451</v>
       </c>
       <c r="P37" t="s">
         <v>451</v>
@@ -61046,9 +61126,6 @@
       </c>
       <c r="R37">
         <v>0</v>
-      </c>
-      <c r="S37" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
@@ -61062,16 +61139,16 @@
         <v>448</v>
       </c>
       <c r="D38">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="E38">
-        <v>11.9</v>
+        <v>10</v>
       </c>
       <c r="F38" t="s">
         <v>488</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -61080,7 +61157,7 @@
         <v>189</v>
       </c>
       <c r="K38" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L38" t="s">
         <v>451</v>
@@ -61104,7 +61181,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.35">
@@ -61118,16 +61195,16 @@
         <v>448</v>
       </c>
       <c r="D39">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="E39">
-        <v>14</v>
+        <v>11.9</v>
       </c>
       <c r="F39" t="s">
         <v>488</v>
       </c>
       <c r="H39">
-        <v>4.9000000000000004</v>
+        <v>3</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -61142,10 +61219,10 @@
         <v>451</v>
       </c>
       <c r="M39" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N39" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O39" t="s">
         <v>451</v>
@@ -61160,7 +61237,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.35">
@@ -61174,16 +61251,16 @@
         <v>448</v>
       </c>
       <c r="D40">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E40">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F40" t="s">
         <v>488</v>
       </c>
       <c r="H40">
-        <v>3.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -61214,6 +61291,9 @@
       </c>
       <c r="R40">
         <v>0</v>
+      </c>
+      <c r="S40" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.35">
@@ -61227,16 +61307,16 @@
         <v>448</v>
       </c>
       <c r="D41">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E41">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="F41" t="s">
         <v>488</v>
       </c>
       <c r="H41">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -61251,7 +61331,7 @@
         <v>451</v>
       </c>
       <c r="M41" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N41" t="s">
         <v>451</v>
@@ -61280,16 +61360,16 @@
         <v>448</v>
       </c>
       <c r="D42">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E42">
-        <v>15.6</v>
+        <v>14.7</v>
       </c>
       <c r="F42" t="s">
         <v>488</v>
       </c>
       <c r="H42">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -61333,16 +61413,16 @@
         <v>448</v>
       </c>
       <c r="D43">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E43">
-        <v>10.9</v>
+        <v>15.6</v>
       </c>
       <c r="F43" t="s">
         <v>488</v>
       </c>
       <c r="H43">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -61357,7 +61437,7 @@
         <v>451</v>
       </c>
       <c r="M43" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N43" t="s">
         <v>451</v>
@@ -61386,16 +61466,16 @@
         <v>448</v>
       </c>
       <c r="D44">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E44">
-        <v>10.199999999999999</v>
+        <v>10.9</v>
       </c>
       <c r="F44" t="s">
         <v>488</v>
       </c>
       <c r="H44">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -61410,10 +61490,10 @@
         <v>451</v>
       </c>
       <c r="M44" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N44" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O44" t="s">
         <v>451</v>
@@ -61439,16 +61519,16 @@
         <v>448</v>
       </c>
       <c r="D45">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="E45">
-        <v>9.6999999999999993</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F45" t="s">
         <v>488</v>
       </c>
       <c r="H45">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -61466,7 +61546,7 @@
         <v>452</v>
       </c>
       <c r="N45" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O45" t="s">
         <v>451</v>
@@ -61492,22 +61572,22 @@
         <v>448</v>
       </c>
       <c r="D46">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="E46">
-        <v>9</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F46" t="s">
         <v>488</v>
       </c>
       <c r="H46">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>39</v>
+        <v>189</v>
       </c>
       <c r="K46" t="s">
         <v>451</v>
@@ -61516,7 +61596,7 @@
         <v>451</v>
       </c>
       <c r="M46" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N46" t="s">
         <v>451</v>
@@ -61532,9 +61612,6 @@
       </c>
       <c r="R46">
         <v>0</v>
-      </c>
-      <c r="S46" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.35">
@@ -61548,22 +61625,22 @@
         <v>448</v>
       </c>
       <c r="D47">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E47">
-        <v>13.6</v>
+        <v>9</v>
       </c>
       <c r="F47" t="s">
         <v>488</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="K47" t="s">
         <v>451</v>
@@ -61572,16 +61649,16 @@
         <v>451</v>
       </c>
       <c r="M47" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N47" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O47" t="s">
         <v>451</v>
       </c>
       <c r="P47" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="Q47">
         <v>0</v>
@@ -61589,54 +61666,60 @@
       <c r="R47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="7">
-        <v>39</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="D48" s="7">
-        <v>77</v>
-      </c>
-      <c r="E48" s="7">
-        <v>2</v>
-      </c>
-      <c r="F48" s="7" t="s">
+      <c r="S47" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>53</v>
+      </c>
+      <c r="B48" t="s">
+        <v>534</v>
+      </c>
+      <c r="C48" t="s">
+        <v>448</v>
+      </c>
+      <c r="D48">
+        <v>341</v>
+      </c>
+      <c r="E48">
+        <v>13.6</v>
+      </c>
+      <c r="F48" t="s">
         <v>488</v>
       </c>
-      <c r="H48" s="7">
-        <v>8.5299999999999994</v>
-      </c>
-      <c r="I48" s="7">
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
         <v>1</v>
       </c>
-      <c r="J48" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="K48" s="7" t="s">
+      <c r="J48" t="s">
+        <v>189</v>
+      </c>
+      <c r="K48" t="s">
         <v>451</v>
       </c>
-      <c r="L48" s="7" t="s">
+      <c r="L48" t="s">
         <v>451</v>
       </c>
-      <c r="M48" s="7" t="s">
+      <c r="M48" t="s">
+        <v>452</v>
+      </c>
+      <c r="N48" t="s">
+        <v>452</v>
+      </c>
+      <c r="O48" t="s">
         <v>451</v>
       </c>
-      <c r="N48" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="O48" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="Q48" s="7">
+      <c r="P48" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q48">
         <v>0</v>
       </c>
-      <c r="R48" s="7">
+      <c r="R48">
         <v>0</v>
       </c>
     </row>
@@ -61651,22 +61734,22 @@
         <v>447</v>
       </c>
       <c r="D49">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E49">
-        <v>3.72</v>
+        <v>2</v>
       </c>
       <c r="F49" t="s">
         <v>488</v>
       </c>
       <c r="H49">
-        <v>6.57</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="K49" t="s">
         <v>451</v>
@@ -61678,20 +61761,16 @@
         <v>451</v>
       </c>
       <c r="N49" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O49" t="s">
         <v>451</v>
       </c>
-      <c r="P49" s="7"/>
       <c r="Q49">
         <v>0</v>
       </c>
       <c r="R49">
         <v>0</v>
-      </c>
-      <c r="S49" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.35">
@@ -61705,16 +61784,16 @@
         <v>447</v>
       </c>
       <c r="D50">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E50">
-        <v>6.75</v>
+        <v>3.72</v>
       </c>
       <c r="F50" t="s">
         <v>488</v>
       </c>
       <c r="H50">
-        <v>6</v>
+        <v>6.57</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -61737,12 +61816,14 @@
       <c r="O50" t="s">
         <v>451</v>
       </c>
-      <c r="P50" s="7"/>
       <c r="Q50">
         <v>0</v>
       </c>
       <c r="R50">
         <v>0</v>
+      </c>
+      <c r="S50" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.35">
@@ -61750,53 +61831,49 @@
         <v>39</v>
       </c>
       <c r="B51" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="C51" t="s">
         <v>447</v>
       </c>
       <c r="D51">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E51">
-        <v>8</v>
+        <v>6.75</v>
       </c>
       <c r="F51" t="s">
         <v>488</v>
       </c>
       <c r="H51">
-        <v>4.62</v>
+        <v>6</v>
       </c>
       <c r="I51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>189</v>
       </c>
       <c r="K51" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L51" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M51" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N51" t="s">
         <v>452</v>
       </c>
       <c r="O51" t="s">
-        <v>452</v>
-      </c>
-      <c r="P51" s="7"/>
+        <v>451</v>
+      </c>
       <c r="Q51">
         <v>0</v>
       </c>
       <c r="R51">
         <v>0</v>
-      </c>
-      <c r="S51" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.35">
@@ -61804,45 +61881,44 @@
         <v>39</v>
       </c>
       <c r="B52" t="s">
-        <v>504</v>
+        <v>534</v>
       </c>
       <c r="C52" t="s">
         <v>447</v>
       </c>
       <c r="D52">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="E52">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="F52" t="s">
         <v>488</v>
       </c>
       <c r="H52">
-        <v>9.68</v>
+        <v>4.62</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J52" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="K52" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L52" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M52" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N52" t="s">
         <v>452</v>
       </c>
       <c r="O52" t="s">
-        <v>451</v>
-      </c>
-      <c r="P52" s="7"/>
+        <v>452</v>
+      </c>
       <c r="Q52">
         <v>0</v>
       </c>
@@ -61850,7 +61926,7 @@
         <v>0</v>
       </c>
       <c r="S52" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.35">
@@ -61873,13 +61949,13 @@
         <v>488</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>9.68</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="K53" t="s">
         <v>451</v>
@@ -61891,17 +61967,19 @@
         <v>451</v>
       </c>
       <c r="N53" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O53" t="s">
         <v>451</v>
       </c>
-      <c r="P53" s="7"/>
       <c r="Q53">
         <v>0</v>
       </c>
       <c r="R53">
         <v>0</v>
+      </c>
+      <c r="S53" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
@@ -61909,22 +61987,22 @@
         <v>39</v>
       </c>
       <c r="B54" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
       <c r="C54" t="s">
         <v>447</v>
       </c>
       <c r="D54">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E54">
-        <v>6.9</v>
+        <v>6.3</v>
       </c>
       <c r="F54" t="s">
         <v>488</v>
       </c>
       <c r="H54">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -61939,7 +62017,7 @@
         <v>451</v>
       </c>
       <c r="M54" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N54" t="s">
         <v>451</v>
@@ -61947,7 +62025,6 @@
       <c r="O54" t="s">
         <v>451</v>
       </c>
-      <c r="P54" s="7"/>
       <c r="Q54">
         <v>0</v>
       </c>
@@ -61960,7 +62037,7 @@
         <v>39</v>
       </c>
       <c r="B55" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="C55" t="s">
         <v>447</v>
@@ -61969,13 +62046,13 @@
         <v>58</v>
       </c>
       <c r="E55">
-        <v>8.1</v>
+        <v>6.9</v>
       </c>
       <c r="F55" t="s">
         <v>488</v>
       </c>
       <c r="H55">
-        <v>4.8600000000000003</v>
+        <v>2.9</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -61990,7 +62067,7 @@
         <v>451</v>
       </c>
       <c r="M55" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N55" t="s">
         <v>451</v>
@@ -61998,7 +62075,6 @@
       <c r="O55" t="s">
         <v>451</v>
       </c>
-      <c r="P55" s="7"/>
       <c r="Q55">
         <v>0</v>
       </c>
@@ -62017,19 +62093,19 @@
         <v>447</v>
       </c>
       <c r="D56">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E56">
-        <v>11.6</v>
+        <v>8.1</v>
       </c>
       <c r="F56" t="s">
         <v>488</v>
       </c>
       <c r="H56">
-        <v>6.5</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
         <v>189</v>
@@ -62044,20 +62120,16 @@
         <v>451</v>
       </c>
       <c r="N56" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O56" t="s">
         <v>451</v>
       </c>
-      <c r="P56" s="7"/>
       <c r="Q56">
         <v>0</v>
       </c>
       <c r="R56">
         <v>0</v>
-      </c>
-      <c r="S56" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
@@ -62065,50 +62137,52 @@
         <v>39</v>
       </c>
       <c r="B57" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="C57" t="s">
         <v>447</v>
       </c>
       <c r="D57">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E57">
-        <v>9.5</v>
+        <v>11.6</v>
       </c>
       <c r="F57" t="s">
         <v>488</v>
       </c>
       <c r="H57">
-        <v>4.5999999999999996</v>
+        <v>6.5</v>
       </c>
       <c r="I57">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
         <v>189</v>
       </c>
       <c r="K57" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L57" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M57" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N57" t="s">
         <v>452</v>
       </c>
       <c r="O57" t="s">
-        <v>452</v>
-      </c>
-      <c r="P57" s="7"/>
+        <v>451</v>
+      </c>
       <c r="Q57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R57">
         <v>0</v>
+      </c>
+      <c r="S57" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.35">
@@ -62116,22 +62190,22 @@
         <v>39</v>
       </c>
       <c r="B58" t="s">
-        <v>504</v>
+        <v>534</v>
       </c>
       <c r="C58" t="s">
         <v>447</v>
       </c>
       <c r="D58">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E58">
-        <v>12.5</v>
+        <v>9.5</v>
       </c>
       <c r="F58" t="s">
         <v>488</v>
       </c>
       <c r="H58">
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I58">
         <v>5</v>
@@ -62140,23 +62214,22 @@
         <v>189</v>
       </c>
       <c r="K58" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="L58" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M58" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N58" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O58" t="s">
-        <v>451</v>
-      </c>
-      <c r="P58" s="7"/>
+        <v>452</v>
+      </c>
       <c r="Q58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R58">
         <v>0</v>
@@ -62167,22 +62240,22 @@
         <v>39</v>
       </c>
       <c r="B59" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="C59" t="s">
         <v>447</v>
       </c>
       <c r="D59">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E59">
-        <v>12.88</v>
+        <v>12.5</v>
       </c>
       <c r="F59" t="s">
         <v>488</v>
       </c>
       <c r="H59">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="I59">
         <v>5</v>
@@ -62197,23 +62270,19 @@
         <v>451</v>
       </c>
       <c r="M59" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N59" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O59" t="s">
-        <v>452</v>
-      </c>
-      <c r="P59" s="7"/>
+        <v>451</v>
+      </c>
       <c r="Q59">
         <v>0</v>
       </c>
       <c r="R59">
         <v>0</v>
-      </c>
-      <c r="S59" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.35">
@@ -62221,25 +62290,25 @@
         <v>39</v>
       </c>
       <c r="B60" t="s">
-        <v>504</v>
+        <v>534</v>
       </c>
       <c r="C60" t="s">
         <v>447</v>
       </c>
       <c r="D60">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E60">
-        <v>14.85</v>
+        <v>12.88</v>
       </c>
       <c r="F60" t="s">
         <v>488</v>
       </c>
       <c r="H60">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J60" t="s">
         <v>189</v>
@@ -62251,20 +62320,25 @@
         <v>451</v>
       </c>
       <c r="M60" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N60" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O60" t="s">
-        <v>451</v>
-      </c>
-      <c r="P60" s="7"/>
+        <v>452</v>
+      </c>
+      <c r="P60" t="s">
+        <v>452</v>
+      </c>
       <c r="Q60">
         <v>0</v>
       </c>
       <c r="R60">
         <v>0</v>
+      </c>
+      <c r="S60" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.35">
@@ -62278,16 +62352,16 @@
         <v>447</v>
       </c>
       <c r="D61">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E61">
-        <v>16.3</v>
+        <v>14.85</v>
       </c>
       <c r="F61" t="s">
         <v>488</v>
       </c>
       <c r="H61">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -62310,7 +62384,6 @@
       <c r="O61" t="s">
         <v>451</v>
       </c>
-      <c r="P61" s="7"/>
       <c r="Q61">
         <v>0</v>
       </c>
@@ -62323,7 +62396,7 @@
         <v>39</v>
       </c>
       <c r="B62" t="s">
-        <v>535</v>
+        <v>504</v>
       </c>
       <c r="C62" t="s">
         <v>447</v>
@@ -62332,16 +62405,16 @@
         <v>72</v>
       </c>
       <c r="E62">
-        <v>17.96</v>
+        <v>16.3</v>
       </c>
       <c r="F62" t="s">
         <v>488</v>
       </c>
       <c r="H62">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
         <v>189</v>
@@ -62353,7 +62426,7 @@
         <v>451</v>
       </c>
       <c r="M62" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N62" t="s">
         <v>451</v>
@@ -62361,15 +62434,11 @@
       <c r="O62" t="s">
         <v>451</v>
       </c>
-      <c r="P62" s="7"/>
       <c r="Q62">
         <v>0</v>
       </c>
       <c r="R62">
         <v>0</v>
-      </c>
-      <c r="S62" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.35">
@@ -62377,25 +62446,25 @@
         <v>39</v>
       </c>
       <c r="B63" t="s">
-        <v>504</v>
+        <v>535</v>
       </c>
       <c r="C63" t="s">
         <v>447</v>
       </c>
       <c r="D63">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E63">
-        <v>17.399999999999999</v>
+        <v>17.96</v>
       </c>
       <c r="F63" t="s">
         <v>488</v>
       </c>
       <c r="H63">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
         <v>189</v>
@@ -62407,7 +62476,7 @@
         <v>451</v>
       </c>
       <c r="M63" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N63" t="s">
         <v>451</v>
@@ -62415,12 +62484,14 @@
       <c r="O63" t="s">
         <v>451</v>
       </c>
-      <c r="P63" s="7"/>
       <c r="Q63">
         <v>0</v>
       </c>
       <c r="R63">
         <v>0</v>
+      </c>
+      <c r="S63" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.35">
@@ -62437,13 +62508,13 @@
         <v>65</v>
       </c>
       <c r="E64">
-        <v>16.739999999999998</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="F64" t="s">
         <v>488</v>
       </c>
       <c r="H64">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -62458,15 +62529,14 @@
         <v>451</v>
       </c>
       <c r="M64" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N64" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O64" t="s">
         <v>451</v>
       </c>
-      <c r="P64" s="7"/>
       <c r="Q64">
         <v>0</v>
       </c>
@@ -62488,13 +62558,13 @@
         <v>65</v>
       </c>
       <c r="E65">
-        <v>17.36</v>
+        <v>16.739999999999998</v>
       </c>
       <c r="F65" t="s">
         <v>488</v>
       </c>
       <c r="H65">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -62509,15 +62579,14 @@
         <v>451</v>
       </c>
       <c r="M65" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N65" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O65" t="s">
         <v>451</v>
       </c>
-      <c r="P65" s="7"/>
       <c r="Q65">
         <v>0</v>
       </c>
@@ -62536,22 +62605,22 @@
         <v>447</v>
       </c>
       <c r="D66">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E66">
-        <v>13.7</v>
+        <v>17.36</v>
       </c>
       <c r="F66" t="s">
         <v>488</v>
       </c>
       <c r="H66">
-        <v>5.8</v>
+        <v>3.6</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>98</v>
+        <v>189</v>
       </c>
       <c r="K66" t="s">
         <v>451</v>
@@ -62560,23 +62629,19 @@
         <v>451</v>
       </c>
       <c r="M66" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N66" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O66" t="s">
-        <v>452</v>
-      </c>
-      <c r="P66" s="7"/>
+        <v>451</v>
+      </c>
       <c r="Q66">
         <v>0</v>
       </c>
       <c r="R66">
         <v>0</v>
-      </c>
-      <c r="S66" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.35">
@@ -62593,19 +62658,19 @@
         <v>55</v>
       </c>
       <c r="E67">
-        <v>14.7</v>
+        <v>13.7</v>
       </c>
       <c r="F67" t="s">
         <v>488</v>
       </c>
       <c r="H67">
-        <v>3.76</v>
+        <v>5.8</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="K67" t="s">
         <v>451</v>
@@ -62614,20 +62679,22 @@
         <v>451</v>
       </c>
       <c r="M67" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N67" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O67" t="s">
-        <v>451</v>
-      </c>
-      <c r="P67" s="7"/>
+        <v>452</v>
+      </c>
       <c r="Q67">
         <v>0</v>
       </c>
       <c r="R67">
         <v>0</v>
+      </c>
+      <c r="S67" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.35">
@@ -62635,25 +62702,25 @@
         <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="C68" t="s">
         <v>447</v>
       </c>
       <c r="D68">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E68">
-        <v>14</v>
+        <v>14.7</v>
       </c>
       <c r="F68" t="s">
         <v>488</v>
       </c>
       <c r="H68">
-        <v>3.4</v>
+        <v>3.76</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
         <v>189</v>
@@ -62665,15 +62732,14 @@
         <v>451</v>
       </c>
       <c r="M68" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="N68" t="s">
         <v>451</v>
       </c>
       <c r="O68" t="s">
-        <v>452</v>
-      </c>
-      <c r="P68" s="7"/>
+        <v>451</v>
+      </c>
       <c r="Q68">
         <v>0</v>
       </c>
@@ -62686,25 +62752,25 @@
         <v>39</v>
       </c>
       <c r="B69" t="s">
-        <v>504</v>
+        <v>536</v>
       </c>
       <c r="C69" t="s">
         <v>447</v>
       </c>
       <c r="D69">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E69">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="F69" t="s">
         <v>488</v>
       </c>
       <c r="H69">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
         <v>189</v>
@@ -62716,15 +62782,14 @@
         <v>451</v>
       </c>
       <c r="M69" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N69" t="s">
         <v>451</v>
       </c>
       <c r="O69" t="s">
-        <v>451</v>
-      </c>
-      <c r="P69" s="7"/>
+        <v>452</v>
+      </c>
       <c r="Q69">
         <v>0</v>
       </c>
@@ -62743,16 +62808,16 @@
         <v>447</v>
       </c>
       <c r="D70">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E70">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="F70" t="s">
         <v>488</v>
       </c>
       <c r="H70">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -62775,7 +62840,6 @@
       <c r="O70" t="s">
         <v>451</v>
       </c>
-      <c r="P70" s="7"/>
       <c r="Q70">
         <v>0</v>
       </c>
@@ -62785,76 +62849,126 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B71" t="s">
+        <v>504</v>
+      </c>
+      <c r="C71" t="s">
+        <v>447</v>
+      </c>
+      <c r="D71">
+        <v>55</v>
+      </c>
+      <c r="E71">
+        <v>14.3</v>
+      </c>
+      <c r="F71" t="s">
         <v>488</v>
       </c>
-      <c r="C71" t="s">
-        <v>454</v>
+      <c r="H71">
+        <v>2.9</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71" t="s">
+        <v>189</v>
+      </c>
+      <c r="K71" t="s">
+        <v>451</v>
+      </c>
+      <c r="L71" t="s">
+        <v>451</v>
+      </c>
+      <c r="M71" t="s">
+        <v>451</v>
+      </c>
+      <c r="N71" t="s">
+        <v>451</v>
+      </c>
+      <c r="O71" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A72">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="C72" t="s">
-        <v>448</v>
-      </c>
-      <c r="D72">
-        <v>283</v>
-      </c>
-      <c r="E72">
-        <v>9.5500000000000007</v>
-      </c>
-      <c r="F72" t="s">
-        <v>545</v>
-      </c>
-      <c r="H72">
-        <v>1.7</v>
-      </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
-      <c r="J72" t="s">
-        <v>39</v>
-      </c>
-      <c r="K72" t="s">
-        <v>451</v>
-      </c>
-      <c r="L72" t="s">
-        <v>451</v>
-      </c>
-      <c r="M72" t="s">
-        <v>452</v>
-      </c>
-      <c r="N72" t="s">
-        <v>451</v>
-      </c>
-      <c r="O72" t="s">
-        <v>451</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
+        <v>454</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73">
+        <v>52</v>
+      </c>
+      <c r="B73" t="s">
+        <v>504</v>
+      </c>
+      <c r="C73" t="s">
+        <v>448</v>
+      </c>
+      <c r="D73">
+        <v>283</v>
+      </c>
+      <c r="E73">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="F73" t="s">
+        <v>545</v>
+      </c>
+      <c r="H73">
+        <v>1.7</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>39</v>
+      </c>
+      <c r="K73" t="s">
+        <v>451</v>
+      </c>
+      <c r="L73" t="s">
+        <v>451</v>
+      </c>
+      <c r="M73" t="s">
+        <v>452</v>
+      </c>
+      <c r="N73" t="s">
+        <v>451</v>
+      </c>
+      <c r="O73" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A74">
         <v>54</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>556</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C74" t="s">
         <v>447</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F74" t="s">
         <v>546</v>
       </c>
     </row>
@@ -62867,8 +62981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8119E6BF-C4C5-438C-90A2-4DB239ACB6A8}">
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="K15" workbookViewId="0">
+      <selection activeCell="AC31" sqref="AC31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -63425,6 +63539,9 @@
       <c r="AA7">
         <v>0</v>
       </c>
+      <c r="AB7" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -65209,8 +65326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A0D07C-6179-4BF4-B897-92EFF7A18ED6}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/EAB_Michigan_2024_data.xlsx
+++ b/EAB_Michigan_2024_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/EAB_Michigan_2024_2025_github_folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3030" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9B69F51-3B53-4C0E-B945-E3E4DAB9567D}"/>
+  <xr:revisionPtr revIDLastSave="3888" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EDC602B-222F-405F-9CFD-E8922DE49403}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="4" r:id="rId1"/>
@@ -41,8 +41,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2243" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2749" uniqueCount="627">
   <si>
     <t>center_tree_number</t>
   </si>
@@ -1619,9 +1641,6 @@
     <t>Bigtooth aspen 34.7 cm</t>
   </si>
   <si>
-    <t>22.9 cm DBH</t>
-  </si>
-  <si>
     <t>trap_locations_notes</t>
   </si>
   <si>
@@ -1751,9 +1770,6 @@
     <t>Sometimes an ash tree was tagged in previous years by a labelled tree tag. This column records the tree tag label. Note: need to also record the date written on the back of the label.</t>
   </si>
   <si>
-    <t>In the 8 meter radius subplot, record data for all ash trees &gt;= 2.5 cm DBH. In the 18 meter main plot, record data for all ash trees &gt;= 12.5 cm DBH. Note: for a few plots, we actually recorded all trees &gt;= 2.5 cm in the main plot. Also try to record any trees that were tagged in previous years.</t>
-  </si>
-  <si>
     <t>I (Aaron) was trying to get a measurement that could indicate the ash species, so I tried out measuring the petiolule length, in other words whether the leaflets were stalked or sessile.</t>
   </si>
   <si>
@@ -1831,6 +1847,105 @@
   <si>
     <t>trap was hastily installed and is resting against the trunk</t>
   </si>
+  <si>
+    <t>06_14_2024</t>
+  </si>
+  <si>
+    <t>39.7 cm DBH - Tree tag swallowed or missing</t>
+  </si>
+  <si>
+    <t>06_13_2024</t>
+  </si>
+  <si>
+    <t>Black cherry 24.4 cm DBH</t>
+  </si>
+  <si>
+    <t>Center tree on the laminated map (Acer) is dead - tree tag was found - however did not locate the Carpinus 4.1 cm</t>
+  </si>
+  <si>
+    <t>Witness tree created and flagged - Birch 11.5 cm - 37 degrees and 3.70 meters to the center</t>
+  </si>
+  <si>
+    <t>06_12_2024</t>
+  </si>
+  <si>
+    <t>about 10 ft and 190 degrees from a 21.2 cm DBH dying Acer with 2 main branches</t>
+  </si>
+  <si>
+    <t>Larix 22.9 cm DBH</t>
+  </si>
+  <si>
+    <t>Acer 6.9 cm DBH</t>
+  </si>
+  <si>
+    <t>ferns - big fern - spicebush</t>
+  </si>
+  <si>
+    <t>lots of spicebush</t>
+  </si>
+  <si>
+    <t>jewelweed</t>
+  </si>
+  <si>
+    <t>black and white or green</t>
+  </si>
+  <si>
+    <t>Initially we weren't recording the ash species of saplings, because we were at Pontiac and we couldn't tell between green and white ash. Now we are able to distinguish black vs. white/green and we are recording that.</t>
+  </si>
+  <si>
+    <t>For some plots, we forgot to look specifically for EAB signs and symptoms on saplings. These cells I am leaving blank.</t>
+  </si>
+  <si>
+    <t>green and black</t>
+  </si>
+  <si>
+    <t>green or white and black</t>
+  </si>
+  <si>
+    <t>The Larix trees are dead or dying</t>
+  </si>
+  <si>
+    <t>In the 8 meter radius subplot, record data for all ash trees &gt;= 2.5 cm DBH. In the 18 meter main plot, record data for all ash trees &gt;= 10 cm DBH. Note: for a few plots, we actually recorded all trees &gt;= 2.5 cm in the main plot. Also try to record any trees that were tagged in previous years. Note: if two stems are connected (like one is a basal sprout of the other) then measure the DBH of the biggest one that is not broken below 137 cm, and record the presence or absence of signs and symptoms for this same stem that was measured, not for other connected stems.</t>
+  </si>
+  <si>
+    <t>epicormics living</t>
+  </si>
+  <si>
+    <t>connected to the one in the next row</t>
+  </si>
+  <si>
+    <t>connected to the one in the previous row</t>
+  </si>
+  <si>
+    <t>Tagged - July 8 2009 - Ash 2</t>
+  </si>
+  <si>
+    <t>epicormic is dead</t>
+  </si>
+  <si>
+    <t>Tagged - July 8 2009 - Ash 6</t>
+  </si>
+  <si>
+    <t>found a cerambycid - see photo</t>
+  </si>
+  <si>
+    <t>leaves small</t>
+  </si>
+  <si>
+    <t>another tree fell on it</t>
+  </si>
+  <si>
+    <t>EAB trap 6 is in this tree - there are two stems - 11.5 cm living healthy - and 6.4 cm DBH dead with many signs and symptoms on the dead one</t>
+  </si>
+  <si>
+    <t>white?</t>
+  </si>
+  <si>
+    <t>less than 8</t>
+  </si>
+  <si>
+    <t>epicormics are big</t>
+  </si>
 </sst>
 </file>
 
@@ -1904,7 +2019,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1923,6 +2038,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1942,6 +2058,70 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2207,10 +2387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D88F145-B9A5-4ED2-BA4E-B069605466DD}">
-  <dimension ref="A1:B16449"/>
+  <dimension ref="A1:B16450"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2221,7 +2401,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28" customHeight="1" x14ac:dyDescent="0.35">
@@ -2242,7 +2422,7 @@
         <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2290,7 +2470,7 @@
         <v>54</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -2298,7 +2478,7 @@
         <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -2311,10 +2491,10 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -2405,10 +2585,10 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -2421,350 +2601,358 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+    <row r="38" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>22</v>
+      <c r="B39" s="1" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>0</v>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>544</v>
-      </c>
       <c r="B50" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>570</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="1"/>
-    </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="7" t="s">
-        <v>574</v>
-      </c>
+      <c r="A65" s="1"/>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
-        <v>467</v>
+      <c r="A66" s="7" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>0</v>
+        <v>467</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
-        <v>18</v>
+        <v>469</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
-        <v>491</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>577</v>
+        <v>476</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>578</v>
+        <v>480</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B79" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
+      <c r="B80" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
-        <v>473</v>
-      </c>
       <c r="B81" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>30</v>
+        <v>473</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>527</v>
+        <v>30</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>474</v>
+        <v>526</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>20</v>
+        <v>475</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="1"/>
+      <c r="A94" s="1" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
@@ -51830,6 +52018,9 @@
     </row>
     <row r="16449" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16449" s="1"/>
+    </row>
+    <row r="16450" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16450" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -51841,13 +52032,14 @@
   <dimension ref="A1:N112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="8" max="8" width="15.453125" customWidth="1"/>
+    <col min="13" max="13" width="22.90625" customWidth="1"/>
     <col min="14" max="14" width="41.54296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -52702,11 +52894,15 @@
       <c r="H26" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="I26" s="5"/>
+      <c r="I26" s="5" t="s">
+        <v>596</v>
+      </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
+      <c r="M26" s="5" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
@@ -52894,7 +53090,7 @@
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
     </row>
-    <row r="33" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>138</v>
       </c>
@@ -52925,7 +53121,7 @@
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
     </row>
-    <row r="34" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>138</v>
       </c>
@@ -52956,7 +53152,7 @@
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
     </row>
-    <row r="35" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>138</v>
       </c>
@@ -52987,7 +53183,7 @@
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
     </row>
-    <row r="36" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>138</v>
       </c>
@@ -53018,7 +53214,7 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>138</v>
       </c>
@@ -53049,7 +53245,7 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
     </row>
-    <row r="38" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>138</v>
       </c>
@@ -53074,13 +53270,19 @@
       <c r="H38" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="I38" s="5"/>
+      <c r="I38" s="5" t="s">
+        <v>596</v>
+      </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-    </row>
-    <row r="39" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L38" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>138</v>
       </c>
@@ -53105,13 +53307,19 @@
       <c r="H39" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="I39" s="5"/>
+      <c r="I39" s="5" t="s">
+        <v>600</v>
+      </c>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-    </row>
-    <row r="40" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L39" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="M39" s="5" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>138</v>
       </c>
@@ -53143,10 +53351,13 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+      <c r="N40" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>56</v>
       </c>
@@ -53177,7 +53388,7 @@
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
     </row>
-    <row r="42" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>56</v>
       </c>
@@ -53208,7 +53419,7 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
     </row>
-    <row r="43" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>56</v>
       </c>
@@ -53239,7 +53450,7 @@
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
     </row>
-    <row r="44" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>56</v>
       </c>
@@ -53270,7 +53481,7 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
     </row>
-    <row r="45" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>56</v>
       </c>
@@ -53304,7 +53515,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>56</v>
       </c>
@@ -53338,7 +53549,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>209</v>
       </c>
@@ -53375,7 +53586,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>209</v>
       </c>
@@ -53642,11 +53853,15 @@
       <c r="H55" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="I55" s="5"/>
+      <c r="I55" s="5" t="s">
+        <v>594</v>
+      </c>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
+      <c r="M55" s="5" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="56" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
@@ -55461,11 +55676,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4294AC29-14D4-407D-99E4-B7615C9E66E2}">
-  <dimension ref="A1:M65"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -56598,41 +56813,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="6">
+    <row r="30" spans="1:13" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="8">
         <v>96</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="6">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6">
+      <c r="C30" s="8">
+        <v>0</v>
+      </c>
+      <c r="D30" s="8">
         <v>15.5</v>
       </c>
-      <c r="E30" s="6">
-        <v>0</v>
-      </c>
-      <c r="F30" s="6">
+      <c r="E30" s="8">
+        <v>0</v>
+      </c>
+      <c r="F30" s="8">
         <v>2</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="8">
         <v>7</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="8">
         <v>5</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="8">
         <v>4</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="8">
         <v>1</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="8">
         <v>2</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="8">
         <v>1</v>
       </c>
     </row>
@@ -57408,7 +57623,7 @@
         <v>0</v>
       </c>
       <c r="M50" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -57753,7 +57968,7 @@
         <v>1</v>
       </c>
       <c r="M59" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -57794,7 +58009,7 @@
         <v>0</v>
       </c>
       <c r="M60" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -57835,7 +58050,7 @@
         <v>2</v>
       </c>
       <c r="M61" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -57876,7 +58091,7 @@
         <v>3</v>
       </c>
       <c r="M62" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -57994,6 +58209,635 @@
       </c>
       <c r="M65" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>38</v>
+      </c>
+      <c r="B66" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>38</v>
+      </c>
+      <c r="B67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>38</v>
+      </c>
+      <c r="B68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>38</v>
+      </c>
+      <c r="B69" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>37</v>
+      </c>
+      <c r="B70" t="s">
+        <v>36</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>37</v>
+      </c>
+      <c r="B71" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>37</v>
+      </c>
+      <c r="B72" t="s">
+        <v>39</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>37</v>
+      </c>
+      <c r="B73" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>25</v>
+      </c>
+      <c r="B74" t="s">
+        <v>36</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>25</v>
+      </c>
+      <c r="B75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>25</v>
+      </c>
+      <c r="B76" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>3.5</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>25</v>
+      </c>
+      <c r="B77" t="s">
+        <v>40</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>15.5</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>57</v>
+      </c>
+      <c r="B78" t="s">
+        <v>36</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>65.5</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>5</v>
+      </c>
+      <c r="G78">
+        <v>3</v>
+      </c>
+      <c r="H78">
+        <v>4</v>
+      </c>
+      <c r="I78">
+        <v>7</v>
+      </c>
+      <c r="J78">
+        <v>2</v>
+      </c>
+      <c r="K78">
+        <v>3</v>
+      </c>
+      <c r="L78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>57</v>
+      </c>
+      <c r="B79" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>35.5</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>5</v>
+      </c>
+      <c r="G79">
+        <v>3</v>
+      </c>
+      <c r="H79">
+        <v>2</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>3</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>57</v>
+      </c>
+      <c r="B80" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>65.5</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+      <c r="F80">
+        <v>9</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+      <c r="H80">
+        <v>3</v>
+      </c>
+      <c r="I80">
+        <v>3</v>
+      </c>
+      <c r="J80">
+        <v>5</v>
+      </c>
+      <c r="K80">
+        <v>3</v>
+      </c>
+      <c r="L80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>57</v>
+      </c>
+      <c r="B81" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>8</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>4</v>
+      </c>
+      <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -58003,11 +58847,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BD0D19-2CF9-4B20-BFF9-137DFE963B6F}">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D66" sqref="D66"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L81" sqref="L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -58015,7 +58859,7 @@
     <col min="1" max="1" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="71.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -58023,86 +58867,86 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>447</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>449</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>450</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
         <v>448</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>447</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>451</v>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>451</v>
@@ -58116,22 +58960,22 @@
       <c r="H6" t="s">
         <v>451</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I6" t="s">
+        <v>451</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>449</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>451</v>
       </c>
       <c r="E7" t="s">
         <v>451</v>
@@ -58145,22 +58989,22 @@
       <c r="H7" t="s">
         <v>451</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I7" t="s">
+        <v>451</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>450</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>451</v>
       </c>
       <c r="E8" t="s">
         <v>451</v>
@@ -58174,22 +59018,22 @@
       <c r="H8" t="s">
         <v>451</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>451</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>448</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>451</v>
       </c>
       <c r="E9" t="s">
         <v>451</v>
@@ -58203,22 +59047,22 @@
       <c r="H9" t="s">
         <v>451</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I9" t="s">
+        <v>451</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>447</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>451</v>
       </c>
       <c r="E10" t="s">
         <v>451</v>
@@ -58232,22 +59076,22 @@
       <c r="H10" t="s">
         <v>451</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I10" t="s">
+        <v>451</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>449</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>451</v>
       </c>
       <c r="E11" t="s">
         <v>451</v>
@@ -58261,51 +59105,51 @@
       <c r="H11" t="s">
         <v>451</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I11" t="s">
+        <v>451</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>450</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>451</v>
       </c>
       <c r="E12" t="s">
         <v>451</v>
       </c>
       <c r="F12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G12" t="s">
         <v>452</v>
       </c>
       <c r="H12" t="s">
+        <v>452</v>
+      </c>
+      <c r="I12" t="s">
         <v>451</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>3</v>
       </c>
       <c r="B13" t="s">
         <v>448</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>451</v>
       </c>
       <c r="E13" t="s">
         <v>451</v>
@@ -58319,453 +59163,453 @@
       <c r="H13" t="s">
         <v>451</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="I13" t="s">
+        <v>451</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>95</v>
       </c>
       <c r="B14" t="s">
         <v>447</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>95</v>
       </c>
       <c r="B15" t="s">
         <v>449</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>95</v>
       </c>
       <c r="B16" t="s">
         <v>450</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>95</v>
       </c>
       <c r="B17" t="s">
         <v>448</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>49</v>
       </c>
       <c r="B18" t="s">
         <v>447</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>49</v>
       </c>
       <c r="B19" t="s">
         <v>449</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>49</v>
       </c>
       <c r="B20" t="s">
         <v>450</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>49</v>
       </c>
       <c r="B21" t="s">
         <v>448</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>50</v>
       </c>
       <c r="B22" t="s">
         <v>447</v>
       </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>50</v>
       </c>
       <c r="B23" t="s">
         <v>449</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>50</v>
       </c>
       <c r="B24" t="s">
         <v>450</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>50</v>
       </c>
       <c r="B25" t="s">
         <v>448</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>53</v>
       </c>
       <c r="B26" t="s">
         <v>447</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>26</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>53</v>
       </c>
       <c r="B27" t="s">
         <v>449</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>53</v>
       </c>
       <c r="B28" t="s">
         <v>450</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>53</v>
       </c>
       <c r="B29" t="s">
         <v>448</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>94</v>
       </c>
       <c r="B30" t="s">
         <v>447</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>94</v>
       </c>
       <c r="B31" t="s">
         <v>449</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>94</v>
       </c>
       <c r="B32" t="s">
         <v>450</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>94</v>
       </c>
       <c r="B33" t="s">
         <v>448</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>97</v>
       </c>
       <c r="B34" t="s">
         <v>447</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>97</v>
       </c>
       <c r="B35" t="s">
         <v>449</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>97</v>
       </c>
       <c r="B36" t="s">
         <v>450</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>97</v>
       </c>
       <c r="B37" t="s">
         <v>448</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>98</v>
       </c>
       <c r="B38" t="s">
         <v>447</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>98</v>
       </c>
       <c r="B39" t="s">
         <v>449</v>
       </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>98</v>
       </c>
       <c r="B40" t="s">
         <v>450</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>98</v>
       </c>
       <c r="B41" t="s">
         <v>448</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>99</v>
       </c>
       <c r="B42" t="s">
         <v>447</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>99</v>
       </c>
       <c r="B43" t="s">
         <v>449</v>
       </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>99</v>
       </c>
       <c r="B44" t="s">
         <v>450</v>
       </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>99</v>
       </c>
       <c r="B45" t="s">
         <v>448</v>
       </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>96</v>
       </c>
       <c r="B46" t="s">
         <v>447</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>96</v>
       </c>
       <c r="B47" t="s">
         <v>449</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>96</v>
       </c>
       <c r="B48" t="s">
         <v>450</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>96</v>
       </c>
       <c r="B49" t="s">
         <v>448</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>39</v>
       </c>
       <c r="B50" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>39</v>
       </c>
       <c r="B51" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>39</v>
       </c>
       <c r="B52" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>39</v>
       </c>
       <c r="B53" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>51</v>
       </c>
       <c r="B54" t="s">
         <v>447</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>2</v>
-      </c>
-      <c r="D54" t="s">
-        <v>451</v>
       </c>
       <c r="E54" t="s">
         <v>451</v>
@@ -58779,22 +59623,22 @@
       <c r="H54" t="s">
         <v>451</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I54" t="s">
+        <v>451</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>51</v>
       </c>
       <c r="B55" t="s">
         <v>449</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>1</v>
-      </c>
-      <c r="D55" t="s">
-        <v>451</v>
       </c>
       <c r="E55" t="s">
         <v>451</v>
@@ -58808,22 +59652,22 @@
       <c r="H55" t="s">
         <v>451</v>
       </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I55" t="s">
+        <v>451</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>51</v>
       </c>
       <c r="B56" t="s">
         <v>450</v>
       </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56" t="s">
-        <v>488</v>
+      <c r="D56">
+        <v>0</v>
       </c>
       <c r="E56" t="s">
         <v>488</v>
@@ -58840,19 +59684,19 @@
       <c r="I56" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J56" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>51</v>
       </c>
       <c r="B57" t="s">
         <v>448</v>
       </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57" t="s">
-        <v>488</v>
+      <c r="D57">
+        <v>0</v>
       </c>
       <c r="E57" t="s">
         <v>488</v>
@@ -58869,19 +59713,19 @@
       <c r="I57" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J57" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>52</v>
       </c>
       <c r="B58" t="s">
         <v>447</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>4</v>
-      </c>
-      <c r="D58" t="s">
-        <v>451</v>
       </c>
       <c r="E58" t="s">
         <v>451</v>
@@ -58895,22 +59739,22 @@
       <c r="H58" t="s">
         <v>451</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I58" t="s">
+        <v>451</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>52</v>
       </c>
       <c r="B59" t="s">
         <v>449</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>1</v>
-      </c>
-      <c r="D59" t="s">
-        <v>451</v>
       </c>
       <c r="E59" t="s">
         <v>451</v>
@@ -58924,22 +59768,22 @@
       <c r="H59" t="s">
         <v>451</v>
       </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I59" t="s">
+        <v>451</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>52</v>
       </c>
       <c r="B60" t="s">
         <v>450</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>1</v>
-      </c>
-      <c r="D60" t="s">
-        <v>451</v>
       </c>
       <c r="E60" t="s">
         <v>451</v>
@@ -58953,51 +59797,51 @@
       <c r="H60" t="s">
         <v>451</v>
       </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I60" t="s">
+        <v>451</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>52</v>
       </c>
       <c r="B61" t="s">
         <v>448</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>3</v>
-      </c>
-      <c r="D61" t="s">
-        <v>451</v>
       </c>
       <c r="E61" t="s">
         <v>451</v>
       </c>
       <c r="F61" t="s">
+        <v>451</v>
+      </c>
+      <c r="G61" t="s">
         <v>452</v>
-      </c>
-      <c r="G61" t="s">
-        <v>451</v>
       </c>
       <c r="H61" t="s">
         <v>451</v>
       </c>
-      <c r="I61">
+      <c r="I61" t="s">
+        <v>451</v>
+      </c>
+      <c r="J61">
         <v>0.3</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>54</v>
       </c>
       <c r="B62" t="s">
         <v>447</v>
       </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62" t="s">
-        <v>488</v>
+      <c r="D62">
+        <v>0</v>
       </c>
       <c r="E62" t="s">
         <v>488</v>
@@ -59014,19 +59858,19 @@
       <c r="I62" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J62" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>54</v>
       </c>
       <c r="B63" t="s">
         <v>449</v>
       </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-      <c r="D63" t="s">
-        <v>488</v>
+      <c r="D63">
+        <v>0</v>
       </c>
       <c r="E63" t="s">
         <v>488</v>
@@ -59043,19 +59887,19 @@
       <c r="I63" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J63" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>54</v>
       </c>
       <c r="B64" t="s">
         <v>450</v>
       </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64" t="s">
-        <v>488</v>
+      <c r="D64">
+        <v>0</v>
       </c>
       <c r="E64" t="s">
         <v>488</v>
@@ -59072,19 +59916,19 @@
       <c r="I64" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J64" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>54</v>
       </c>
       <c r="B65" t="s">
         <v>448</v>
       </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65" t="s">
-        <v>488</v>
+      <c r="D65">
+        <v>0</v>
       </c>
       <c r="E65" t="s">
         <v>488</v>
@@ -59099,6 +59943,631 @@
         <v>488</v>
       </c>
       <c r="I65" t="s">
+        <v>488</v>
+      </c>
+      <c r="J65" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="6">
+        <v>39</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="D66" s="6">
+        <v>2</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="I66" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="J66" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>39</v>
+      </c>
+      <c r="B67" t="s">
+        <v>449</v>
+      </c>
+      <c r="C67" t="s">
+        <v>488</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>488</v>
+      </c>
+      <c r="F67" t="s">
+        <v>488</v>
+      </c>
+      <c r="G67" t="s">
+        <v>488</v>
+      </c>
+      <c r="H67" t="s">
+        <v>488</v>
+      </c>
+      <c r="I67" t="s">
+        <v>488</v>
+      </c>
+      <c r="J67" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>39</v>
+      </c>
+      <c r="B68" t="s">
+        <v>450</v>
+      </c>
+      <c r="C68" t="s">
+        <v>488</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>488</v>
+      </c>
+      <c r="F68" t="s">
+        <v>488</v>
+      </c>
+      <c r="G68" t="s">
+        <v>488</v>
+      </c>
+      <c r="H68" t="s">
+        <v>488</v>
+      </c>
+      <c r="I68" t="s">
+        <v>488</v>
+      </c>
+      <c r="J68" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>39</v>
+      </c>
+      <c r="B69" t="s">
+        <v>448</v>
+      </c>
+      <c r="C69" t="s">
+        <v>610</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>451</v>
+      </c>
+      <c r="F69" t="s">
+        <v>451</v>
+      </c>
+      <c r="G69" t="s">
+        <v>451</v>
+      </c>
+      <c r="H69" t="s">
+        <v>451</v>
+      </c>
+      <c r="I69" t="s">
+        <v>451</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>38</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C70" t="s">
+        <v>610</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70" t="s">
+        <v>451</v>
+      </c>
+      <c r="F70" t="s">
+        <v>451</v>
+      </c>
+      <c r="G70" t="s">
+        <v>451</v>
+      </c>
+      <c r="H70" t="s">
+        <v>451</v>
+      </c>
+      <c r="I70" t="s">
+        <v>451</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>38</v>
+      </c>
+      <c r="B71" t="s">
+        <v>449</v>
+      </c>
+      <c r="C71" t="s">
+        <v>611</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>451</v>
+      </c>
+      <c r="F71" t="s">
+        <v>451</v>
+      </c>
+      <c r="G71" t="s">
+        <v>451</v>
+      </c>
+      <c r="H71" t="s">
+        <v>451</v>
+      </c>
+      <c r="I71" t="s">
+        <v>451</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>38</v>
+      </c>
+      <c r="B72" t="s">
+        <v>450</v>
+      </c>
+      <c r="C72" t="s">
+        <v>611</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>451</v>
+      </c>
+      <c r="F72" t="s">
+        <v>451</v>
+      </c>
+      <c r="G72" t="s">
+        <v>451</v>
+      </c>
+      <c r="H72" t="s">
+        <v>451</v>
+      </c>
+      <c r="I72" t="s">
+        <v>451</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>38</v>
+      </c>
+      <c r="B73" t="s">
+        <v>448</v>
+      </c>
+      <c r="C73" t="s">
+        <v>504</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>451</v>
+      </c>
+      <c r="F73" t="s">
+        <v>451</v>
+      </c>
+      <c r="G73" t="s">
+        <v>451</v>
+      </c>
+      <c r="H73" t="s">
+        <v>452</v>
+      </c>
+      <c r="I73" t="s">
+        <v>451</v>
+      </c>
+      <c r="J73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>37</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C74" t="s">
+        <v>488</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>488</v>
+      </c>
+      <c r="F74" t="s">
+        <v>488</v>
+      </c>
+      <c r="G74" t="s">
+        <v>488</v>
+      </c>
+      <c r="H74" t="s">
+        <v>488</v>
+      </c>
+      <c r="I74" t="s">
+        <v>488</v>
+      </c>
+      <c r="J74" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>37</v>
+      </c>
+      <c r="B75" t="s">
+        <v>449</v>
+      </c>
+      <c r="C75" t="s">
+        <v>504</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>451</v>
+      </c>
+      <c r="F75" t="s">
+        <v>451</v>
+      </c>
+      <c r="G75" t="s">
+        <v>451</v>
+      </c>
+      <c r="H75" t="s">
+        <v>451</v>
+      </c>
+      <c r="I75" t="s">
+        <v>451</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>37</v>
+      </c>
+      <c r="B76" t="s">
+        <v>450</v>
+      </c>
+      <c r="C76" t="s">
+        <v>610</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76" t="s">
+        <v>451</v>
+      </c>
+      <c r="F76" t="s">
+        <v>451</v>
+      </c>
+      <c r="G76" t="s">
+        <v>452</v>
+      </c>
+      <c r="H76" t="s">
+        <v>451</v>
+      </c>
+      <c r="I76" t="s">
+        <v>451</v>
+      </c>
+      <c r="J76">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>37</v>
+      </c>
+      <c r="B77" t="s">
+        <v>448</v>
+      </c>
+      <c r="C77" t="s">
+        <v>504</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>451</v>
+      </c>
+      <c r="F77" t="s">
+        <v>451</v>
+      </c>
+      <c r="G77" t="s">
+        <v>451</v>
+      </c>
+      <c r="H77" t="s">
+        <v>451</v>
+      </c>
+      <c r="I77" t="s">
+        <v>451</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>25</v>
+      </c>
+      <c r="B78" t="s">
+        <v>447</v>
+      </c>
+      <c r="C78" t="s">
+        <v>504</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>451</v>
+      </c>
+      <c r="F78" t="s">
+        <v>451</v>
+      </c>
+      <c r="G78" t="s">
+        <v>451</v>
+      </c>
+      <c r="H78" t="s">
+        <v>451</v>
+      </c>
+      <c r="I78" t="s">
+        <v>451</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>25</v>
+      </c>
+      <c r="B79" t="s">
+        <v>449</v>
+      </c>
+      <c r="C79" t="s">
+        <v>611</v>
+      </c>
+      <c r="D79">
+        <v>8</v>
+      </c>
+      <c r="E79" t="s">
+        <v>451</v>
+      </c>
+      <c r="F79" t="s">
+        <v>452</v>
+      </c>
+      <c r="G79" t="s">
+        <v>452</v>
+      </c>
+      <c r="H79" t="s">
+        <v>451</v>
+      </c>
+      <c r="I79" t="s">
+        <v>452</v>
+      </c>
+      <c r="J79">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>25</v>
+      </c>
+      <c r="B80" t="s">
+        <v>450</v>
+      </c>
+      <c r="C80" t="s">
+        <v>611</v>
+      </c>
+      <c r="D80">
+        <v>12</v>
+      </c>
+      <c r="E80" t="s">
+        <v>451</v>
+      </c>
+      <c r="F80" t="s">
+        <v>451</v>
+      </c>
+      <c r="G80" t="s">
+        <v>452</v>
+      </c>
+      <c r="H80" t="s">
+        <v>452</v>
+      </c>
+      <c r="I80" t="s">
+        <v>452</v>
+      </c>
+      <c r="J80">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>25</v>
+      </c>
+      <c r="B81" t="s">
+        <v>448</v>
+      </c>
+      <c r="C81" t="s">
+        <v>611</v>
+      </c>
+      <c r="D81">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>57</v>
+      </c>
+      <c r="B82" t="s">
+        <v>447</v>
+      </c>
+      <c r="C82" t="s">
+        <v>486</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>451</v>
+      </c>
+      <c r="F82" t="s">
+        <v>451</v>
+      </c>
+      <c r="G82" t="s">
+        <v>451</v>
+      </c>
+      <c r="H82" t="s">
+        <v>451</v>
+      </c>
+      <c r="I82" t="s">
+        <v>451</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>57</v>
+      </c>
+      <c r="B83" t="s">
+        <v>449</v>
+      </c>
+      <c r="C83" t="s">
+        <v>488</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83" t="s">
+        <v>488</v>
+      </c>
+      <c r="F83" t="s">
+        <v>488</v>
+      </c>
+      <c r="G83" t="s">
+        <v>488</v>
+      </c>
+      <c r="H83" t="s">
+        <v>488</v>
+      </c>
+      <c r="I83" t="s">
+        <v>488</v>
+      </c>
+      <c r="J83" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>57</v>
+      </c>
+      <c r="B84" t="s">
+        <v>450</v>
+      </c>
+      <c r="C84" t="s">
+        <v>488</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84" t="s">
+        <v>488</v>
+      </c>
+      <c r="F84" t="s">
+        <v>488</v>
+      </c>
+      <c r="G84" t="s">
+        <v>488</v>
+      </c>
+      <c r="H84" t="s">
+        <v>488</v>
+      </c>
+      <c r="I84" t="s">
+        <v>488</v>
+      </c>
+      <c r="J84" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>57</v>
+      </c>
+      <c r="B85" t="s">
+        <v>448</v>
+      </c>
+      <c r="C85" t="s">
+        <v>488</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" t="s">
+        <v>488</v>
+      </c>
+      <c r="F85" t="s">
+        <v>488</v>
+      </c>
+      <c r="G85" t="s">
+        <v>488</v>
+      </c>
+      <c r="H85" t="s">
+        <v>488</v>
+      </c>
+      <c r="I85" t="s">
+        <v>488</v>
+      </c>
+      <c r="J85" t="s">
         <v>488</v>
       </c>
     </row>
@@ -59109,17 +60578,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA95277-679F-4206-8ACD-7B30D3EACF40}">
-  <dimension ref="A1:S74"/>
+  <dimension ref="A1:T113"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" customWidth="1"/>
     <col min="6" max="6" width="8" customWidth="1"/>
+    <col min="20" max="20" width="47.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="1" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.35">
@@ -59139,7 +60610,7 @@
         <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>453</v>
@@ -59245,7 +60716,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C3" t="s">
         <v>450</v>
@@ -59292,7 +60763,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C4" t="s">
         <v>449</v>
@@ -59784,7 +61255,7 @@
         <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C13" t="s">
         <v>447</v>
@@ -59840,7 +61311,7 @@
         <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C14" t="s">
         <v>447</v>
@@ -59896,7 +61367,7 @@
         <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C15" t="s">
         <v>447</v>
@@ -59952,7 +61423,7 @@
         <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C16" t="s">
         <v>450</v>
@@ -60011,7 +61482,7 @@
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C17" t="s">
         <v>449</v>
@@ -60070,7 +61541,7 @@
         <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C18" t="s">
         <v>450</v>
@@ -60126,7 +61597,7 @@
         <v>53</v>
       </c>
       <c r="B19" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C19" t="s">
         <v>450</v>
@@ -60179,7 +61650,7 @@
         <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C20" t="s">
         <v>450</v>
@@ -60229,7 +61700,7 @@
         <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C21" t="s">
         <v>450</v>
@@ -60282,7 +61753,7 @@
         <v>53</v>
       </c>
       <c r="B22" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C22" t="s">
         <v>450</v>
@@ -60338,7 +61809,7 @@
         <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C23" t="s">
         <v>448</v>
@@ -60388,7 +61859,7 @@
         <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C24" t="s">
         <v>448</v>
@@ -60444,7 +61915,7 @@
         <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C25" t="s">
         <v>448</v>
@@ -60497,7 +61968,7 @@
         <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C26" t="s">
         <v>448</v>
@@ -60550,7 +62021,7 @@
         <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C27" t="s">
         <v>448</v>
@@ -60603,7 +62074,7 @@
         <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C28" t="s">
         <v>448</v>
@@ -60656,7 +62127,7 @@
         <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C29" t="s">
         <v>448</v>
@@ -60706,7 +62177,7 @@
         <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C30" t="s">
         <v>448</v>
@@ -60759,7 +62230,7 @@
         <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C31" t="s">
         <v>448</v>
@@ -60815,7 +62286,7 @@
         <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C32" t="s">
         <v>448</v>
@@ -60868,7 +62339,7 @@
         <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C33" t="s">
         <v>448</v>
@@ -60921,7 +62392,7 @@
         <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C34" t="s">
         <v>448</v>
@@ -60974,7 +62445,7 @@
         <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C35" t="s">
         <v>448</v>
@@ -61027,7 +62498,7 @@
         <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C36" t="s">
         <v>448</v>
@@ -61080,7 +62551,7 @@
         <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C37" t="s">
         <v>448</v>
@@ -61133,7 +62604,7 @@
         <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C38" t="s">
         <v>448</v>
@@ -61189,7 +62660,7 @@
         <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C39" t="s">
         <v>448</v>
@@ -61245,7 +62716,7 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C40" t="s">
         <v>448</v>
@@ -61301,7 +62772,7 @@
         <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C41" t="s">
         <v>448</v>
@@ -61354,7 +62825,7 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C42" t="s">
         <v>448</v>
@@ -61407,7 +62878,7 @@
         <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C43" t="s">
         <v>448</v>
@@ -61460,7 +62931,7 @@
         <v>53</v>
       </c>
       <c r="B44" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C44" t="s">
         <v>448</v>
@@ -61513,7 +62984,7 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C45" t="s">
         <v>448</v>
@@ -61566,7 +63037,7 @@
         <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C46" t="s">
         <v>448</v>
@@ -61619,7 +63090,7 @@
         <v>53</v>
       </c>
       <c r="B47" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C47" t="s">
         <v>448</v>
@@ -61675,7 +63146,7 @@
         <v>53</v>
       </c>
       <c r="B48" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C48" t="s">
         <v>448</v>
@@ -61823,7 +63294,7 @@
         <v>0</v>
       </c>
       <c r="S50" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.35">
@@ -61881,7 +63352,7 @@
         <v>39</v>
       </c>
       <c r="B52" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C52" t="s">
         <v>447</v>
@@ -61926,7 +63397,7 @@
         <v>0</v>
       </c>
       <c r="S52" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.35">
@@ -61979,7 +63450,7 @@
         <v>0</v>
       </c>
       <c r="S53" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
@@ -62182,7 +63653,7 @@
         <v>0</v>
       </c>
       <c r="S57" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.35">
@@ -62190,7 +63661,7 @@
         <v>39</v>
       </c>
       <c r="B58" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C58" t="s">
         <v>447</v>
@@ -62290,7 +63761,7 @@
         <v>39</v>
       </c>
       <c r="B60" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C60" t="s">
         <v>447</v>
@@ -62338,7 +63809,7 @@
         <v>0</v>
       </c>
       <c r="S60" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.35">
@@ -62446,7 +63917,7 @@
         <v>39</v>
       </c>
       <c r="B63" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C63" t="s">
         <v>447</v>
@@ -62491,7 +63962,7 @@
         <v>0</v>
       </c>
       <c r="S63" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.35">
@@ -62694,7 +64165,7 @@
         <v>0</v>
       </c>
       <c r="S67" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.35">
@@ -62752,7 +64223,7 @@
         <v>39</v>
       </c>
       <c r="B69" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C69" t="s">
         <v>447</v>
@@ -62925,7 +64396,7 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="F73" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H73">
         <v>1.7</v>
@@ -62963,16 +64434,1756 @@
         <v>54</v>
       </c>
       <c r="B74" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C74" t="s">
         <v>447</v>
       </c>
       <c r="F74" t="s">
-        <v>546</v>
-      </c>
-    </row>
+        <v>545</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="6">
+        <v>39</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D75" s="6">
+        <v>76</v>
+      </c>
+      <c r="E75" s="6">
+        <v>1</v>
+      </c>
+      <c r="H75" s="6">
+        <v>6.2</v>
+      </c>
+      <c r="I75" s="6">
+        <v>1</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="M75" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="N75" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="O75" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q75" s="6">
+        <v>0</v>
+      </c>
+      <c r="R75" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>39</v>
+      </c>
+      <c r="B76" t="s">
+        <v>504</v>
+      </c>
+      <c r="C76" t="s">
+        <v>447</v>
+      </c>
+      <c r="D76">
+        <v>8</v>
+      </c>
+      <c r="E76">
+        <v>1.59</v>
+      </c>
+      <c r="H76">
+        <v>8</v>
+      </c>
+      <c r="I76">
+        <v>5</v>
+      </c>
+      <c r="J76" t="s">
+        <v>189</v>
+      </c>
+      <c r="K76" t="s">
+        <v>451</v>
+      </c>
+      <c r="L76" t="s">
+        <v>452</v>
+      </c>
+      <c r="M76" t="s">
+        <v>451</v>
+      </c>
+      <c r="N76" t="s">
+        <v>452</v>
+      </c>
+      <c r="O76" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="R76">
+        <v>1</v>
+      </c>
+      <c r="S76" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>39</v>
+      </c>
+      <c r="B77" t="s">
+        <v>504</v>
+      </c>
+      <c r="C77" t="s">
+        <v>447</v>
+      </c>
+      <c r="D77">
+        <v>25</v>
+      </c>
+      <c r="E77">
+        <v>5.22</v>
+      </c>
+      <c r="H77">
+        <v>3</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77" t="s">
+        <v>189</v>
+      </c>
+      <c r="K77" t="s">
+        <v>451</v>
+      </c>
+      <c r="L77" t="s">
+        <v>451</v>
+      </c>
+      <c r="M77" t="s">
+        <v>451</v>
+      </c>
+      <c r="N77" t="s">
+        <v>451</v>
+      </c>
+      <c r="O77" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>39</v>
+      </c>
+      <c r="B78" t="s">
+        <v>504</v>
+      </c>
+      <c r="C78" t="s">
+        <v>447</v>
+      </c>
+      <c r="D78">
+        <v>25</v>
+      </c>
+      <c r="E78">
+        <v>5.22</v>
+      </c>
+      <c r="H78">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I78">
+        <v>5</v>
+      </c>
+      <c r="J78" t="s">
+        <v>98</v>
+      </c>
+      <c r="K78" t="s">
+        <v>452</v>
+      </c>
+      <c r="L78" t="s">
+        <v>452</v>
+      </c>
+      <c r="M78" t="s">
+        <v>452</v>
+      </c>
+      <c r="N78" t="s">
+        <v>452</v>
+      </c>
+      <c r="O78" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q78">
+        <v>1</v>
+      </c>
+      <c r="R78">
+        <v>4</v>
+      </c>
+      <c r="S78" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>39</v>
+      </c>
+      <c r="B79" t="s">
+        <v>504</v>
+      </c>
+      <c r="C79" t="s">
+        <v>447</v>
+      </c>
+      <c r="D79">
+        <v>29</v>
+      </c>
+      <c r="E79">
+        <v>11.3</v>
+      </c>
+      <c r="F79" t="s">
+        <v>617</v>
+      </c>
+      <c r="H79">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="K79" t="s">
+        <v>451</v>
+      </c>
+      <c r="L79" t="s">
+        <v>451</v>
+      </c>
+      <c r="M79" t="s">
+        <v>451</v>
+      </c>
+      <c r="N79" t="s">
+        <v>451</v>
+      </c>
+      <c r="O79" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>39</v>
+      </c>
+      <c r="B80" t="s">
+        <v>504</v>
+      </c>
+      <c r="C80" t="s">
+        <v>449</v>
+      </c>
+      <c r="D80">
+        <v>135</v>
+      </c>
+      <c r="E80">
+        <v>7.07</v>
+      </c>
+      <c r="H80">
+        <v>8</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80" t="s">
+        <v>98</v>
+      </c>
+      <c r="K80" t="s">
+        <v>451</v>
+      </c>
+      <c r="L80" t="s">
+        <v>451</v>
+      </c>
+      <c r="M80" t="s">
+        <v>451</v>
+      </c>
+      <c r="N80" t="s">
+        <v>451</v>
+      </c>
+      <c r="O80" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q80">
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>39</v>
+      </c>
+      <c r="B81" t="s">
+        <v>504</v>
+      </c>
+      <c r="C81" t="s">
+        <v>450</v>
+      </c>
+      <c r="D81">
+        <v>187</v>
+      </c>
+      <c r="E81">
+        <v>6.91</v>
+      </c>
+      <c r="H81">
+        <v>2.5</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>189</v>
+      </c>
+      <c r="K81" t="s">
+        <v>451</v>
+      </c>
+      <c r="L81" t="s">
+        <v>451</v>
+      </c>
+      <c r="M81" t="s">
+        <v>451</v>
+      </c>
+      <c r="N81" t="s">
+        <v>451</v>
+      </c>
+      <c r="O81" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>39</v>
+      </c>
+      <c r="B82" t="s">
+        <v>504</v>
+      </c>
+      <c r="C82" t="s">
+        <v>450</v>
+      </c>
+      <c r="D82">
+        <v>208</v>
+      </c>
+      <c r="E82">
+        <v>6.4</v>
+      </c>
+      <c r="H82">
+        <v>3.5</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82" t="s">
+        <v>39</v>
+      </c>
+      <c r="K82" t="s">
+        <v>451</v>
+      </c>
+      <c r="L82" t="s">
+        <v>451</v>
+      </c>
+      <c r="M82" t="s">
+        <v>451</v>
+      </c>
+      <c r="N82" t="s">
+        <v>452</v>
+      </c>
+      <c r="O82" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q82">
+        <v>0</v>
+      </c>
+      <c r="R82">
+        <v>0</v>
+      </c>
+      <c r="S82" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" ht="130" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>39</v>
+      </c>
+      <c r="B83" t="s">
+        <v>504</v>
+      </c>
+      <c r="C83" t="s">
+        <v>450</v>
+      </c>
+      <c r="D83">
+        <v>238</v>
+      </c>
+      <c r="E83">
+        <v>5.09</v>
+      </c>
+      <c r="F83" t="s">
+        <v>619</v>
+      </c>
+      <c r="H83">
+        <v>7.9</v>
+      </c>
+      <c r="I83">
+        <v>5</v>
+      </c>
+      <c r="J83" t="s">
+        <v>189</v>
+      </c>
+      <c r="K83" t="s">
+        <v>451</v>
+      </c>
+      <c r="L83" t="s">
+        <v>452</v>
+      </c>
+      <c r="M83" t="s">
+        <v>452</v>
+      </c>
+      <c r="N83" t="s">
+        <v>452</v>
+      </c>
+      <c r="P83" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>3</v>
+      </c>
+      <c r="S83" t="s">
+        <v>620</v>
+      </c>
+      <c r="T83" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>39</v>
+      </c>
+      <c r="B84" t="s">
+        <v>504</v>
+      </c>
+      <c r="C84" t="s">
+        <v>450</v>
+      </c>
+      <c r="D84">
+        <v>260</v>
+      </c>
+      <c r="E84">
+        <v>4.05</v>
+      </c>
+      <c r="H84">
+        <v>4.2</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84" t="s">
+        <v>189</v>
+      </c>
+      <c r="K84" t="s">
+        <v>451</v>
+      </c>
+      <c r="L84" t="s">
+        <v>451</v>
+      </c>
+      <c r="M84" t="s">
+        <v>451</v>
+      </c>
+      <c r="N84" t="s">
+        <v>452</v>
+      </c>
+      <c r="O84" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>39</v>
+      </c>
+      <c r="B85" t="s">
+        <v>504</v>
+      </c>
+      <c r="C85" t="s">
+        <v>450</v>
+      </c>
+      <c r="D85">
+        <v>260</v>
+      </c>
+      <c r="E85">
+        <v>6.17</v>
+      </c>
+      <c r="H85">
+        <v>5.4</v>
+      </c>
+      <c r="I85">
+        <v>2</v>
+      </c>
+      <c r="J85" t="s">
+        <v>98</v>
+      </c>
+      <c r="K85" t="s">
+        <v>451</v>
+      </c>
+      <c r="L85" t="s">
+        <v>451</v>
+      </c>
+      <c r="M85" t="s">
+        <v>452</v>
+      </c>
+      <c r="N85" t="s">
+        <v>452</v>
+      </c>
+      <c r="O85" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="R85">
+        <v>0</v>
+      </c>
+      <c r="S85" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>39</v>
+      </c>
+      <c r="B86" t="s">
+        <v>504</v>
+      </c>
+      <c r="C86" t="s">
+        <v>448</v>
+      </c>
+      <c r="D86">
+        <v>313</v>
+      </c>
+      <c r="E86">
+        <v>4.67</v>
+      </c>
+      <c r="H86">
+        <v>4.7</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86" t="s">
+        <v>189</v>
+      </c>
+      <c r="K86" t="s">
+        <v>451</v>
+      </c>
+      <c r="L86" t="s">
+        <v>451</v>
+      </c>
+      <c r="M86" t="s">
+        <v>451</v>
+      </c>
+      <c r="N86" t="s">
+        <v>452</v>
+      </c>
+      <c r="O86" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="R86">
+        <v>0</v>
+      </c>
+      <c r="S86" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>39</v>
+      </c>
+      <c r="B87" t="s">
+        <v>504</v>
+      </c>
+      <c r="C87" t="s">
+        <v>448</v>
+      </c>
+      <c r="D87">
+        <v>329</v>
+      </c>
+      <c r="E87">
+        <v>3.54</v>
+      </c>
+      <c r="H87">
+        <v>5.5</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87" t="s">
+        <v>189</v>
+      </c>
+      <c r="K87" t="s">
+        <v>451</v>
+      </c>
+      <c r="L87" t="s">
+        <v>451</v>
+      </c>
+      <c r="M87" t="s">
+        <v>451</v>
+      </c>
+      <c r="N87" t="s">
+        <v>452</v>
+      </c>
+      <c r="O87" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="R87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>39</v>
+      </c>
+      <c r="B88" t="s">
+        <v>504</v>
+      </c>
+      <c r="C88" t="s">
+        <v>448</v>
+      </c>
+      <c r="D88">
+        <v>336</v>
+      </c>
+      <c r="E88">
+        <v>7.42</v>
+      </c>
+      <c r="H88">
+        <v>4.5</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88" t="s">
+        <v>39</v>
+      </c>
+      <c r="K88" t="s">
+        <v>451</v>
+      </c>
+      <c r="L88" t="s">
+        <v>451</v>
+      </c>
+      <c r="M88" t="s">
+        <v>451</v>
+      </c>
+      <c r="N88" t="s">
+        <v>452</v>
+      </c>
+      <c r="O88" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="R88">
+        <v>0</v>
+      </c>
+      <c r="S88" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>39</v>
+      </c>
+      <c r="B89" t="s">
+        <v>504</v>
+      </c>
+      <c r="C89" t="s">
+        <v>448</v>
+      </c>
+      <c r="D89">
+        <v>333</v>
+      </c>
+      <c r="E89">
+        <v>5.87</v>
+      </c>
+      <c r="H89">
+        <v>4.5</v>
+      </c>
+      <c r="I89">
+        <v>5</v>
+      </c>
+      <c r="J89" t="s">
+        <v>189</v>
+      </c>
+      <c r="K89" t="s">
+        <v>451</v>
+      </c>
+      <c r="L89" t="s">
+        <v>451</v>
+      </c>
+      <c r="M89" t="s">
+        <v>452</v>
+      </c>
+      <c r="N89" t="s">
+        <v>452</v>
+      </c>
+      <c r="O89" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="R89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>39</v>
+      </c>
+      <c r="B90" t="s">
+        <v>504</v>
+      </c>
+      <c r="C90" t="s">
+        <v>448</v>
+      </c>
+      <c r="D90">
+        <v>353</v>
+      </c>
+      <c r="E90">
+        <v>6.47</v>
+      </c>
+      <c r="H90">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I90">
+        <v>3</v>
+      </c>
+      <c r="J90" t="s">
+        <v>189</v>
+      </c>
+      <c r="K90" t="s">
+        <v>452</v>
+      </c>
+      <c r="L90" t="s">
+        <v>451</v>
+      </c>
+      <c r="M90" t="s">
+        <v>452</v>
+      </c>
+      <c r="N90" t="s">
+        <v>452</v>
+      </c>
+      <c r="O90" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>0</v>
+      </c>
+      <c r="S90" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>39</v>
+      </c>
+      <c r="B91" t="s">
+        <v>504</v>
+      </c>
+      <c r="C91" t="s">
+        <v>448</v>
+      </c>
+      <c r="D91">
+        <v>296</v>
+      </c>
+      <c r="E91">
+        <v>14</v>
+      </c>
+      <c r="H91">
+        <v>11.5</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91" t="s">
+        <v>98</v>
+      </c>
+      <c r="K91" t="s">
+        <v>451</v>
+      </c>
+      <c r="L91" t="s">
+        <v>451</v>
+      </c>
+      <c r="M91" t="s">
+        <v>451</v>
+      </c>
+      <c r="N91" t="s">
+        <v>451</v>
+      </c>
+      <c r="O91" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="6">
+        <v>38</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D92" s="6">
+        <v>10</v>
+      </c>
+      <c r="E92" s="6">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H92" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I92" s="6">
+        <v>1</v>
+      </c>
+      <c r="J92" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K92" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="L92" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="M92" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="N92" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="O92" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q92" s="6">
+        <v>0</v>
+      </c>
+      <c r="R92" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>38</v>
+      </c>
+      <c r="B93" t="s">
+        <v>624</v>
+      </c>
+      <c r="C93" t="s">
+        <v>448</v>
+      </c>
+      <c r="D93">
+        <v>358</v>
+      </c>
+      <c r="E93">
+        <v>2.38</v>
+      </c>
+      <c r="H93">
+        <v>3.1</v>
+      </c>
+      <c r="I93">
+        <v>2</v>
+      </c>
+      <c r="J93" t="s">
+        <v>189</v>
+      </c>
+      <c r="K93" t="s">
+        <v>451</v>
+      </c>
+      <c r="L93" t="s">
+        <v>451</v>
+      </c>
+      <c r="M93" t="s">
+        <v>452</v>
+      </c>
+      <c r="N93" t="s">
+        <v>451</v>
+      </c>
+      <c r="O93" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q93">
+        <v>0</v>
+      </c>
+      <c r="R93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>38</v>
+      </c>
+      <c r="B94" t="s">
+        <v>504</v>
+      </c>
+      <c r="C94" t="s">
+        <v>447</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="E94">
+        <v>7.82</v>
+      </c>
+      <c r="H94">
+        <v>3.4</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94" t="s">
+        <v>189</v>
+      </c>
+      <c r="K94" t="s">
+        <v>451</v>
+      </c>
+      <c r="L94" t="s">
+        <v>451</v>
+      </c>
+      <c r="M94" t="s">
+        <v>451</v>
+      </c>
+      <c r="N94" t="s">
+        <v>452</v>
+      </c>
+      <c r="O94" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="R94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>38</v>
+      </c>
+      <c r="B95" t="s">
+        <v>504</v>
+      </c>
+      <c r="C95" t="s">
+        <v>447</v>
+      </c>
+      <c r="D95">
+        <v>35</v>
+      </c>
+      <c r="E95">
+        <v>7.89</v>
+      </c>
+      <c r="H95">
+        <v>5</v>
+      </c>
+      <c r="I95">
+        <v>5</v>
+      </c>
+      <c r="J95" t="s">
+        <v>189</v>
+      </c>
+      <c r="K95" t="s">
+        <v>451</v>
+      </c>
+      <c r="L95" t="s">
+        <v>452</v>
+      </c>
+      <c r="M95" t="s">
+        <v>452</v>
+      </c>
+      <c r="N95" t="s">
+        <v>452</v>
+      </c>
+      <c r="O95" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="R95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>38</v>
+      </c>
+      <c r="B96" t="s">
+        <v>504</v>
+      </c>
+      <c r="C96" t="s">
+        <v>447</v>
+      </c>
+      <c r="D96">
+        <v>84</v>
+      </c>
+      <c r="E96">
+        <v>7.47</v>
+      </c>
+      <c r="H96">
+        <v>5.9</v>
+      </c>
+      <c r="I96">
+        <v>5</v>
+      </c>
+      <c r="J96" t="s">
+        <v>189</v>
+      </c>
+      <c r="K96" t="s">
+        <v>451</v>
+      </c>
+      <c r="L96" t="s">
+        <v>451</v>
+      </c>
+      <c r="M96" t="s">
+        <v>452</v>
+      </c>
+      <c r="N96" t="s">
+        <v>452</v>
+      </c>
+      <c r="O96" t="s">
+        <v>452</v>
+      </c>
+      <c r="P96" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="R96">
+        <v>0</v>
+      </c>
+      <c r="S96" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>38</v>
+      </c>
+      <c r="B97" t="s">
+        <v>504</v>
+      </c>
+      <c r="C97" t="s">
+        <v>449</v>
+      </c>
+      <c r="D97">
+        <v>111</v>
+      </c>
+      <c r="E97">
+        <v>5.76</v>
+      </c>
+      <c r="H97">
+        <v>3.6</v>
+      </c>
+      <c r="I97">
+        <v>5</v>
+      </c>
+      <c r="J97" t="s">
+        <v>189</v>
+      </c>
+      <c r="K97" t="s">
+        <v>451</v>
+      </c>
+      <c r="L97" t="s">
+        <v>451</v>
+      </c>
+      <c r="M97" t="s">
+        <v>452</v>
+      </c>
+      <c r="N97" t="s">
+        <v>452</v>
+      </c>
+      <c r="O97" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="R97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>38</v>
+      </c>
+      <c r="B98" t="s">
+        <v>504</v>
+      </c>
+      <c r="C98" t="s">
+        <v>449</v>
+      </c>
+      <c r="D98">
+        <v>111</v>
+      </c>
+      <c r="E98">
+        <v>5.76</v>
+      </c>
+      <c r="H98">
+        <v>3.6</v>
+      </c>
+      <c r="I98">
+        <v>5</v>
+      </c>
+      <c r="J98" t="s">
+        <v>189</v>
+      </c>
+      <c r="K98" t="s">
+        <v>452</v>
+      </c>
+      <c r="L98" t="s">
+        <v>452</v>
+      </c>
+      <c r="M98" t="s">
+        <v>452</v>
+      </c>
+      <c r="N98" t="s">
+        <v>451</v>
+      </c>
+      <c r="O98" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="R98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>38</v>
+      </c>
+      <c r="B99" t="s">
+        <v>504</v>
+      </c>
+      <c r="C99" t="s">
+        <v>449</v>
+      </c>
+      <c r="D99">
+        <v>135</v>
+      </c>
+      <c r="E99">
+        <v>5.92</v>
+      </c>
+      <c r="H99">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99" t="s">
+        <v>189</v>
+      </c>
+      <c r="K99" t="s">
+        <v>451</v>
+      </c>
+      <c r="L99" t="s">
+        <v>451</v>
+      </c>
+      <c r="M99" t="s">
+        <v>451</v>
+      </c>
+      <c r="N99" t="s">
+        <v>451</v>
+      </c>
+      <c r="O99" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>38</v>
+      </c>
+      <c r="B100" t="s">
+        <v>504</v>
+      </c>
+      <c r="C100" t="s">
+        <v>449</v>
+      </c>
+      <c r="D100">
+        <v>148</v>
+      </c>
+      <c r="E100">
+        <v>4.93</v>
+      </c>
+      <c r="H100">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100" t="s">
+        <v>189</v>
+      </c>
+      <c r="K100" t="s">
+        <v>451</v>
+      </c>
+      <c r="L100" t="s">
+        <v>451</v>
+      </c>
+      <c r="M100" t="s">
+        <v>452</v>
+      </c>
+      <c r="N100" t="s">
+        <v>452</v>
+      </c>
+      <c r="O100" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>38</v>
+      </c>
+      <c r="B101" t="s">
+        <v>504</v>
+      </c>
+      <c r="C101" t="s">
+        <v>449</v>
+      </c>
+      <c r="D101">
+        <v>146</v>
+      </c>
+      <c r="E101">
+        <v>7.52</v>
+      </c>
+      <c r="H101">
+        <v>4</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101" t="s">
+        <v>189</v>
+      </c>
+      <c r="K101" t="s">
+        <v>451</v>
+      </c>
+      <c r="L101" t="s">
+        <v>451</v>
+      </c>
+      <c r="M101" t="s">
+        <v>451</v>
+      </c>
+      <c r="N101" t="s">
+        <v>452</v>
+      </c>
+      <c r="O101" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q101">
+        <v>0</v>
+      </c>
+      <c r="R101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>38</v>
+      </c>
+      <c r="B102" t="s">
+        <v>504</v>
+      </c>
+      <c r="C102" t="s">
+        <v>449</v>
+      </c>
+      <c r="D102">
+        <v>172</v>
+      </c>
+      <c r="E102">
+        <v>3.36</v>
+      </c>
+      <c r="H102">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102" t="s">
+        <v>189</v>
+      </c>
+      <c r="K102" t="s">
+        <v>451</v>
+      </c>
+      <c r="L102" t="s">
+        <v>451</v>
+      </c>
+      <c r="M102" t="s">
+        <v>451</v>
+      </c>
+      <c r="N102" t="s">
+        <v>451</v>
+      </c>
+      <c r="O102" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q102">
+        <v>0</v>
+      </c>
+      <c r="R102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>38</v>
+      </c>
+      <c r="B103" t="s">
+        <v>504</v>
+      </c>
+      <c r="C103" t="s">
+        <v>450</v>
+      </c>
+      <c r="E103" t="s">
+        <v>625</v>
+      </c>
+      <c r="H103">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103" t="s">
+        <v>189</v>
+      </c>
+      <c r="K103" t="s">
+        <v>451</v>
+      </c>
+      <c r="L103" t="s">
+        <v>451</v>
+      </c>
+      <c r="M103" t="s">
+        <v>451</v>
+      </c>
+      <c r="N103" t="s">
+        <v>451</v>
+      </c>
+      <c r="O103" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>38</v>
+      </c>
+      <c r="B104" t="s">
+        <v>504</v>
+      </c>
+      <c r="C104" t="s">
+        <v>450</v>
+      </c>
+      <c r="E104" t="s">
+        <v>625</v>
+      </c>
+      <c r="H104">
+        <v>6.9</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104" t="s">
+        <v>189</v>
+      </c>
+      <c r="K104" t="s">
+        <v>451</v>
+      </c>
+      <c r="L104" t="s">
+        <v>451</v>
+      </c>
+      <c r="M104" t="s">
+        <v>451</v>
+      </c>
+      <c r="N104" t="s">
+        <v>451</v>
+      </c>
+      <c r="O104" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>38</v>
+      </c>
+      <c r="B105" t="s">
+        <v>504</v>
+      </c>
+      <c r="C105" t="s">
+        <v>450</v>
+      </c>
+      <c r="E105" t="s">
+        <v>625</v>
+      </c>
+      <c r="H105">
+        <v>4</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105" t="s">
+        <v>189</v>
+      </c>
+      <c r="K105" t="s">
+        <v>451</v>
+      </c>
+      <c r="L105" t="s">
+        <v>451</v>
+      </c>
+      <c r="M105" t="s">
+        <v>451</v>
+      </c>
+      <c r="N105" t="s">
+        <v>451</v>
+      </c>
+      <c r="O105" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>38</v>
+      </c>
+      <c r="B106" t="s">
+        <v>504</v>
+      </c>
+      <c r="C106" t="s">
+        <v>450</v>
+      </c>
+      <c r="E106" t="s">
+        <v>625</v>
+      </c>
+      <c r="H106">
+        <v>4.8</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106" t="s">
+        <v>189</v>
+      </c>
+      <c r="K106" t="s">
+        <v>451</v>
+      </c>
+      <c r="L106" t="s">
+        <v>451</v>
+      </c>
+      <c r="M106" t="s">
+        <v>451</v>
+      </c>
+      <c r="N106" t="s">
+        <v>451</v>
+      </c>
+      <c r="O106" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>38</v>
+      </c>
+      <c r="B107" t="s">
+        <v>504</v>
+      </c>
+      <c r="C107" t="s">
+        <v>450</v>
+      </c>
+      <c r="E107" t="s">
+        <v>625</v>
+      </c>
+      <c r="H107">
+        <v>2.7</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107" t="s">
+        <v>189</v>
+      </c>
+      <c r="K107" t="s">
+        <v>451</v>
+      </c>
+      <c r="L107" t="s">
+        <v>451</v>
+      </c>
+      <c r="M107" t="s">
+        <v>451</v>
+      </c>
+      <c r="N107" t="s">
+        <v>451</v>
+      </c>
+      <c r="O107" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>38</v>
+      </c>
+      <c r="B108" t="s">
+        <v>486</v>
+      </c>
+      <c r="C108" t="s">
+        <v>450</v>
+      </c>
+      <c r="E108" t="s">
+        <v>625</v>
+      </c>
+      <c r="H108">
+        <v>10.3</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108" t="s">
+        <v>98</v>
+      </c>
+      <c r="K108" t="s">
+        <v>451</v>
+      </c>
+      <c r="L108" t="s">
+        <v>451</v>
+      </c>
+      <c r="M108" t="s">
+        <v>452</v>
+      </c>
+      <c r="N108" t="s">
+        <v>451</v>
+      </c>
+      <c r="O108" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>38</v>
+      </c>
+      <c r="B109" t="s">
+        <v>504</v>
+      </c>
+      <c r="C109" t="s">
+        <v>450</v>
+      </c>
+      <c r="E109" t="s">
+        <v>625</v>
+      </c>
+      <c r="H109">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109" t="s">
+        <v>189</v>
+      </c>
+      <c r="K109" t="s">
+        <v>451</v>
+      </c>
+      <c r="L109" t="s">
+        <v>451</v>
+      </c>
+      <c r="M109" t="s">
+        <v>451</v>
+      </c>
+      <c r="N109" t="s">
+        <v>451</v>
+      </c>
+      <c r="O109" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>38</v>
+      </c>
+      <c r="B110" t="s">
+        <v>504</v>
+      </c>
+      <c r="C110" t="s">
+        <v>450</v>
+      </c>
+      <c r="E110" t="s">
+        <v>625</v>
+      </c>
+      <c r="H110">
+        <v>3.6</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110" t="s">
+        <v>189</v>
+      </c>
+      <c r="K110" t="s">
+        <v>451</v>
+      </c>
+      <c r="L110" t="s">
+        <v>451</v>
+      </c>
+      <c r="M110" t="s">
+        <v>451</v>
+      </c>
+      <c r="N110" t="s">
+        <v>451</v>
+      </c>
+      <c r="O110" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>38</v>
+      </c>
+      <c r="B111" t="s">
+        <v>504</v>
+      </c>
+      <c r="C111" t="s">
+        <v>450</v>
+      </c>
+      <c r="E111" t="s">
+        <v>625</v>
+      </c>
+      <c r="H111">
+        <v>5.5</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111" t="s">
+        <v>189</v>
+      </c>
+      <c r="K111" t="s">
+        <v>451</v>
+      </c>
+      <c r="L111" t="s">
+        <v>451</v>
+      </c>
+      <c r="M111" t="s">
+        <v>452</v>
+      </c>
+      <c r="N111" t="s">
+        <v>451</v>
+      </c>
+      <c r="O111" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>38</v>
+      </c>
+      <c r="B112" t="s">
+        <v>504</v>
+      </c>
+      <c r="C112" t="s">
+        <v>450</v>
+      </c>
+      <c r="E112" t="s">
+        <v>625</v>
+      </c>
+      <c r="H112">
+        <v>5.5</v>
+      </c>
+      <c r="I112">
+        <v>2</v>
+      </c>
+      <c r="J112" t="s">
+        <v>189</v>
+      </c>
+      <c r="K112" t="s">
+        <v>451</v>
+      </c>
+      <c r="L112" t="s">
+        <v>451</v>
+      </c>
+      <c r="M112" t="s">
+        <v>452</v>
+      </c>
+      <c r="N112" t="s">
+        <v>452</v>
+      </c>
+      <c r="O112" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="113" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -63048,7 +66259,7 @@
         <v>30</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>474</v>
@@ -63078,7 +66289,7 @@
         <v>34</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.35">
@@ -63430,7 +66641,7 @@
         <v>8</v>
       </c>
       <c r="N6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O6">
         <v>4.4800000000000004</v>
@@ -63540,7 +66751,7 @@
         <v>0</v>
       </c>
       <c r="AB7" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.35">
@@ -64253,10 +67464,10 @@
         <v>53</v>
       </c>
       <c r="C17" t="s">
+        <v>528</v>
+      </c>
+      <c r="D17" t="s">
         <v>529</v>
-      </c>
-      <c r="D17" t="s">
-        <v>530</v>
       </c>
       <c r="E17">
         <v>101</v>
@@ -64283,7 +67494,7 @@
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O17">
         <v>3.2</v>
@@ -64319,7 +67530,7 @@
         <v>0</v>
       </c>
       <c r="AB17" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.35">
@@ -64330,10 +67541,10 @@
         <v>53</v>
       </c>
       <c r="C18" t="s">
+        <v>528</v>
+      </c>
+      <c r="D18" t="s">
         <v>529</v>
-      </c>
-      <c r="D18" t="s">
-        <v>530</v>
       </c>
       <c r="E18">
         <v>102</v>
@@ -64357,7 +67568,7 @@
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O18">
         <v>5.2</v>
@@ -64401,10 +67612,10 @@
         <v>53</v>
       </c>
       <c r="C19" t="s">
+        <v>528</v>
+      </c>
+      <c r="D19" t="s">
         <v>529</v>
-      </c>
-      <c r="D19" t="s">
-        <v>530</v>
       </c>
       <c r="E19">
         <v>103</v>
@@ -64428,7 +67639,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="N19" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O19">
         <v>6.6</v>
@@ -64472,10 +67683,10 @@
         <v>53</v>
       </c>
       <c r="C20" t="s">
+        <v>528</v>
+      </c>
+      <c r="D20" t="s">
         <v>529</v>
-      </c>
-      <c r="D20" t="s">
-        <v>530</v>
       </c>
       <c r="E20">
         <v>104</v>
@@ -64499,7 +67710,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="N20" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O20">
         <v>7.2</v>
@@ -64543,10 +67754,10 @@
         <v>53</v>
       </c>
       <c r="C21" t="s">
+        <v>528</v>
+      </c>
+      <c r="D21" t="s">
         <v>529</v>
-      </c>
-      <c r="D21" t="s">
-        <v>530</v>
       </c>
       <c r="E21">
         <v>105</v>
@@ -64570,7 +67781,7 @@
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O21">
         <v>3.1</v>
@@ -64614,10 +67825,10 @@
         <v>53</v>
       </c>
       <c r="C22" t="s">
+        <v>528</v>
+      </c>
+      <c r="D22" t="s">
         <v>529</v>
-      </c>
-      <c r="D22" t="s">
-        <v>530</v>
       </c>
       <c r="E22">
         <v>106</v>
@@ -64641,7 +67852,7 @@
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O22">
         <v>5.9</v>
@@ -64685,10 +67896,10 @@
         <v>53</v>
       </c>
       <c r="C23" t="s">
+        <v>528</v>
+      </c>
+      <c r="D23" t="s">
         <v>529</v>
-      </c>
-      <c r="D23" t="s">
-        <v>530</v>
       </c>
       <c r="E23">
         <v>107</v>
@@ -64712,7 +67923,7 @@
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O23">
         <v>3.6</v>
@@ -64756,10 +67967,10 @@
         <v>53</v>
       </c>
       <c r="C24" t="s">
+        <v>528</v>
+      </c>
+      <c r="D24" t="s">
         <v>529</v>
-      </c>
-      <c r="D24" t="s">
-        <v>530</v>
       </c>
       <c r="E24">
         <v>108</v>
@@ -64783,7 +67994,7 @@
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O24">
         <v>4.45</v>
@@ -64827,10 +68038,10 @@
         <v>53</v>
       </c>
       <c r="C25" t="s">
+        <v>528</v>
+      </c>
+      <c r="D25" t="s">
         <v>529</v>
-      </c>
-      <c r="D25" t="s">
-        <v>530</v>
       </c>
       <c r="E25">
         <v>109</v>
@@ -64854,7 +68065,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="N25" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O25">
         <v>7.2</v>
@@ -64898,10 +68109,10 @@
         <v>53</v>
       </c>
       <c r="C26" t="s">
+        <v>528</v>
+      </c>
+      <c r="D26" t="s">
         <v>529</v>
-      </c>
-      <c r="D26" t="s">
-        <v>530</v>
       </c>
       <c r="E26">
         <v>110</v>
@@ -64925,7 +68136,7 @@
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O26">
         <v>8.9</v>
@@ -64969,10 +68180,10 @@
         <v>53</v>
       </c>
       <c r="C27" t="s">
+        <v>528</v>
+      </c>
+      <c r="D27" t="s">
         <v>529</v>
-      </c>
-      <c r="D27" t="s">
-        <v>530</v>
       </c>
       <c r="E27">
         <v>111</v>
@@ -64996,7 +68207,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="N27" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O27">
         <v>4.5999999999999996</v>
@@ -65040,10 +68251,10 @@
         <v>53</v>
       </c>
       <c r="C28" t="s">
+        <v>528</v>
+      </c>
+      <c r="D28" t="s">
         <v>529</v>
-      </c>
-      <c r="D28" t="s">
-        <v>530</v>
       </c>
       <c r="E28">
         <v>112</v>
@@ -65067,7 +68278,7 @@
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O28">
         <v>6.7</v>
@@ -65111,16 +68322,16 @@
         <v>53</v>
       </c>
       <c r="C29" t="s">
+        <v>528</v>
+      </c>
+      <c r="D29" t="s">
         <v>529</v>
-      </c>
-      <c r="D29" t="s">
-        <v>530</v>
       </c>
       <c r="E29">
         <v>113</v>
       </c>
       <c r="F29" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I29">
         <v>42</v>
@@ -65138,7 +68349,7 @@
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O29">
         <v>9.6</v>
@@ -65182,10 +68393,10 @@
         <v>53</v>
       </c>
       <c r="C30" t="s">
+        <v>528</v>
+      </c>
+      <c r="D30" t="s">
         <v>529</v>
-      </c>
-      <c r="D30" t="s">
-        <v>530</v>
       </c>
       <c r="E30">
         <v>114</v>
@@ -65209,7 +68420,7 @@
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O30">
         <v>4.2</v>
@@ -65253,10 +68464,10 @@
         <v>53</v>
       </c>
       <c r="C31" t="s">
+        <v>528</v>
+      </c>
+      <c r="D31" t="s">
         <v>529</v>
-      </c>
-      <c r="D31" t="s">
-        <v>530</v>
       </c>
       <c r="E31">
         <v>115</v>
@@ -65280,7 +68491,7 @@
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O31">
         <v>9.1</v>
@@ -65326,7 +68537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A0D07C-6179-4BF4-B897-92EFF7A18ED6}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
@@ -65355,40 +68566,40 @@
         <v>468</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
@@ -65408,7 +68619,7 @@
         <v>499</v>
       </c>
       <c r="F2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H2" t="s">
         <v>488</v>
@@ -65431,7 +68642,7 @@
         <v>499</v>
       </c>
       <c r="F3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H3" t="s">
         <v>488</v>
@@ -65454,7 +68665,7 @@
         <v>499</v>
       </c>
       <c r="F4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H4" t="s">
         <v>488</v>

--- a/EAB_Michigan_2024_data.xlsx
+++ b/EAB_Michigan_2024_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/EAB_Michigan_2024_2025_github_folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3888" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EDC602B-222F-405F-9CFD-E8922DE49403}"/>
+  <xr:revisionPtr revIDLastSave="4623" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FAFB14F-D7B9-4101-956F-639AD7CC5BA0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="4" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="ash trees 2024" sheetId="3" r:id="rId5"/>
     <sheet name="trap locations" sheetId="6" r:id="rId6"/>
     <sheet name="EAB trap collection" sheetId="8" r:id="rId7"/>
+    <sheet name="yellow pan trap collection" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2749" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3322" uniqueCount="631">
   <si>
     <t>center_tree_number</t>
   </si>
@@ -1809,42 +1810,6 @@
     <t>if there are saplings underneath the trap, then this records what species they are</t>
   </si>
   <si>
-    <t>1st_collection_date</t>
-  </si>
-  <si>
-    <t>1st_collection_date_number_EAB_field_count</t>
-  </si>
-  <si>
-    <t>1st_collection_date_number_EAB_females_lab_count</t>
-  </si>
-  <si>
-    <t>1st_collection_date_number_EAB_males_lab_count</t>
-  </si>
-  <si>
-    <t>1st_collection_date_field_notes</t>
-  </si>
-  <si>
-    <t>1st_collection_date_lab_notes</t>
-  </si>
-  <si>
-    <t>2nd_collection_date</t>
-  </si>
-  <si>
-    <t>2nd_collection_date_field_notes</t>
-  </si>
-  <si>
-    <t>2nd_collection_date_number_EAB_field_count</t>
-  </si>
-  <si>
-    <t>2nd_collection_date_number_EAB_females_lab_count</t>
-  </si>
-  <si>
-    <t>2nd_collection_date_number_EAB_males_lab_count</t>
-  </si>
-  <si>
-    <t>2nd_collection_date_lab_notes</t>
-  </si>
-  <si>
     <t>trap was hastily installed and is resting against the trunk</t>
   </si>
   <si>
@@ -1946,6 +1911,54 @@
   <si>
     <t>epicormics are big</t>
   </si>
+  <si>
+    <t>original stem is dead</t>
+  </si>
+  <si>
+    <t>had samaras that were collected and are in the binder - another tree fell on it</t>
+  </si>
+  <si>
+    <t>collection_date</t>
+  </si>
+  <si>
+    <t>YPT_collection_notes</t>
+  </si>
+  <si>
+    <t>initial_set_date</t>
+  </si>
+  <si>
+    <t>trap_intact_y_n</t>
+  </si>
+  <si>
+    <t>liquid_evaporated_y_n</t>
+  </si>
+  <si>
+    <t>liquid almost but not completely evaporated</t>
+  </si>
+  <si>
+    <t>sample not collected at all - top bowl now has holes and needs replaced - potential raccoon damage</t>
+  </si>
+  <si>
+    <t>liquid almost but not completely evaporated - top bowl has holes and needs replaced - raccoon damage</t>
+  </si>
+  <si>
+    <t>EAB_trap_field_notes</t>
+  </si>
+  <si>
+    <t>number_EAB_field_count</t>
+  </si>
+  <si>
+    <t>number_EAB_females_lab_count</t>
+  </si>
+  <si>
+    <t>number_EAB_males_lab_count</t>
+  </si>
+  <si>
+    <t>lab_notes</t>
+  </si>
+  <si>
+    <t>Raccoon ate card</t>
+  </si>
 </sst>
 </file>
 
@@ -1981,7 +1994,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2006,6 +2019,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2019,7 +2038,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2039,6 +2058,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2389,8 +2410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D88F145-B9A5-4ED2-BA4E-B069605466DD}">
   <dimension ref="A1:B16450"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2606,7 +2627,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -2632,7 +2653,7 @@
         <v>21</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -2663,7 +2684,7 @@
         <v>565</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -2807,7 +2828,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>468</v>
+        <v>619</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>574</v>
@@ -52895,13 +52916,13 @@
         <v>141</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -53271,15 +53292,15 @@
         <v>182</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -53308,15 +53329,15 @@
         <v>185</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -53351,10 +53372,10 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="N40" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -53854,13 +53875,13 @@
         <v>238</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="J55" s="5"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -56813,41 +56834,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="8" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="8">
+    <row r="30" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>96</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="8">
-        <v>0</v>
-      </c>
-      <c r="D30" s="8">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
         <v>15.5</v>
       </c>
-      <c r="E30" s="8">
-        <v>0</v>
-      </c>
-      <c r="F30" s="8">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
         <v>2</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30">
         <v>7</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30">
         <v>5</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30">
         <v>4</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30">
         <v>1</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30">
         <v>2</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30">
         <v>1</v>
       </c>
     </row>
@@ -58290,7 +58311,7 @@
         <v>0</v>
       </c>
       <c r="M67" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -58369,7 +58390,7 @@
         <v>0</v>
       </c>
       <c r="M69" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -58489,7 +58510,7 @@
         <v>0</v>
       </c>
       <c r="M72" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -58685,7 +58706,7 @@
         <v>0</v>
       </c>
       <c r="M77" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -60053,7 +60074,7 @@
         <v>448</v>
       </c>
       <c r="C69" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="D69">
         <v>3</v>
@@ -60085,7 +60106,7 @@
         <v>447</v>
       </c>
       <c r="C70" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -60117,7 +60138,7 @@
         <v>449</v>
       </c>
       <c r="C71" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -60149,7 +60170,7 @@
         <v>450</v>
       </c>
       <c r="C72" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -60277,7 +60298,7 @@
         <v>450</v>
       </c>
       <c r="C76" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="D76">
         <v>4</v>
@@ -60373,7 +60394,7 @@
         <v>449</v>
       </c>
       <c r="C79" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="D79">
         <v>8</v>
@@ -60405,7 +60426,7 @@
         <v>450</v>
       </c>
       <c r="C80" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="D80">
         <v>12</v>
@@ -60437,7 +60458,7 @@
         <v>448</v>
       </c>
       <c r="C81" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="D81">
         <v>14</v>
@@ -60578,11 +60599,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA95277-679F-4206-8ACD-7B30D3EACF40}">
-  <dimension ref="A1:T113"/>
+  <dimension ref="A1:T162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A113" sqref="A113"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A157" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A163" sqref="A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -64443,50 +64464,50 @@
         <v>545</v>
       </c>
     </row>
-    <row r="75" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="6">
+    <row r="75" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="9">
         <v>39</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="9">
         <v>76</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75" s="9">
         <v>1</v>
       </c>
-      <c r="H75" s="6">
+      <c r="H75" s="9">
         <v>6.2</v>
       </c>
-      <c r="I75" s="6">
+      <c r="I75" s="9">
         <v>1</v>
       </c>
-      <c r="J75" s="6" t="s">
+      <c r="J75" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="K75" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="L75" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="M75" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="N75" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="O75" s="6" t="s">
+      <c r="K75" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="M75" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="N75" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="O75" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="Q75" s="6">
-        <v>0</v>
-      </c>
-      <c r="R75" s="6">
+      <c r="Q75" s="9">
+        <v>0</v>
+      </c>
+      <c r="R75" s="9">
         <v>0</v>
       </c>
     </row>
@@ -64537,7 +64558,7 @@
         <v>1</v>
       </c>
       <c r="S76" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.35">
@@ -64587,7 +64608,7 @@
         <v>0</v>
       </c>
       <c r="S77" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.35">
@@ -64637,7 +64658,7 @@
         <v>4</v>
       </c>
       <c r="S78" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.35">
@@ -64657,7 +64678,7 @@
         <v>11.3</v>
       </c>
       <c r="F79" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
       <c r="H79">
         <v>5.0999999999999996</v>
@@ -64828,7 +64849,7 @@
         <v>0</v>
       </c>
       <c r="S82" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
     </row>
     <row r="83" spans="1:20" ht="130" customHeight="1" x14ac:dyDescent="0.35">
@@ -64848,7 +64869,7 @@
         <v>5.09</v>
       </c>
       <c r="F83" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="H83">
         <v>7.9</v>
@@ -64881,7 +64902,7 @@
         <v>3</v>
       </c>
       <c r="S83" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="T83" t="e" vm="1">
         <v>#VALUE!</v>
@@ -64981,7 +65002,7 @@
         <v>0</v>
       </c>
       <c r="S85" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.35">
@@ -65031,7 +65052,7 @@
         <v>0</v>
       </c>
       <c r="S86" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.35">
@@ -65128,7 +65149,7 @@
         <v>0</v>
       </c>
       <c r="S88" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.35">
@@ -65225,7 +65246,7 @@
         <v>0</v>
       </c>
       <c r="S90" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.35">
@@ -65275,7 +65296,7 @@
         <v>0</v>
       </c>
       <c r="S91" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="92" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -65330,7 +65351,7 @@
         <v>38</v>
       </c>
       <c r="B93" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="C93" t="s">
         <v>448</v>
@@ -65516,7 +65537,7 @@
         <v>0</v>
       </c>
       <c r="S96" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.35">
@@ -65812,7 +65833,7 @@
         <v>450</v>
       </c>
       <c r="E103" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="H103">
         <v>4.4000000000000004</v>
@@ -65850,7 +65871,7 @@
         <v>450</v>
       </c>
       <c r="E104" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="H104">
         <v>6.9</v>
@@ -65888,7 +65909,7 @@
         <v>450</v>
       </c>
       <c r="E105" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="H105">
         <v>4</v>
@@ -65926,7 +65947,7 @@
         <v>450</v>
       </c>
       <c r="E106" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="H106">
         <v>4.8</v>
@@ -65964,7 +65985,7 @@
         <v>450</v>
       </c>
       <c r="E107" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="H107">
         <v>2.7</v>
@@ -66002,7 +66023,7 @@
         <v>450</v>
       </c>
       <c r="E108" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="H108">
         <v>10.3</v>
@@ -66040,7 +66061,7 @@
         <v>450</v>
       </c>
       <c r="E109" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="H109">
         <v>4.9000000000000004</v>
@@ -66078,7 +66099,7 @@
         <v>450</v>
       </c>
       <c r="E110" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="H110">
         <v>3.6</v>
@@ -66116,7 +66137,7 @@
         <v>450</v>
       </c>
       <c r="E111" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="H111">
         <v>5.5</v>
@@ -66154,7 +66175,7 @@
         <v>450</v>
       </c>
       <c r="E112" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="H112">
         <v>5.5</v>
@@ -66181,7 +66202,1936 @@
         <v>451</v>
       </c>
     </row>
-    <row r="113" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="113" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="6">
+        <v>38</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="H113" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="I113" s="6">
+        <v>1</v>
+      </c>
+      <c r="J113" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K113" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="L113" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="M113" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="N113" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="O113" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="S113" s="6" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A114" s="8">
+        <v>38</v>
+      </c>
+      <c r="B114" t="s">
+        <v>504</v>
+      </c>
+      <c r="C114" t="s">
+        <v>450</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H114">
+        <v>3.2</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K114" t="s">
+        <v>451</v>
+      </c>
+      <c r="L114" t="s">
+        <v>451</v>
+      </c>
+      <c r="M114" t="s">
+        <v>452</v>
+      </c>
+      <c r="N114" t="s">
+        <v>452</v>
+      </c>
+      <c r="O114" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A115" s="8">
+        <v>38</v>
+      </c>
+      <c r="B115" t="s">
+        <v>504</v>
+      </c>
+      <c r="C115" t="s">
+        <v>450</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H115">
+        <v>2.6</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K115" t="s">
+        <v>451</v>
+      </c>
+      <c r="L115" t="s">
+        <v>451</v>
+      </c>
+      <c r="M115" t="s">
+        <v>451</v>
+      </c>
+      <c r="N115" t="s">
+        <v>451</v>
+      </c>
+      <c r="O115" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A116" s="8">
+        <v>38</v>
+      </c>
+      <c r="B116" t="s">
+        <v>504</v>
+      </c>
+      <c r="C116" t="s">
+        <v>450</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H116">
+        <v>5</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K116" t="s">
+        <v>451</v>
+      </c>
+      <c r="L116" t="s">
+        <v>451</v>
+      </c>
+      <c r="M116" t="s">
+        <v>452</v>
+      </c>
+      <c r="N116" t="s">
+        <v>452</v>
+      </c>
+      <c r="O116" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A117" s="8">
+        <v>38</v>
+      </c>
+      <c r="B117" t="s">
+        <v>504</v>
+      </c>
+      <c r="C117" t="s">
+        <v>448</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H117">
+        <v>6.3</v>
+      </c>
+      <c r="I117">
+        <v>5</v>
+      </c>
+      <c r="J117" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K117" t="s">
+        <v>451</v>
+      </c>
+      <c r="L117" t="s">
+        <v>452</v>
+      </c>
+      <c r="M117" t="s">
+        <v>452</v>
+      </c>
+      <c r="N117" t="s">
+        <v>452</v>
+      </c>
+      <c r="O117" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A118" s="8">
+        <v>38</v>
+      </c>
+      <c r="B118" t="s">
+        <v>486</v>
+      </c>
+      <c r="C118" t="s">
+        <v>448</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H118">
+        <v>5</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K118" t="s">
+        <v>451</v>
+      </c>
+      <c r="L118" t="s">
+        <v>451</v>
+      </c>
+      <c r="M118" t="s">
+        <v>452</v>
+      </c>
+      <c r="N118" t="s">
+        <v>451</v>
+      </c>
+      <c r="O118" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A119" s="8">
+        <v>38</v>
+      </c>
+      <c r="B119" t="s">
+        <v>504</v>
+      </c>
+      <c r="C119" t="s">
+        <v>448</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H119">
+        <v>6.4</v>
+      </c>
+      <c r="I119">
+        <v>2</v>
+      </c>
+      <c r="J119" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K119" t="s">
+        <v>451</v>
+      </c>
+      <c r="L119" t="s">
+        <v>451</v>
+      </c>
+      <c r="M119" t="s">
+        <v>451</v>
+      </c>
+      <c r="N119" t="s">
+        <v>452</v>
+      </c>
+      <c r="O119" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A120" s="8">
+        <v>38</v>
+      </c>
+      <c r="B120" t="s">
+        <v>504</v>
+      </c>
+      <c r="C120" t="s">
+        <v>448</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H120">
+        <v>6.3</v>
+      </c>
+      <c r="J120" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K120" t="s">
+        <v>451</v>
+      </c>
+      <c r="L120" t="s">
+        <v>451</v>
+      </c>
+      <c r="M120" t="s">
+        <v>451</v>
+      </c>
+      <c r="N120" t="s">
+        <v>452</v>
+      </c>
+      <c r="S120" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="8">
+        <v>37</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="H121" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I121" s="6">
+        <v>1</v>
+      </c>
+      <c r="J121" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K121" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="L121" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="M121" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="N121" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="O121" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A122" s="8">
+        <v>37</v>
+      </c>
+      <c r="B122" t="s">
+        <v>533</v>
+      </c>
+      <c r="C122" t="s">
+        <v>448</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H122">
+        <v>2.9</v>
+      </c>
+      <c r="I122">
+        <v>5</v>
+      </c>
+      <c r="J122" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K122" t="s">
+        <v>451</v>
+      </c>
+      <c r="L122" t="s">
+        <v>452</v>
+      </c>
+      <c r="M122" t="s">
+        <v>452</v>
+      </c>
+      <c r="N122" t="s">
+        <v>451</v>
+      </c>
+      <c r="O122" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A123" s="8">
+        <v>37</v>
+      </c>
+      <c r="B123" t="s">
+        <v>504</v>
+      </c>
+      <c r="C123" t="s">
+        <v>447</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H123">
+        <v>4.5</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K123" t="s">
+        <v>451</v>
+      </c>
+      <c r="L123" t="s">
+        <v>451</v>
+      </c>
+      <c r="M123" t="s">
+        <v>451</v>
+      </c>
+      <c r="N123" t="s">
+        <v>452</v>
+      </c>
+      <c r="O123" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A124" s="8">
+        <v>37</v>
+      </c>
+      <c r="B124" t="s">
+        <v>504</v>
+      </c>
+      <c r="C124" t="s">
+        <v>447</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H124">
+        <v>5.3</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K124" t="s">
+        <v>451</v>
+      </c>
+      <c r="L124" t="s">
+        <v>451</v>
+      </c>
+      <c r="M124" t="s">
+        <v>451</v>
+      </c>
+      <c r="N124" t="s">
+        <v>451</v>
+      </c>
+      <c r="O124" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A125" s="8">
+        <v>37</v>
+      </c>
+      <c r="B125" t="s">
+        <v>504</v>
+      </c>
+      <c r="C125" t="s">
+        <v>449</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H125">
+        <v>6.6</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K125" t="s">
+        <v>451</v>
+      </c>
+      <c r="L125" t="s">
+        <v>451</v>
+      </c>
+      <c r="M125" t="s">
+        <v>452</v>
+      </c>
+      <c r="N125" t="s">
+        <v>452</v>
+      </c>
+      <c r="O125" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A126" s="8">
+        <v>37</v>
+      </c>
+      <c r="B126" t="s">
+        <v>504</v>
+      </c>
+      <c r="C126" t="s">
+        <v>449</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H126">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I126">
+        <v>5</v>
+      </c>
+      <c r="J126" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K126" t="s">
+        <v>451</v>
+      </c>
+      <c r="L126" t="s">
+        <v>451</v>
+      </c>
+      <c r="M126" t="s">
+        <v>452</v>
+      </c>
+      <c r="N126" t="s">
+        <v>452</v>
+      </c>
+      <c r="O126" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A127" s="8">
+        <v>37</v>
+      </c>
+      <c r="B127" t="s">
+        <v>504</v>
+      </c>
+      <c r="C127" t="s">
+        <v>449</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H127">
+        <v>8.6</v>
+      </c>
+      <c r="I127">
+        <v>3</v>
+      </c>
+      <c r="J127" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K127" t="s">
+        <v>451</v>
+      </c>
+      <c r="L127" t="s">
+        <v>452</v>
+      </c>
+      <c r="M127" t="s">
+        <v>451</v>
+      </c>
+      <c r="N127" t="s">
+        <v>452</v>
+      </c>
+      <c r="O127" t="s">
+        <v>451</v>
+      </c>
+      <c r="S127" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A128" s="8">
+        <v>37</v>
+      </c>
+      <c r="B128" t="s">
+        <v>504</v>
+      </c>
+      <c r="C128" t="s">
+        <v>449</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H128">
+        <v>8.5</v>
+      </c>
+      <c r="I128">
+        <v>4</v>
+      </c>
+      <c r="J128" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K128" t="s">
+        <v>451</v>
+      </c>
+      <c r="L128" t="s">
+        <v>452</v>
+      </c>
+      <c r="M128" t="s">
+        <v>452</v>
+      </c>
+      <c r="N128" t="s">
+        <v>452</v>
+      </c>
+      <c r="O128" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A129" s="8">
+        <v>37</v>
+      </c>
+      <c r="B129" t="s">
+        <v>504</v>
+      </c>
+      <c r="C129" t="s">
+        <v>449</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H129">
+        <v>3.1</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K129" t="s">
+        <v>451</v>
+      </c>
+      <c r="L129" t="s">
+        <v>451</v>
+      </c>
+      <c r="M129" t="s">
+        <v>452</v>
+      </c>
+      <c r="N129" t="s">
+        <v>451</v>
+      </c>
+      <c r="O129" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A130" s="8">
+        <v>37</v>
+      </c>
+      <c r="B130" t="s">
+        <v>504</v>
+      </c>
+      <c r="C130" t="s">
+        <v>449</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H130">
+        <v>5</v>
+      </c>
+      <c r="I130">
+        <v>5</v>
+      </c>
+      <c r="J130" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K130" t="s">
+        <v>451</v>
+      </c>
+      <c r="L130" t="s">
+        <v>451</v>
+      </c>
+      <c r="M130" t="s">
+        <v>452</v>
+      </c>
+      <c r="N130" t="s">
+        <v>452</v>
+      </c>
+      <c r="O130" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A131" s="8">
+        <v>37</v>
+      </c>
+      <c r="B131" t="s">
+        <v>504</v>
+      </c>
+      <c r="C131" t="s">
+        <v>449</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H131">
+        <v>7</v>
+      </c>
+      <c r="I131">
+        <v>5</v>
+      </c>
+      <c r="J131" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K131" t="s">
+        <v>452</v>
+      </c>
+      <c r="L131" t="s">
+        <v>452</v>
+      </c>
+      <c r="M131" t="s">
+        <v>451</v>
+      </c>
+      <c r="N131" t="s">
+        <v>452</v>
+      </c>
+      <c r="O131" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A132" s="8">
+        <v>37</v>
+      </c>
+      <c r="B132" t="s">
+        <v>504</v>
+      </c>
+      <c r="C132" t="s">
+        <v>449</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H132">
+        <v>5.8</v>
+      </c>
+      <c r="I132">
+        <v>3</v>
+      </c>
+      <c r="J132" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K132" t="s">
+        <v>451</v>
+      </c>
+      <c r="L132" t="s">
+        <v>452</v>
+      </c>
+      <c r="M132" t="s">
+        <v>452</v>
+      </c>
+      <c r="N132" t="s">
+        <v>452</v>
+      </c>
+      <c r="O132" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A133" s="8">
+        <v>37</v>
+      </c>
+      <c r="B133" t="s">
+        <v>504</v>
+      </c>
+      <c r="C133" t="s">
+        <v>449</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H133">
+        <v>5.9</v>
+      </c>
+      <c r="I133">
+        <v>3</v>
+      </c>
+      <c r="J133" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K133" t="s">
+        <v>451</v>
+      </c>
+      <c r="L133" t="s">
+        <v>451</v>
+      </c>
+      <c r="M133" t="s">
+        <v>452</v>
+      </c>
+      <c r="N133" t="s">
+        <v>452</v>
+      </c>
+      <c r="O133" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A134" s="8">
+        <v>37</v>
+      </c>
+      <c r="B134" t="s">
+        <v>504</v>
+      </c>
+      <c r="C134" t="s">
+        <v>449</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H134">
+        <v>5.4</v>
+      </c>
+      <c r="I134">
+        <v>5</v>
+      </c>
+      <c r="J134" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K134" t="s">
+        <v>451</v>
+      </c>
+      <c r="L134" t="s">
+        <v>452</v>
+      </c>
+      <c r="M134" t="s">
+        <v>451</v>
+      </c>
+      <c r="N134" t="s">
+        <v>452</v>
+      </c>
+      <c r="O134" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A135" s="8">
+        <v>37</v>
+      </c>
+      <c r="B135" t="s">
+        <v>504</v>
+      </c>
+      <c r="C135" t="s">
+        <v>449</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H135">
+        <v>2.9</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K135" t="s">
+        <v>451</v>
+      </c>
+      <c r="L135" t="s">
+        <v>451</v>
+      </c>
+      <c r="M135" t="s">
+        <v>452</v>
+      </c>
+      <c r="N135" t="s">
+        <v>452</v>
+      </c>
+      <c r="O135" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A136" s="8">
+        <v>37</v>
+      </c>
+      <c r="B136" t="s">
+        <v>504</v>
+      </c>
+      <c r="C136" t="s">
+        <v>449</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H136">
+        <v>5.8</v>
+      </c>
+      <c r="I136">
+        <v>5</v>
+      </c>
+      <c r="J136" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K136" t="s">
+        <v>451</v>
+      </c>
+      <c r="L136" t="s">
+        <v>451</v>
+      </c>
+      <c r="M136" t="s">
+        <v>452</v>
+      </c>
+      <c r="N136" t="s">
+        <v>452</v>
+      </c>
+      <c r="O136" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A137" s="8">
+        <v>37</v>
+      </c>
+      <c r="B137" t="s">
+        <v>504</v>
+      </c>
+      <c r="C137" t="s">
+        <v>449</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H137">
+        <v>3.9</v>
+      </c>
+      <c r="I137">
+        <v>5</v>
+      </c>
+      <c r="J137" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K137" t="s">
+        <v>451</v>
+      </c>
+      <c r="L137" t="s">
+        <v>451</v>
+      </c>
+      <c r="M137" t="s">
+        <v>452</v>
+      </c>
+      <c r="N137" t="s">
+        <v>452</v>
+      </c>
+      <c r="O137" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A138" s="8">
+        <v>37</v>
+      </c>
+      <c r="B138" t="s">
+        <v>504</v>
+      </c>
+      <c r="C138" t="s">
+        <v>449</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H138">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I138">
+        <v>3</v>
+      </c>
+      <c r="J138" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K138" t="s">
+        <v>451</v>
+      </c>
+      <c r="L138" t="s">
+        <v>451</v>
+      </c>
+      <c r="M138" t="s">
+        <v>451</v>
+      </c>
+      <c r="N138" t="s">
+        <v>452</v>
+      </c>
+      <c r="O138" t="s">
+        <v>451</v>
+      </c>
+      <c r="S138" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A139" s="8">
+        <v>37</v>
+      </c>
+      <c r="B139" t="s">
+        <v>504</v>
+      </c>
+      <c r="C139" t="s">
+        <v>449</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H139">
+        <v>5.3</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K139" t="s">
+        <v>451</v>
+      </c>
+      <c r="L139" t="s">
+        <v>451</v>
+      </c>
+      <c r="M139" t="s">
+        <v>451</v>
+      </c>
+      <c r="N139" t="s">
+        <v>451</v>
+      </c>
+      <c r="O139" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A140" s="8">
+        <v>37</v>
+      </c>
+      <c r="B140" t="s">
+        <v>504</v>
+      </c>
+      <c r="C140" t="s">
+        <v>449</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H140">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K140" t="s">
+        <v>451</v>
+      </c>
+      <c r="L140" t="s">
+        <v>451</v>
+      </c>
+      <c r="M140" t="s">
+        <v>451</v>
+      </c>
+      <c r="N140" t="s">
+        <v>451</v>
+      </c>
+      <c r="O140" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A141" s="8">
+        <v>37</v>
+      </c>
+      <c r="B141" t="s">
+        <v>504</v>
+      </c>
+      <c r="C141" t="s">
+        <v>449</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H141">
+        <v>8.5</v>
+      </c>
+      <c r="I141">
+        <v>3</v>
+      </c>
+      <c r="J141" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K141" t="s">
+        <v>451</v>
+      </c>
+      <c r="L141" t="s">
+        <v>452</v>
+      </c>
+      <c r="M141" t="s">
+        <v>452</v>
+      </c>
+      <c r="N141" t="s">
+        <v>452</v>
+      </c>
+      <c r="O141" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A142" s="8">
+        <v>37</v>
+      </c>
+      <c r="B142" t="s">
+        <v>504</v>
+      </c>
+      <c r="C142" t="s">
+        <v>449</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H142">
+        <v>6.2</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K142" t="s">
+        <v>451</v>
+      </c>
+      <c r="L142" t="s">
+        <v>451</v>
+      </c>
+      <c r="M142" t="s">
+        <v>451</v>
+      </c>
+      <c r="N142" t="s">
+        <v>451</v>
+      </c>
+      <c r="O142" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A143" s="8">
+        <v>37</v>
+      </c>
+      <c r="B143" t="s">
+        <v>504</v>
+      </c>
+      <c r="C143" t="s">
+        <v>448</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H143">
+        <v>6.6</v>
+      </c>
+      <c r="I143">
+        <v>5</v>
+      </c>
+      <c r="J143" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K143" t="s">
+        <v>451</v>
+      </c>
+      <c r="L143" t="s">
+        <v>452</v>
+      </c>
+      <c r="M143" t="s">
+        <v>452</v>
+      </c>
+      <c r="N143" t="s">
+        <v>452</v>
+      </c>
+      <c r="O143" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="6">
+        <v>37</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E144" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="H144" s="6">
+        <v>6</v>
+      </c>
+      <c r="I144" s="6">
+        <v>5</v>
+      </c>
+      <c r="J144" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="K144" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="L144" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="M144" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="N144" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="O144" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A145" s="8">
+        <v>37</v>
+      </c>
+      <c r="B145" t="s">
+        <v>504</v>
+      </c>
+      <c r="C145" t="s">
+        <v>448</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H145">
+        <v>9.5</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K145" t="s">
+        <v>451</v>
+      </c>
+      <c r="L145" t="s">
+        <v>451</v>
+      </c>
+      <c r="M145" t="s">
+        <v>451</v>
+      </c>
+      <c r="N145" t="s">
+        <v>451</v>
+      </c>
+      <c r="O145" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A146" s="8">
+        <v>37</v>
+      </c>
+      <c r="B146" t="s">
+        <v>504</v>
+      </c>
+      <c r="C146" t="s">
+        <v>448</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H146">
+        <v>6.5</v>
+      </c>
+      <c r="I146">
+        <v>2</v>
+      </c>
+      <c r="J146" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K146" t="s">
+        <v>451</v>
+      </c>
+      <c r="L146" t="s">
+        <v>451</v>
+      </c>
+      <c r="M146" t="s">
+        <v>452</v>
+      </c>
+      <c r="N146" t="s">
+        <v>452</v>
+      </c>
+      <c r="O146" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A147" s="8">
+        <v>37</v>
+      </c>
+      <c r="B147" t="s">
+        <v>504</v>
+      </c>
+      <c r="C147" t="s">
+        <v>448</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H147">
+        <v>6.1</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K147" t="s">
+        <v>451</v>
+      </c>
+      <c r="L147" t="s">
+        <v>451</v>
+      </c>
+      <c r="M147" t="s">
+        <v>451</v>
+      </c>
+      <c r="N147" t="s">
+        <v>451</v>
+      </c>
+      <c r="O147" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A148" s="8">
+        <v>37</v>
+      </c>
+      <c r="B148" t="s">
+        <v>504</v>
+      </c>
+      <c r="C148" t="s">
+        <v>448</v>
+      </c>
+      <c r="E148" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H148">
+        <v>5</v>
+      </c>
+      <c r="I148">
+        <v>5</v>
+      </c>
+      <c r="J148" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K148" t="s">
+        <v>451</v>
+      </c>
+      <c r="L148" t="s">
+        <v>452</v>
+      </c>
+      <c r="M148" t="s">
+        <v>452</v>
+      </c>
+      <c r="N148" t="s">
+        <v>452</v>
+      </c>
+      <c r="O148" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A149" s="8">
+        <v>37</v>
+      </c>
+      <c r="B149" t="s">
+        <v>504</v>
+      </c>
+      <c r="C149" t="s">
+        <v>448</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H149">
+        <v>6.2</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K149" t="s">
+        <v>451</v>
+      </c>
+      <c r="L149" t="s">
+        <v>451</v>
+      </c>
+      <c r="M149" t="s">
+        <v>452</v>
+      </c>
+      <c r="N149" t="s">
+        <v>452</v>
+      </c>
+      <c r="O149" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A150" s="8">
+        <v>37</v>
+      </c>
+      <c r="B150" t="s">
+        <v>504</v>
+      </c>
+      <c r="C150" t="s">
+        <v>448</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H150">
+        <v>6.6</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K150" t="s">
+        <v>451</v>
+      </c>
+      <c r="L150" t="s">
+        <v>451</v>
+      </c>
+      <c r="M150" t="s">
+        <v>451</v>
+      </c>
+      <c r="N150" t="s">
+        <v>451</v>
+      </c>
+      <c r="O150" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A151" s="8">
+        <v>37</v>
+      </c>
+      <c r="B151" t="s">
+        <v>504</v>
+      </c>
+      <c r="C151" t="s">
+        <v>448</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H151">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K151" t="s">
+        <v>451</v>
+      </c>
+      <c r="L151" t="s">
+        <v>451</v>
+      </c>
+      <c r="M151" t="s">
+        <v>452</v>
+      </c>
+      <c r="N151" t="s">
+        <v>452</v>
+      </c>
+      <c r="O151" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A152" s="8">
+        <v>37</v>
+      </c>
+      <c r="B152" t="s">
+        <v>486</v>
+      </c>
+      <c r="C152" t="s">
+        <v>450</v>
+      </c>
+      <c r="D152">
+        <v>220</v>
+      </c>
+      <c r="E152" s="8">
+        <v>14.3</v>
+      </c>
+      <c r="H152">
+        <v>11.4</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K152" t="s">
+        <v>451</v>
+      </c>
+      <c r="L152" t="s">
+        <v>451</v>
+      </c>
+      <c r="M152" t="s">
+        <v>451</v>
+      </c>
+      <c r="N152" t="s">
+        <v>451</v>
+      </c>
+      <c r="O152" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="6">
+        <v>25</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H153" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="I153" s="6">
+        <v>5</v>
+      </c>
+      <c r="J153" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K153" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="L153" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="M153" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="N153" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="O153" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A154" s="8">
+        <v>25</v>
+      </c>
+      <c r="B154" t="s">
+        <v>504</v>
+      </c>
+      <c r="C154" t="s">
+        <v>449</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H154">
+        <v>3.4</v>
+      </c>
+      <c r="I154">
+        <v>3</v>
+      </c>
+      <c r="J154" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K154" t="s">
+        <v>451</v>
+      </c>
+      <c r="L154" t="s">
+        <v>451</v>
+      </c>
+      <c r="M154" t="s">
+        <v>452</v>
+      </c>
+      <c r="N154" t="s">
+        <v>452</v>
+      </c>
+      <c r="O154" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A155" s="8">
+        <v>25</v>
+      </c>
+      <c r="B155" t="s">
+        <v>504</v>
+      </c>
+      <c r="C155" t="s">
+        <v>449</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H155">
+        <v>2.7</v>
+      </c>
+      <c r="I155">
+        <v>5</v>
+      </c>
+      <c r="J155" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K155" t="s">
+        <v>451</v>
+      </c>
+      <c r="L155" t="s">
+        <v>452</v>
+      </c>
+      <c r="M155" t="s">
+        <v>452</v>
+      </c>
+      <c r="N155" t="s">
+        <v>452</v>
+      </c>
+      <c r="O155" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A156" s="8">
+        <v>25</v>
+      </c>
+      <c r="B156" t="s">
+        <v>486</v>
+      </c>
+      <c r="C156" t="s">
+        <v>450</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H156">
+        <v>3.1</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K156" t="s">
+        <v>451</v>
+      </c>
+      <c r="L156" t="s">
+        <v>451</v>
+      </c>
+      <c r="M156" t="s">
+        <v>452</v>
+      </c>
+      <c r="N156" t="s">
+        <v>451</v>
+      </c>
+      <c r="O156" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A157" s="8">
+        <v>25</v>
+      </c>
+      <c r="B157" t="s">
+        <v>504</v>
+      </c>
+      <c r="C157" t="s">
+        <v>450</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H157">
+        <v>3</v>
+      </c>
+      <c r="I157">
+        <v>5</v>
+      </c>
+      <c r="J157" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K157" t="s">
+        <v>451</v>
+      </c>
+      <c r="L157" t="s">
+        <v>451</v>
+      </c>
+      <c r="M157" t="s">
+        <v>452</v>
+      </c>
+      <c r="N157" t="s">
+        <v>452</v>
+      </c>
+      <c r="O157" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A158" s="8">
+        <v>25</v>
+      </c>
+      <c r="B158" t="s">
+        <v>504</v>
+      </c>
+      <c r="C158" t="s">
+        <v>448</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H158">
+        <v>2.6</v>
+      </c>
+      <c r="I158">
+        <v>2</v>
+      </c>
+      <c r="J158" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K158" t="s">
+        <v>451</v>
+      </c>
+      <c r="L158" t="s">
+        <v>451</v>
+      </c>
+      <c r="M158" t="s">
+        <v>451</v>
+      </c>
+      <c r="N158" t="s">
+        <v>452</v>
+      </c>
+      <c r="O158" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A159" s="8">
+        <v>25</v>
+      </c>
+      <c r="B159" t="s">
+        <v>533</v>
+      </c>
+      <c r="C159" t="s">
+        <v>448</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H159">
+        <v>5.7</v>
+      </c>
+      <c r="I159">
+        <v>5</v>
+      </c>
+      <c r="J159" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K159" t="s">
+        <v>451</v>
+      </c>
+      <c r="L159" t="s">
+        <v>452</v>
+      </c>
+      <c r="M159" t="s">
+        <v>452</v>
+      </c>
+      <c r="N159" t="s">
+        <v>452</v>
+      </c>
+      <c r="O159" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A160" s="8">
+        <v>25</v>
+      </c>
+      <c r="B160" t="s">
+        <v>504</v>
+      </c>
+      <c r="C160" t="s">
+        <v>448</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H160">
+        <v>2.7</v>
+      </c>
+      <c r="I160">
+        <v>2</v>
+      </c>
+      <c r="J160" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K160" t="s">
+        <v>451</v>
+      </c>
+      <c r="L160" t="s">
+        <v>451</v>
+      </c>
+      <c r="M160" t="s">
+        <v>452</v>
+      </c>
+      <c r="N160" t="s">
+        <v>452</v>
+      </c>
+      <c r="O160" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A161" s="8">
+        <v>25</v>
+      </c>
+      <c r="B161" t="s">
+        <v>535</v>
+      </c>
+      <c r="C161" t="s">
+        <v>447</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="H161">
+        <v>2.9</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="K161" t="s">
+        <v>451</v>
+      </c>
+      <c r="L161" t="s">
+        <v>451</v>
+      </c>
+      <c r="M161" t="s">
+        <v>452</v>
+      </c>
+      <c r="N161" t="s">
+        <v>452</v>
+      </c>
+      <c r="O161" t="s">
+        <v>451</v>
+      </c>
+      <c r="S161" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="162" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A162" s="8">
+        <v>57</v>
+      </c>
+      <c r="B162" t="s">
+        <v>488</v>
+      </c>
+      <c r="C162" t="s">
+        <v>454</v>
+      </c>
+      <c r="D162" t="s">
+        <v>488</v>
+      </c>
+      <c r="E162" t="s">
+        <v>488</v>
+      </c>
+      <c r="F162" t="s">
+        <v>488</v>
+      </c>
+      <c r="G162" t="s">
+        <v>488</v>
+      </c>
+      <c r="H162" t="s">
+        <v>488</v>
+      </c>
+      <c r="I162" t="s">
+        <v>488</v>
+      </c>
+      <c r="J162" t="s">
+        <v>488</v>
+      </c>
+      <c r="K162" t="s">
+        <v>488</v>
+      </c>
+      <c r="L162" t="s">
+        <v>488</v>
+      </c>
+      <c r="M162" t="s">
+        <v>488</v>
+      </c>
+      <c r="N162" t="s">
+        <v>488</v>
+      </c>
+      <c r="O162" t="s">
+        <v>488</v>
+      </c>
+      <c r="P162" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>488</v>
+      </c>
+      <c r="R162" t="s">
+        <v>488</v>
+      </c>
+      <c r="S162" t="s">
+        <v>488</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -66192,8 +68142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8119E6BF-C4C5-438C-90A2-4DB239ACB6A8}">
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView topLeftCell="K15" workbookViewId="0">
-      <selection activeCell="AC31" sqref="AC31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -66217,7 +68167,7 @@
         <v>470</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>468</v>
+        <v>619</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>469</v>
@@ -66751,7 +68701,7 @@
         <v>0</v>
       </c>
       <c r="AB7" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.35">
@@ -68535,10 +70485,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A0D07C-6179-4BF4-B897-92EFF7A18ED6}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -68547,9 +70497,13 @@
     <col min="4" max="4" width="10.26953125" style="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="11.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.90625" customWidth="1"/>
+    <col min="9" max="9" width="12.08984375" customWidth="1"/>
+    <col min="10" max="10" width="11.6328125" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>467</v>
       </c>
@@ -68566,43 +70520,212 @@
         <v>468</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>581</v>
+        <v>617</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="B2" s="10">
+        <v>53</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="D2" s="2">
+        <v>13</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>506</v>
+      </c>
+      <c r="D3" s="1">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F3" t="s">
         <v>582</v>
       </c>
+      <c r="H3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="B4" s="10">
+        <v>53</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="D4" s="2">
+        <v>14</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>506</v>
+      </c>
+      <c r="D5" s="1">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>529</v>
+      </c>
+      <c r="F5" t="s">
+        <v>582</v>
+      </c>
+      <c r="G5" t="s">
+        <v>630</v>
+      </c>
+      <c r="H5" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="B6" s="10">
+        <v>53</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="D6" s="2">
+        <v>15</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>506</v>
+      </c>
+      <c r="D7" s="1">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>529</v>
+      </c>
+      <c r="F7" t="s">
+        <v>582</v>
+      </c>
+      <c r="G7" t="s">
+        <v>630</v>
+      </c>
+      <c r="H7" t="s">
+        <v>488</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F2DF5E6-41F3-45D0-9FF1-99E9480E4095}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="11.08984375" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" customWidth="1"/>
+    <col min="7" max="7" width="10.54296875" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>621</v>
+      </c>
       <c r="I1" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>498</v>
       </c>
@@ -68610,22 +70733,25 @@
         <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>506</v>
-      </c>
-      <c r="D2" s="1">
-        <v>13</v>
+        <v>528</v>
+      </c>
+      <c r="D2">
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="F2" t="s">
-        <v>529</v>
+        <v>582</v>
+      </c>
+      <c r="G2" t="s">
+        <v>452</v>
       </c>
       <c r="H2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>498</v>
       </c>
@@ -68633,22 +70759,25 @@
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>506</v>
-      </c>
-      <c r="D3" s="1">
-        <v>14</v>
+        <v>528</v>
+      </c>
+      <c r="D3">
+        <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="F3" t="s">
-        <v>529</v>
+        <v>582</v>
+      </c>
+      <c r="G3" t="s">
+        <v>452</v>
       </c>
       <c r="H3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>498</v>
       </c>
@@ -68656,19 +70785,349 @@
         <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>506</v>
-      </c>
-      <c r="D4" s="1">
-        <v>15</v>
+        <v>528</v>
+      </c>
+      <c r="D4">
+        <v>103</v>
       </c>
       <c r="E4" t="s">
-        <v>499</v>
+        <v>529</v>
       </c>
       <c r="F4" t="s">
+        <v>582</v>
+      </c>
+      <c r="G4" t="s">
+        <v>452</v>
+      </c>
+      <c r="H4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>498</v>
+      </c>
+      <c r="B5">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>528</v>
+      </c>
+      <c r="D5">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
         <v>529</v>
       </c>
-      <c r="H4" t="s">
-        <v>488</v>
+      <c r="F5" t="s">
+        <v>582</v>
+      </c>
+      <c r="G5" t="s">
+        <v>452</v>
+      </c>
+      <c r="H5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>498</v>
+      </c>
+      <c r="B6">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>528</v>
+      </c>
+      <c r="D6">
+        <v>105</v>
+      </c>
+      <c r="E6" t="s">
+        <v>529</v>
+      </c>
+      <c r="F6" t="s">
+        <v>582</v>
+      </c>
+      <c r="G6" t="s">
+        <v>452</v>
+      </c>
+      <c r="H6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>498</v>
+      </c>
+      <c r="B7">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>528</v>
+      </c>
+      <c r="D7">
+        <v>106</v>
+      </c>
+      <c r="E7" t="s">
+        <v>529</v>
+      </c>
+      <c r="F7" t="s">
+        <v>582</v>
+      </c>
+      <c r="G7" t="s">
+        <v>452</v>
+      </c>
+      <c r="H7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>498</v>
+      </c>
+      <c r="B8">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>528</v>
+      </c>
+      <c r="D8">
+        <v>107</v>
+      </c>
+      <c r="E8" t="s">
+        <v>529</v>
+      </c>
+      <c r="F8" t="s">
+        <v>582</v>
+      </c>
+      <c r="G8" t="s">
+        <v>452</v>
+      </c>
+      <c r="H8" t="s">
+        <v>452</v>
+      </c>
+      <c r="I8" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B9">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>528</v>
+      </c>
+      <c r="D9">
+        <v>108</v>
+      </c>
+      <c r="E9" t="s">
+        <v>529</v>
+      </c>
+      <c r="F9" t="s">
+        <v>582</v>
+      </c>
+      <c r="G9" t="s">
+        <v>452</v>
+      </c>
+      <c r="H9" t="s">
+        <v>452</v>
+      </c>
+      <c r="I9" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>498</v>
+      </c>
+      <c r="B10">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>528</v>
+      </c>
+      <c r="D10">
+        <v>109</v>
+      </c>
+      <c r="E10" t="s">
+        <v>529</v>
+      </c>
+      <c r="F10" t="s">
+        <v>582</v>
+      </c>
+      <c r="G10" t="s">
+        <v>451</v>
+      </c>
+      <c r="H10" t="s">
+        <v>452</v>
+      </c>
+      <c r="I10" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>498</v>
+      </c>
+      <c r="B11">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>528</v>
+      </c>
+      <c r="D11">
+        <v>110</v>
+      </c>
+      <c r="E11" t="s">
+        <v>529</v>
+      </c>
+      <c r="F11" t="s">
+        <v>582</v>
+      </c>
+      <c r="G11" t="s">
+        <v>452</v>
+      </c>
+      <c r="H11" t="s">
+        <v>452</v>
+      </c>
+      <c r="I11" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>498</v>
+      </c>
+      <c r="B12">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>528</v>
+      </c>
+      <c r="D12">
+        <v>111</v>
+      </c>
+      <c r="E12" t="s">
+        <v>529</v>
+      </c>
+      <c r="F12" t="s">
+        <v>582</v>
+      </c>
+      <c r="G12" t="s">
+        <v>452</v>
+      </c>
+      <c r="H12" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>498</v>
+      </c>
+      <c r="B13">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>528</v>
+      </c>
+      <c r="D13">
+        <v>112</v>
+      </c>
+      <c r="E13" t="s">
+        <v>529</v>
+      </c>
+      <c r="F13" t="s">
+        <v>582</v>
+      </c>
+      <c r="G13" t="s">
+        <v>451</v>
+      </c>
+      <c r="H13" t="s">
+        <v>452</v>
+      </c>
+      <c r="I13" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>498</v>
+      </c>
+      <c r="B14">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>528</v>
+      </c>
+      <c r="D14">
+        <v>113</v>
+      </c>
+      <c r="E14" t="s">
+        <v>529</v>
+      </c>
+      <c r="F14" t="s">
+        <v>582</v>
+      </c>
+      <c r="G14" t="s">
+        <v>452</v>
+      </c>
+      <c r="H14" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>498</v>
+      </c>
+      <c r="B15">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>528</v>
+      </c>
+      <c r="D15">
+        <v>114</v>
+      </c>
+      <c r="E15" t="s">
+        <v>529</v>
+      </c>
+      <c r="F15" t="s">
+        <v>582</v>
+      </c>
+      <c r="G15" t="s">
+        <v>452</v>
+      </c>
+      <c r="H15" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>498</v>
+      </c>
+      <c r="B16">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>528</v>
+      </c>
+      <c r="D16">
+        <v>115</v>
+      </c>
+      <c r="E16" t="s">
+        <v>529</v>
+      </c>
+      <c r="F16" t="s">
+        <v>582</v>
+      </c>
+      <c r="G16" t="s">
+        <v>452</v>
+      </c>
+      <c r="H16" t="s">
+        <v>451</v>
       </c>
     </row>
   </sheetData>

--- a/EAB_Michigan_2024_data.xlsx
+++ b/EAB_Michigan_2024_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32f02f1096a9313f/Documents/Entomology MS/Thesis research/EAB_Michigan_2024_2025_github_folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5516" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41FF9546-B9B1-4E5D-A35A-D2D0EAF6715B}"/>
+  <xr:revisionPtr revIDLastSave="6321" documentId="11_F25DC773A252ABDACC1048D9019B4AC45ADE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30CF8678-4C4E-46E5-AA24-10128685E871}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="4" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3829" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4599" uniqueCount="675">
   <si>
     <t>center_tree_number</t>
   </si>
@@ -1816,9 +1816,6 @@
     <t>06_14_2024</t>
   </si>
   <si>
-    <t>39.7 cm DBH - Tree tag swallowed or missing</t>
-  </si>
-  <si>
     <t>06_13_2024</t>
   </si>
   <si>
@@ -1882,9 +1879,6 @@
     <t>connected to the one in the previous row</t>
   </si>
   <si>
-    <t>Tagged - July 8 2009 - Ash 2</t>
-  </si>
-  <si>
     <t>epicormic is dead</t>
   </si>
   <si>
@@ -2063,6 +2057,39 @@
   </si>
   <si>
     <t>top bowl replaced</t>
+  </si>
+  <si>
+    <t>dominant species maple and beech</t>
+  </si>
+  <si>
+    <t>dominant species maple beech and some pine</t>
+  </si>
+  <si>
+    <t>Ash number 7 - 08_18_2009</t>
+  </si>
+  <si>
+    <t>Ash number 3 - 08_18_2009</t>
+  </si>
+  <si>
+    <t>sprouts living</t>
+  </si>
+  <si>
+    <t>Ash number 5 - 08_18_09</t>
+  </si>
+  <si>
+    <t>Frax number 9 - 04_08_2011</t>
+  </si>
+  <si>
+    <t>between 8 and 18</t>
+  </si>
+  <si>
+    <t>39.7 cm DBH Quercus rubra - Tree tag swallowed or missing</t>
+  </si>
+  <si>
+    <t>Tagged Ash 2 - July 8 2009</t>
+  </si>
+  <si>
+    <t>Ash number 1 - 08_18_2009</t>
   </si>
 </sst>
 </file>
@@ -2515,7 +2542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D88F145-B9A5-4ED2-BA4E-B069605466DD}">
   <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
@@ -2732,7 +2759,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -2758,7 +2785,7 @@
         <v>21</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -2789,7 +2816,7 @@
         <v>565</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -2933,7 +2960,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>574</v>
@@ -3085,7 +3112,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -3115,35 +3142,35 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -3151,7 +3178,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -3181,28 +3208,28 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -3215,8 +3242,8 @@
   <dimension ref="A1:N112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L38" sqref="L38"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4078,13 +4105,13 @@
         <v>141</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -4113,13 +4140,13 @@
         <v>144</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -4148,13 +4175,13 @@
         <v>147</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -4276,13 +4303,13 @@
         <v>162</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -4311,13 +4338,13 @@
         <v>165</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -4346,13 +4373,13 @@
         <v>168</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -4381,13 +4408,16 @@
         <v>172</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5" t="s">
-        <v>646</v>
+        <v>644</v>
+      </c>
+      <c r="N35" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -4416,13 +4446,16 @@
         <v>175</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5" t="s">
-        <v>647</v>
+        <v>645</v>
+      </c>
+      <c r="N36" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -4451,12 +4484,12 @@
         <v>178</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="M37" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -4485,15 +4518,15 @@
         <v>182</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M38" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -4522,15 +4555,15 @@
         <v>185</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -4565,10 +4598,10 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="N40" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -5037,13 +5070,13 @@
         <v>235</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="J54" s="5"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -5078,7 +5111,7 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5" t="s">
-        <v>583</v>
+        <v>672</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -5260,13 +5293,13 @@
         <v>258</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -6899,8 +6932,8 @@
   <dimension ref="A1:M121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9431,44 +9464,44 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66">
+    <row r="66" spans="1:13" s="6" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="6">
         <v>38</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66" t="s">
+      <c r="C66" s="6">
+        <v>0</v>
+      </c>
+      <c r="D66" s="6">
+        <v>0</v>
+      </c>
+      <c r="E66" s="6">
+        <v>0</v>
+      </c>
+      <c r="F66" s="6">
+        <v>0</v>
+      </c>
+      <c r="G66" s="6">
+        <v>0</v>
+      </c>
+      <c r="H66" s="6">
+        <v>0</v>
+      </c>
+      <c r="I66" s="6">
+        <v>0</v>
+      </c>
+      <c r="J66" s="6">
+        <v>0</v>
+      </c>
+      <c r="K66" s="6">
+        <v>0</v>
+      </c>
+      <c r="L66" s="6">
+        <v>0</v>
+      </c>
+      <c r="M66" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -9510,7 +9543,7 @@
         <v>0</v>
       </c>
       <c r="M67" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -9589,7 +9622,7 @@
         <v>0</v>
       </c>
       <c r="M69" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -9709,7 +9742,7 @@
         <v>0</v>
       </c>
       <c r="M72" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -9905,7 +9938,7 @@
         <v>0</v>
       </c>
       <c r="M77" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -10250,7 +10283,7 @@
         <v>0</v>
       </c>
       <c r="M86" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -10291,7 +10324,7 @@
         <v>0</v>
       </c>
       <c r="M87" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -10332,7 +10365,7 @@
         <v>0</v>
       </c>
       <c r="M88" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -10373,7 +10406,7 @@
         <v>0</v>
       </c>
       <c r="M89" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -10414,7 +10447,7 @@
         <v>1</v>
       </c>
       <c r="M90" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -10455,7 +10488,7 @@
         <v>0</v>
       </c>
       <c r="M91" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -10835,7 +10868,7 @@
         <v>0</v>
       </c>
       <c r="M101" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -10914,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="M103" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -10955,7 +10988,7 @@
         <v>2</v>
       </c>
       <c r="M104" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -11034,7 +11067,7 @@
         <v>2</v>
       </c>
       <c r="M106" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -11113,7 +11146,7 @@
         <v>0</v>
       </c>
       <c r="M108" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -11154,7 +11187,7 @@
         <v>0</v>
       </c>
       <c r="M109" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -11233,7 +11266,7 @@
         <v>0</v>
       </c>
       <c r="M111" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -11388,7 +11421,7 @@
         <v>0</v>
       </c>
       <c r="M115" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -11467,7 +11500,7 @@
         <v>0</v>
       </c>
       <c r="M117" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -11508,7 +11541,7 @@
         <v>0</v>
       </c>
       <c r="M118" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.35">
@@ -11625,7 +11658,7 @@
         <v>0</v>
       </c>
       <c r="M121" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -11638,8 +11671,8 @@
   <dimension ref="A1:K125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J126" sqref="J126"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12841,7 +12874,7 @@
         <v>448</v>
       </c>
       <c r="C69" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D69">
         <v>3</v>
@@ -12873,7 +12906,7 @@
         <v>447</v>
       </c>
       <c r="C70" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -12905,7 +12938,7 @@
         <v>449</v>
       </c>
       <c r="C71" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -12937,7 +12970,7 @@
         <v>450</v>
       </c>
       <c r="C72" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -13065,7 +13098,7 @@
         <v>450</v>
       </c>
       <c r="C76" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D76">
         <v>4</v>
@@ -13161,7 +13194,7 @@
         <v>449</v>
       </c>
       <c r="C79" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D79">
         <v>8</v>
@@ -13193,7 +13226,7 @@
         <v>450</v>
       </c>
       <c r="C80" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D80">
         <v>12</v>
@@ -13225,7 +13258,7 @@
         <v>448</v>
       </c>
       <c r="C81" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D81">
         <v>14</v>
@@ -13404,22 +13437,22 @@
       <c r="D87">
         <v>0</v>
       </c>
-      <c r="E87" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="H87" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="I87" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="J87" s="10" t="s">
+      <c r="E87" t="s">
+        <v>488</v>
+      </c>
+      <c r="F87" t="s">
+        <v>488</v>
+      </c>
+      <c r="G87" t="s">
+        <v>488</v>
+      </c>
+      <c r="H87" t="s">
+        <v>488</v>
+      </c>
+      <c r="I87" t="s">
+        <v>488</v>
+      </c>
+      <c r="J87" t="s">
         <v>488</v>
       </c>
     </row>
@@ -13436,22 +13469,22 @@
       <c r="D88">
         <v>0</v>
       </c>
-      <c r="E88" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="F88" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="G88" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="H88" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="I88" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="J88" s="10" t="s">
+      <c r="E88" t="s">
+        <v>488</v>
+      </c>
+      <c r="F88" t="s">
+        <v>488</v>
+      </c>
+      <c r="G88" t="s">
+        <v>488</v>
+      </c>
+      <c r="H88" t="s">
+        <v>488</v>
+      </c>
+      <c r="I88" t="s">
+        <v>488</v>
+      </c>
+      <c r="J88" t="s">
         <v>488</v>
       </c>
     </row>
@@ -13468,22 +13501,22 @@
       <c r="D89">
         <v>0</v>
       </c>
-      <c r="E89" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="F89" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="G89" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="H89" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="I89" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="J89" s="10" t="s">
+      <c r="E89" t="s">
+        <v>488</v>
+      </c>
+      <c r="F89" t="s">
+        <v>488</v>
+      </c>
+      <c r="G89" t="s">
+        <v>488</v>
+      </c>
+      <c r="H89" t="s">
+        <v>488</v>
+      </c>
+      <c r="I89" t="s">
+        <v>488</v>
+      </c>
+      <c r="J89" t="s">
         <v>488</v>
       </c>
     </row>
@@ -13500,22 +13533,22 @@
       <c r="D90">
         <v>2</v>
       </c>
-      <c r="E90" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="F90" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="G90" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="H90" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="I90" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="J90" s="10">
+      <c r="E90" t="s">
+        <v>451</v>
+      </c>
+      <c r="F90" t="s">
+        <v>451</v>
+      </c>
+      <c r="G90" t="s">
+        <v>451</v>
+      </c>
+      <c r="H90" t="s">
+        <v>451</v>
+      </c>
+      <c r="I90" t="s">
+        <v>451</v>
+      </c>
+      <c r="J90">
         <v>0</v>
       </c>
     </row>
@@ -13532,19 +13565,19 @@
       <c r="D91">
         <v>10</v>
       </c>
-      <c r="E91" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="F91" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="G91" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="H91" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="I91" s="10" t="s">
+      <c r="E91" t="s">
+        <v>451</v>
+      </c>
+      <c r="F91" t="s">
+        <v>451</v>
+      </c>
+      <c r="G91" t="s">
+        <v>452</v>
+      </c>
+      <c r="H91" t="s">
+        <v>451</v>
+      </c>
+      <c r="I91" t="s">
         <v>451</v>
       </c>
       <c r="J91">
@@ -13564,19 +13597,19 @@
       <c r="D92">
         <v>1</v>
       </c>
-      <c r="E92" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="F92" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="H92" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="I92" s="10" t="s">
+      <c r="E92" t="s">
+        <v>451</v>
+      </c>
+      <c r="F92" t="s">
+        <v>451</v>
+      </c>
+      <c r="G92" t="s">
+        <v>451</v>
+      </c>
+      <c r="H92" t="s">
+        <v>451</v>
+      </c>
+      <c r="I92" t="s">
         <v>451</v>
       </c>
       <c r="J92">
@@ -13596,19 +13629,19 @@
       <c r="D93">
         <v>2</v>
       </c>
-      <c r="E93" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="F93" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="G93" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="H93" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="I93" s="10" t="s">
+      <c r="E93" t="s">
+        <v>451</v>
+      </c>
+      <c r="F93" t="s">
+        <v>451</v>
+      </c>
+      <c r="G93" t="s">
+        <v>451</v>
+      </c>
+      <c r="H93" t="s">
+        <v>451</v>
+      </c>
+      <c r="I93" t="s">
         <v>451</v>
       </c>
       <c r="J93">
@@ -13628,19 +13661,19 @@
       <c r="D94">
         <v>2</v>
       </c>
-      <c r="E94" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="F94" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="H94" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="I94" s="10" t="s">
+      <c r="E94" t="s">
+        <v>451</v>
+      </c>
+      <c r="F94" t="s">
+        <v>451</v>
+      </c>
+      <c r="G94" t="s">
+        <v>451</v>
+      </c>
+      <c r="H94" t="s">
+        <v>451</v>
+      </c>
+      <c r="I94" t="s">
         <v>451</v>
       </c>
       <c r="J94">
@@ -13660,19 +13693,19 @@
       <c r="D95">
         <v>5</v>
       </c>
-      <c r="E95" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="F95" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="H95" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="I95" s="10" t="s">
+      <c r="E95" t="s">
+        <v>451</v>
+      </c>
+      <c r="F95" t="s">
+        <v>451</v>
+      </c>
+      <c r="G95" t="s">
+        <v>451</v>
+      </c>
+      <c r="H95" t="s">
+        <v>451</v>
+      </c>
+      <c r="I95" t="s">
         <v>451</v>
       </c>
       <c r="J95">
@@ -13692,19 +13725,19 @@
       <c r="D96">
         <v>6</v>
       </c>
-      <c r="E96" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="F96" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="G96" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="H96" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="I96" s="10" t="s">
+      <c r="E96" t="s">
+        <v>451</v>
+      </c>
+      <c r="F96" t="s">
+        <v>451</v>
+      </c>
+      <c r="G96" t="s">
+        <v>452</v>
+      </c>
+      <c r="H96" t="s">
+        <v>451</v>
+      </c>
+      <c r="I96" t="s">
         <v>451</v>
       </c>
       <c r="J96">
@@ -13724,19 +13757,19 @@
       <c r="D97">
         <v>2</v>
       </c>
-      <c r="E97" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="F97" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="G97" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="H97" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="I97" s="10" t="s">
+      <c r="E97" t="s">
+        <v>451</v>
+      </c>
+      <c r="F97" t="s">
+        <v>451</v>
+      </c>
+      <c r="G97" t="s">
+        <v>451</v>
+      </c>
+      <c r="H97" t="s">
+        <v>451</v>
+      </c>
+      <c r="I97" t="s">
         <v>451</v>
       </c>
       <c r="J97">
@@ -13756,19 +13789,19 @@
       <c r="D98">
         <v>3</v>
       </c>
-      <c r="E98" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="F98" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="G98" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="H98" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="I98" s="10" t="s">
+      <c r="E98" t="s">
+        <v>451</v>
+      </c>
+      <c r="F98" t="s">
+        <v>451</v>
+      </c>
+      <c r="G98" t="s">
+        <v>451</v>
+      </c>
+      <c r="H98" t="s">
+        <v>451</v>
+      </c>
+      <c r="I98" t="s">
         <v>451</v>
       </c>
       <c r="J98">
@@ -13788,19 +13821,19 @@
       <c r="D99">
         <v>1</v>
       </c>
-      <c r="E99" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="F99" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="G99" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="H99" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="I99" s="10" t="s">
+      <c r="E99" t="s">
+        <v>451</v>
+      </c>
+      <c r="F99" t="s">
+        <v>451</v>
+      </c>
+      <c r="G99" t="s">
+        <v>451</v>
+      </c>
+      <c r="H99" t="s">
+        <v>451</v>
+      </c>
+      <c r="I99" t="s">
         <v>451</v>
       </c>
       <c r="J99">
@@ -13820,19 +13853,19 @@
       <c r="D100">
         <v>6</v>
       </c>
-      <c r="E100" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="F100" s="10" t="s">
+      <c r="E100" t="s">
+        <v>451</v>
+      </c>
+      <c r="F100" t="s">
         <v>451</v>
       </c>
       <c r="G100" t="s">
         <v>452</v>
       </c>
-      <c r="H100" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="I100" s="10" t="s">
+      <c r="H100" t="s">
+        <v>451</v>
+      </c>
+      <c r="I100" t="s">
         <v>451</v>
       </c>
       <c r="J100">
@@ -13852,19 +13885,19 @@
       <c r="D101">
         <v>13</v>
       </c>
-      <c r="E101" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="F101" s="10" t="s">
+      <c r="E101" t="s">
+        <v>451</v>
+      </c>
+      <c r="F101" t="s">
         <v>451</v>
       </c>
       <c r="G101" t="s">
         <v>452</v>
       </c>
-      <c r="H101" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="I101" s="10" t="s">
+      <c r="H101" t="s">
+        <v>451</v>
+      </c>
+      <c r="I101" t="s">
         <v>451</v>
       </c>
       <c r="J101">
@@ -13884,22 +13917,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-      <c r="E102" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="F102" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="G102" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="H102" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="I102" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="J102" s="10" t="s">
+      <c r="E102" t="s">
+        <v>488</v>
+      </c>
+      <c r="F102" t="s">
+        <v>488</v>
+      </c>
+      <c r="G102" t="s">
+        <v>488</v>
+      </c>
+      <c r="H102" t="s">
+        <v>488</v>
+      </c>
+      <c r="I102" t="s">
+        <v>488</v>
+      </c>
+      <c r="J102" t="s">
         <v>488</v>
       </c>
     </row>
@@ -13916,22 +13949,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-      <c r="E103" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="F103" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="G103" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="H103" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="I103" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="J103" s="10" t="s">
+      <c r="E103" t="s">
+        <v>488</v>
+      </c>
+      <c r="F103" t="s">
+        <v>488</v>
+      </c>
+      <c r="G103" t="s">
+        <v>488</v>
+      </c>
+      <c r="H103" t="s">
+        <v>488</v>
+      </c>
+      <c r="I103" t="s">
+        <v>488</v>
+      </c>
+      <c r="J103" t="s">
         <v>488</v>
       </c>
     </row>
@@ -13948,22 +13981,22 @@
       <c r="D104">
         <v>0</v>
       </c>
-      <c r="E104" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="F104" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="G104" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="H104" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="I104" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="J104" s="10" t="s">
+      <c r="E104" t="s">
+        <v>488</v>
+      </c>
+      <c r="F104" t="s">
+        <v>488</v>
+      </c>
+      <c r="G104" t="s">
+        <v>488</v>
+      </c>
+      <c r="H104" t="s">
+        <v>488</v>
+      </c>
+      <c r="I104" t="s">
+        <v>488</v>
+      </c>
+      <c r="J104" t="s">
         <v>488</v>
       </c>
     </row>
@@ -13980,22 +14013,22 @@
       <c r="D105">
         <v>0</v>
       </c>
-      <c r="E105" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="F105" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="G105" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="H105" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="I105" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="J105" s="10" t="s">
+      <c r="E105" t="s">
+        <v>488</v>
+      </c>
+      <c r="F105" t="s">
+        <v>488</v>
+      </c>
+      <c r="G105" t="s">
+        <v>488</v>
+      </c>
+      <c r="H105" t="s">
+        <v>488</v>
+      </c>
+      <c r="I105" t="s">
+        <v>488</v>
+      </c>
+      <c r="J105" t="s">
         <v>488</v>
       </c>
     </row>
@@ -14012,22 +14045,22 @@
       <c r="D106">
         <v>0</v>
       </c>
-      <c r="E106" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="F106" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="G106" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="H106" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="I106" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="J106" s="10" t="s">
+      <c r="E106" t="s">
+        <v>488</v>
+      </c>
+      <c r="F106" t="s">
+        <v>488</v>
+      </c>
+      <c r="G106" t="s">
+        <v>488</v>
+      </c>
+      <c r="H106" t="s">
+        <v>488</v>
+      </c>
+      <c r="I106" t="s">
+        <v>488</v>
+      </c>
+      <c r="J106" t="s">
         <v>488</v>
       </c>
     </row>
@@ -14044,22 +14077,22 @@
       <c r="D107">
         <v>0</v>
       </c>
-      <c r="E107" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="F107" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="G107" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="H107" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="I107" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="J107" s="10" t="s">
+      <c r="E107" t="s">
+        <v>488</v>
+      </c>
+      <c r="F107" t="s">
+        <v>488</v>
+      </c>
+      <c r="G107" t="s">
+        <v>488</v>
+      </c>
+      <c r="H107" t="s">
+        <v>488</v>
+      </c>
+      <c r="I107" t="s">
+        <v>488</v>
+      </c>
+      <c r="J107" t="s">
         <v>488</v>
       </c>
     </row>
@@ -14076,22 +14109,22 @@
       <c r="D108">
         <v>0</v>
       </c>
-      <c r="E108" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="F108" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="G108" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="H108" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="I108" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="J108" s="10" t="s">
+      <c r="E108" t="s">
+        <v>488</v>
+      </c>
+      <c r="F108" t="s">
+        <v>488</v>
+      </c>
+      <c r="G108" t="s">
+        <v>488</v>
+      </c>
+      <c r="H108" t="s">
+        <v>488</v>
+      </c>
+      <c r="I108" t="s">
+        <v>488</v>
+      </c>
+      <c r="J108" t="s">
         <v>488</v>
       </c>
     </row>
@@ -14108,22 +14141,22 @@
       <c r="D109">
         <v>0</v>
       </c>
-      <c r="E109" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="F109" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="G109" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="H109" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="I109" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="J109" s="10" t="s">
+      <c r="E109" t="s">
+        <v>488</v>
+      </c>
+      <c r="F109" t="s">
+        <v>488</v>
+      </c>
+      <c r="G109" t="s">
+        <v>488</v>
+      </c>
+      <c r="H109" t="s">
+        <v>488</v>
+      </c>
+      <c r="I109" t="s">
+        <v>488</v>
+      </c>
+      <c r="J109" t="s">
         <v>488</v>
       </c>
     </row>
@@ -14140,22 +14173,22 @@
       <c r="D110">
         <v>0</v>
       </c>
-      <c r="E110" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="F110" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="G110" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="H110" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="I110" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="J110" s="10" t="s">
+      <c r="E110" t="s">
+        <v>488</v>
+      </c>
+      <c r="F110" t="s">
+        <v>488</v>
+      </c>
+      <c r="G110" t="s">
+        <v>488</v>
+      </c>
+      <c r="H110" t="s">
+        <v>488</v>
+      </c>
+      <c r="I110" t="s">
+        <v>488</v>
+      </c>
+      <c r="J110" t="s">
         <v>488</v>
       </c>
     </row>
@@ -14172,22 +14205,22 @@
       <c r="D111">
         <v>0</v>
       </c>
-      <c r="E111" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="F111" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="G111" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="H111" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="I111" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="J111" s="10" t="s">
+      <c r="E111" t="s">
+        <v>488</v>
+      </c>
+      <c r="F111" t="s">
+        <v>488</v>
+      </c>
+      <c r="G111" t="s">
+        <v>488</v>
+      </c>
+      <c r="H111" t="s">
+        <v>488</v>
+      </c>
+      <c r="I111" t="s">
+        <v>488</v>
+      </c>
+      <c r="J111" t="s">
         <v>488</v>
       </c>
     </row>
@@ -14204,22 +14237,22 @@
       <c r="D112">
         <v>0</v>
       </c>
-      <c r="E112" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="F112" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="G112" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="H112" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="I112" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="J112" s="10" t="s">
+      <c r="E112" t="s">
+        <v>488</v>
+      </c>
+      <c r="F112" t="s">
+        <v>488</v>
+      </c>
+      <c r="G112" t="s">
+        <v>488</v>
+      </c>
+      <c r="H112" t="s">
+        <v>488</v>
+      </c>
+      <c r="I112" t="s">
+        <v>488</v>
+      </c>
+      <c r="J112" t="s">
         <v>488</v>
       </c>
     </row>
@@ -14236,22 +14269,22 @@
       <c r="D113">
         <v>0</v>
       </c>
-      <c r="E113" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="F113" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="G113" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="H113" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="I113" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="J113" s="10" t="s">
+      <c r="E113" t="s">
+        <v>488</v>
+      </c>
+      <c r="F113" t="s">
+        <v>488</v>
+      </c>
+      <c r="G113" t="s">
+        <v>488</v>
+      </c>
+      <c r="H113" t="s">
+        <v>488</v>
+      </c>
+      <c r="I113" t="s">
+        <v>488</v>
+      </c>
+      <c r="J113" t="s">
         <v>488</v>
       </c>
     </row>
@@ -14268,22 +14301,22 @@
       <c r="D114">
         <v>0</v>
       </c>
-      <c r="E114" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="F114" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="G114" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="H114" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="I114" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="J114" s="10" t="s">
+      <c r="E114" t="s">
+        <v>488</v>
+      </c>
+      <c r="F114" t="s">
+        <v>488</v>
+      </c>
+      <c r="G114" t="s">
+        <v>488</v>
+      </c>
+      <c r="H114" t="s">
+        <v>488</v>
+      </c>
+      <c r="I114" t="s">
+        <v>488</v>
+      </c>
+      <c r="J114" t="s">
         <v>488</v>
       </c>
     </row>
@@ -14300,19 +14333,19 @@
       <c r="D115">
         <v>2</v>
       </c>
-      <c r="E115" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="F115" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="G115" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="H115" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="I115" s="10" t="s">
+      <c r="E115" t="s">
+        <v>451</v>
+      </c>
+      <c r="F115" t="s">
+        <v>451</v>
+      </c>
+      <c r="G115" t="s">
+        <v>451</v>
+      </c>
+      <c r="H115" t="s">
+        <v>451</v>
+      </c>
+      <c r="I115" t="s">
         <v>451</v>
       </c>
       <c r="J115">
@@ -14332,19 +14365,19 @@
       <c r="D116">
         <v>1</v>
       </c>
-      <c r="E116" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="F116" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="G116" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="H116" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="I116" s="10" t="s">
+      <c r="E116" t="s">
+        <v>451</v>
+      </c>
+      <c r="F116" t="s">
+        <v>451</v>
+      </c>
+      <c r="G116" t="s">
+        <v>451</v>
+      </c>
+      <c r="H116" t="s">
+        <v>451</v>
+      </c>
+      <c r="I116" t="s">
         <v>451</v>
       </c>
       <c r="J116">
@@ -14364,22 +14397,22 @@
       <c r="D117">
         <v>0</v>
       </c>
-      <c r="E117" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="F117" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="G117" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="H117" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="I117" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="J117" s="10" t="s">
+      <c r="E117" t="s">
+        <v>488</v>
+      </c>
+      <c r="F117" t="s">
+        <v>488</v>
+      </c>
+      <c r="G117" t="s">
+        <v>488</v>
+      </c>
+      <c r="H117" t="s">
+        <v>488</v>
+      </c>
+      <c r="I117" t="s">
+        <v>488</v>
+      </c>
+      <c r="J117" t="s">
         <v>488</v>
       </c>
     </row>
@@ -14396,19 +14429,19 @@
       <c r="D118">
         <v>1</v>
       </c>
-      <c r="E118" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="F118" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="G118" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="H118" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="I118" s="10" t="s">
+      <c r="E118" t="s">
+        <v>451</v>
+      </c>
+      <c r="F118" t="s">
+        <v>451</v>
+      </c>
+      <c r="G118" t="s">
+        <v>451</v>
+      </c>
+      <c r="H118" t="s">
+        <v>451</v>
+      </c>
+      <c r="I118" t="s">
         <v>451</v>
       </c>
       <c r="J118">
@@ -14428,22 +14461,22 @@
       <c r="D119">
         <v>0</v>
       </c>
-      <c r="E119" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="F119" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="G119" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="H119" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="I119" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="J119" s="10" t="s">
+      <c r="E119" t="s">
+        <v>488</v>
+      </c>
+      <c r="F119" t="s">
+        <v>488</v>
+      </c>
+      <c r="G119" t="s">
+        <v>488</v>
+      </c>
+      <c r="H119" t="s">
+        <v>488</v>
+      </c>
+      <c r="I119" t="s">
+        <v>488</v>
+      </c>
+      <c r="J119" t="s">
         <v>488</v>
       </c>
     </row>
@@ -14460,22 +14493,22 @@
       <c r="D120">
         <v>0</v>
       </c>
-      <c r="E120" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="F120" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="G120" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="H120" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="I120" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="J120" s="10" t="s">
+      <c r="E120" t="s">
+        <v>488</v>
+      </c>
+      <c r="F120" t="s">
+        <v>488</v>
+      </c>
+      <c r="G120" t="s">
+        <v>488</v>
+      </c>
+      <c r="H120" t="s">
+        <v>488</v>
+      </c>
+      <c r="I120" t="s">
+        <v>488</v>
+      </c>
+      <c r="J120" t="s">
         <v>488</v>
       </c>
     </row>
@@ -14492,22 +14525,22 @@
       <c r="D121">
         <v>0</v>
       </c>
-      <c r="E121" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="F121" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="G121" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="H121" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="I121" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="J121" s="10" t="s">
+      <c r="E121" t="s">
+        <v>488</v>
+      </c>
+      <c r="F121" t="s">
+        <v>488</v>
+      </c>
+      <c r="G121" t="s">
+        <v>488</v>
+      </c>
+      <c r="H121" t="s">
+        <v>488</v>
+      </c>
+      <c r="I121" t="s">
+        <v>488</v>
+      </c>
+      <c r="J121" t="s">
         <v>488</v>
       </c>
     </row>
@@ -14524,19 +14557,19 @@
       <c r="D122">
         <v>3</v>
       </c>
-      <c r="E122" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="F122" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="G122" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="H122" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="I122" s="10" t="s">
+      <c r="E122" t="s">
+        <v>451</v>
+      </c>
+      <c r="F122" t="s">
+        <v>451</v>
+      </c>
+      <c r="G122" t="s">
+        <v>452</v>
+      </c>
+      <c r="H122" t="s">
+        <v>451</v>
+      </c>
+      <c r="I122" t="s">
         <v>451</v>
       </c>
       <c r="J122">
@@ -14556,19 +14589,19 @@
       <c r="D123">
         <v>5</v>
       </c>
-      <c r="E123" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="F123" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="G123" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="H123" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="I123" s="10" t="s">
+      <c r="E123" t="s">
+        <v>451</v>
+      </c>
+      <c r="F123" t="s">
+        <v>451</v>
+      </c>
+      <c r="G123" t="s">
+        <v>451</v>
+      </c>
+      <c r="H123" t="s">
+        <v>451</v>
+      </c>
+      <c r="I123" t="s">
         <v>451</v>
       </c>
       <c r="J123">
@@ -14588,19 +14621,19 @@
       <c r="D124">
         <v>3</v>
       </c>
-      <c r="E124" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="F124" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="G124" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="H124" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="I124" s="10" t="s">
+      <c r="E124" t="s">
+        <v>451</v>
+      </c>
+      <c r="F124" t="s">
+        <v>451</v>
+      </c>
+      <c r="G124" t="s">
+        <v>451</v>
+      </c>
+      <c r="H124" t="s">
+        <v>451</v>
+      </c>
+      <c r="I124" t="s">
         <v>451</v>
       </c>
       <c r="J124">
@@ -14620,19 +14653,19 @@
       <c r="D125">
         <v>12</v>
       </c>
-      <c r="E125" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="F125" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="G125" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="H125" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="I125" s="10" t="s">
+      <c r="E125" t="s">
+        <v>451</v>
+      </c>
+      <c r="F125" t="s">
+        <v>451</v>
+      </c>
+      <c r="G125" t="s">
+        <v>452</v>
+      </c>
+      <c r="H125" t="s">
+        <v>451</v>
+      </c>
+      <c r="I125" t="s">
         <v>451</v>
       </c>
       <c r="J125">
@@ -14646,11 +14679,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA95277-679F-4206-8ACD-7B30D3EACF40}">
-  <dimension ref="A1:T162"/>
+  <dimension ref="A1:T237"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M83" sqref="M83"/>
+      <pane ySplit="1" topLeftCell="A201" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C219" sqref="C219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18446,6 +18479,51 @@
       <c r="C72" t="s">
         <v>454</v>
       </c>
+      <c r="D72" t="s">
+        <v>488</v>
+      </c>
+      <c r="E72" t="s">
+        <v>488</v>
+      </c>
+      <c r="F72" t="s">
+        <v>488</v>
+      </c>
+      <c r="G72" t="s">
+        <v>488</v>
+      </c>
+      <c r="H72" t="s">
+        <v>488</v>
+      </c>
+      <c r="I72" t="s">
+        <v>488</v>
+      </c>
+      <c r="J72" t="s">
+        <v>488</v>
+      </c>
+      <c r="K72" t="s">
+        <v>488</v>
+      </c>
+      <c r="L72" t="s">
+        <v>488</v>
+      </c>
+      <c r="M72" t="s">
+        <v>488</v>
+      </c>
+      <c r="N72" t="s">
+        <v>488</v>
+      </c>
+      <c r="O72" t="s">
+        <v>488</v>
+      </c>
+      <c r="P72" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>488</v>
+      </c>
+      <c r="R72" t="s">
+        <v>488</v>
+      </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A73">
@@ -18605,7 +18683,7 @@
         <v>1</v>
       </c>
       <c r="S76" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.35">
@@ -18655,7 +18733,7 @@
         <v>0</v>
       </c>
       <c r="S77" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.35">
@@ -18705,7 +18783,7 @@
         <v>4</v>
       </c>
       <c r="S78" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.35">
@@ -18725,7 +18803,7 @@
         <v>11.3</v>
       </c>
       <c r="F79" t="s">
-        <v>605</v>
+        <v>673</v>
       </c>
       <c r="H79">
         <v>5.0999999999999996</v>
@@ -18896,7 +18974,7 @@
         <v>0</v>
       </c>
       <c r="S82" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="83" spans="1:20" ht="130" customHeight="1" x14ac:dyDescent="0.35">
@@ -18916,7 +18994,7 @@
         <v>5.09</v>
       </c>
       <c r="F83" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H83">
         <v>7.9</v>
@@ -18949,7 +19027,7 @@
         <v>3</v>
       </c>
       <c r="S83" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="T83" t="e" vm="1">
         <v>#VALUE!</v>
@@ -19049,7 +19127,7 @@
         <v>0</v>
       </c>
       <c r="S85" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.35">
@@ -19099,7 +19177,7 @@
         <v>0</v>
       </c>
       <c r="S86" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.35">
@@ -19196,7 +19274,7 @@
         <v>0</v>
       </c>
       <c r="S88" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.35">
@@ -19293,7 +19371,7 @@
         <v>0</v>
       </c>
       <c r="S90" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.35">
@@ -19343,7 +19421,7 @@
         <v>0</v>
       </c>
       <c r="S91" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="92" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -19398,7 +19476,7 @@
         <v>38</v>
       </c>
       <c r="B93" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C93" t="s">
         <v>448</v>
@@ -19584,7 +19662,7 @@
         <v>0</v>
       </c>
       <c r="S96" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.35">
@@ -19880,7 +19958,7 @@
         <v>450</v>
       </c>
       <c r="E103" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H103">
         <v>4.4000000000000004</v>
@@ -19918,7 +19996,7 @@
         <v>450</v>
       </c>
       <c r="E104" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H104">
         <v>6.9</v>
@@ -19956,7 +20034,7 @@
         <v>450</v>
       </c>
       <c r="E105" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H105">
         <v>4</v>
@@ -19994,7 +20072,7 @@
         <v>450</v>
       </c>
       <c r="E106" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H106">
         <v>4.8</v>
@@ -20032,7 +20110,7 @@
         <v>450</v>
       </c>
       <c r="E107" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H107">
         <v>2.7</v>
@@ -20070,7 +20148,7 @@
         <v>450</v>
       </c>
       <c r="E108" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H108">
         <v>10.3</v>
@@ -20108,7 +20186,7 @@
         <v>450</v>
       </c>
       <c r="E109" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H109">
         <v>4.9000000000000004</v>
@@ -20146,7 +20224,7 @@
         <v>450</v>
       </c>
       <c r="E110" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H110">
         <v>3.6</v>
@@ -20184,7 +20262,7 @@
         <v>450</v>
       </c>
       <c r="E111" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H111">
         <v>5.5</v>
@@ -20222,7 +20300,7 @@
         <v>450</v>
       </c>
       <c r="E112" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H112">
         <v>5.5</v>
@@ -20260,7 +20338,7 @@
         <v>450</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H113" s="6">
         <v>7.8</v>
@@ -20301,7 +20379,7 @@
         <v>450</v>
       </c>
       <c r="E114" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H114">
         <v>3.2</v>
@@ -20339,7 +20417,7 @@
         <v>450</v>
       </c>
       <c r="E115" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H115">
         <v>2.6</v>
@@ -20377,7 +20455,7 @@
         <v>450</v>
       </c>
       <c r="E116" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H116">
         <v>5</v>
@@ -20415,7 +20493,7 @@
         <v>448</v>
       </c>
       <c r="E117" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H117">
         <v>6.3</v>
@@ -20453,7 +20531,7 @@
         <v>448</v>
       </c>
       <c r="E118" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H118">
         <v>5</v>
@@ -20491,7 +20569,7 @@
         <v>448</v>
       </c>
       <c r="E119" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H119">
         <v>6.4</v>
@@ -20529,7 +20607,7 @@
         <v>448</v>
       </c>
       <c r="E120" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H120">
         <v>6.3</v>
@@ -20550,7 +20628,7 @@
         <v>452</v>
       </c>
       <c r="S120" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="121" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -20564,7 +20642,7 @@
         <v>447</v>
       </c>
       <c r="E121" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H121" s="6">
         <v>5.0999999999999996</v>
@@ -20602,7 +20680,7 @@
         <v>448</v>
       </c>
       <c r="E122" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H122">
         <v>2.9</v>
@@ -20640,7 +20718,7 @@
         <v>447</v>
       </c>
       <c r="E123" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H123">
         <v>4.5</v>
@@ -20678,7 +20756,7 @@
         <v>447</v>
       </c>
       <c r="E124" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H124">
         <v>5.3</v>
@@ -20716,7 +20794,7 @@
         <v>449</v>
       </c>
       <c r="E125" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H125">
         <v>6.6</v>
@@ -20754,7 +20832,7 @@
         <v>449</v>
       </c>
       <c r="E126" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H126">
         <v>5.0999999999999996</v>
@@ -20792,7 +20870,7 @@
         <v>449</v>
       </c>
       <c r="E127" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H127">
         <v>8.6</v>
@@ -20819,7 +20897,7 @@
         <v>451</v>
       </c>
       <c r="S127" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.35">
@@ -20833,7 +20911,7 @@
         <v>449</v>
       </c>
       <c r="E128" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H128">
         <v>8.5</v>
@@ -20871,7 +20949,7 @@
         <v>449</v>
       </c>
       <c r="E129" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H129">
         <v>3.1</v>
@@ -20909,7 +20987,7 @@
         <v>449</v>
       </c>
       <c r="E130" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H130">
         <v>5</v>
@@ -20947,7 +21025,7 @@
         <v>449</v>
       </c>
       <c r="E131" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H131">
         <v>7</v>
@@ -20985,7 +21063,7 @@
         <v>449</v>
       </c>
       <c r="E132" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H132">
         <v>5.8</v>
@@ -21023,7 +21101,7 @@
         <v>449</v>
       </c>
       <c r="E133" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H133">
         <v>5.9</v>
@@ -21061,7 +21139,7 @@
         <v>449</v>
       </c>
       <c r="E134" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H134">
         <v>5.4</v>
@@ -21099,7 +21177,7 @@
         <v>449</v>
       </c>
       <c r="E135" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H135">
         <v>2.9</v>
@@ -21137,7 +21215,7 @@
         <v>449</v>
       </c>
       <c r="E136" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H136">
         <v>5.8</v>
@@ -21175,7 +21253,7 @@
         <v>449</v>
       </c>
       <c r="E137" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H137">
         <v>3.9</v>
@@ -21213,7 +21291,7 @@
         <v>449</v>
       </c>
       <c r="E138" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H138">
         <v>8.6999999999999993</v>
@@ -21240,7 +21318,7 @@
         <v>451</v>
       </c>
       <c r="S138" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.35">
@@ -21254,7 +21332,7 @@
         <v>449</v>
       </c>
       <c r="E139" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H139">
         <v>5.3</v>
@@ -21292,7 +21370,7 @@
         <v>449</v>
       </c>
       <c r="E140" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H140">
         <v>4.0999999999999996</v>
@@ -21330,7 +21408,7 @@
         <v>449</v>
       </c>
       <c r="E141" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H141">
         <v>8.5</v>
@@ -21368,7 +21446,7 @@
         <v>449</v>
       </c>
       <c r="E142" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H142">
         <v>6.2</v>
@@ -21406,7 +21484,7 @@
         <v>448</v>
       </c>
       <c r="E143" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H143">
         <v>6.6</v>
@@ -21444,7 +21522,7 @@
         <v>448</v>
       </c>
       <c r="E144" s="6" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H144" s="6">
         <v>6</v>
@@ -21482,7 +21560,7 @@
         <v>448</v>
       </c>
       <c r="E145" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H145">
         <v>9.5</v>
@@ -21520,7 +21598,7 @@
         <v>448</v>
       </c>
       <c r="E146" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H146">
         <v>6.5</v>
@@ -21558,7 +21636,7 @@
         <v>448</v>
       </c>
       <c r="E147" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H147">
         <v>6.1</v>
@@ -21596,7 +21674,7 @@
         <v>448</v>
       </c>
       <c r="E148" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H148">
         <v>5</v>
@@ -21634,7 +21712,7 @@
         <v>448</v>
       </c>
       <c r="E149" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H149">
         <v>6.2</v>
@@ -21672,10 +21750,10 @@
         <v>448</v>
       </c>
       <c r="E150" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H150">
-        <v>6.6</v>
+        <v>6</v>
       </c>
       <c r="I150">
         <v>1</v>
@@ -21710,7 +21788,7 @@
         <v>448</v>
       </c>
       <c r="E151" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H151">
         <v>4.5999999999999996</v>
@@ -21786,7 +21864,7 @@
         <v>447</v>
       </c>
       <c r="E153" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H153" s="6">
         <v>4.8</v>
@@ -21824,7 +21902,7 @@
         <v>449</v>
       </c>
       <c r="E154" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H154">
         <v>3.4</v>
@@ -21862,7 +21940,7 @@
         <v>449</v>
       </c>
       <c r="E155" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H155">
         <v>2.7</v>
@@ -21900,7 +21978,7 @@
         <v>450</v>
       </c>
       <c r="E156" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H156">
         <v>3.1</v>
@@ -21938,7 +22016,7 @@
         <v>450</v>
       </c>
       <c r="E157" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H157">
         <v>3</v>
@@ -21976,7 +22054,7 @@
         <v>448</v>
       </c>
       <c r="E158" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H158">
         <v>2.6</v>
@@ -22014,7 +22092,7 @@
         <v>448</v>
       </c>
       <c r="E159" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H159">
         <v>5.7</v>
@@ -22052,7 +22130,7 @@
         <v>448</v>
       </c>
       <c r="E160" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="H160">
         <v>2.7</v>
@@ -22089,8 +22167,8 @@
       <c r="C161" t="s">
         <v>447</v>
       </c>
-      <c r="E161" t="s">
-        <v>613</v>
+      <c r="E161">
+        <v>17.8</v>
       </c>
       <c r="H161">
         <v>2.9</v>
@@ -22117,7 +22195,7 @@
         <v>451</v>
       </c>
       <c r="S161" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.35">
@@ -22177,6 +22255,3057 @@
       </c>
       <c r="S162" t="s">
         <v>488</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="6">
+        <v>26</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D163" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="E163" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="G163" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="H163" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="I163" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="J163" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="K163" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="L163" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="M163" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="N163" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="O163" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="P163" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q163" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="R163" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="S163" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>27</v>
+      </c>
+      <c r="B164" t="s">
+        <v>488</v>
+      </c>
+      <c r="C164" t="s">
+        <v>454</v>
+      </c>
+      <c r="D164" t="s">
+        <v>488</v>
+      </c>
+      <c r="E164" t="s">
+        <v>488</v>
+      </c>
+      <c r="F164" t="s">
+        <v>488</v>
+      </c>
+      <c r="G164" t="s">
+        <v>488</v>
+      </c>
+      <c r="H164" t="s">
+        <v>488</v>
+      </c>
+      <c r="I164" t="s">
+        <v>488</v>
+      </c>
+      <c r="J164" t="s">
+        <v>488</v>
+      </c>
+      <c r="K164" t="s">
+        <v>488</v>
+      </c>
+      <c r="L164" t="s">
+        <v>488</v>
+      </c>
+      <c r="M164" t="s">
+        <v>488</v>
+      </c>
+      <c r="N164" t="s">
+        <v>488</v>
+      </c>
+      <c r="O164" t="s">
+        <v>488</v>
+      </c>
+      <c r="P164" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>488</v>
+      </c>
+      <c r="R164" t="s">
+        <v>488</v>
+      </c>
+      <c r="S164" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>33</v>
+      </c>
+      <c r="B165" t="s">
+        <v>486</v>
+      </c>
+      <c r="C165" t="s">
+        <v>448</v>
+      </c>
+      <c r="E165" t="s">
+        <v>611</v>
+      </c>
+      <c r="H165">
+        <v>3.2</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165" t="s">
+        <v>39</v>
+      </c>
+      <c r="K165" t="s">
+        <v>451</v>
+      </c>
+      <c r="L165" t="s">
+        <v>451</v>
+      </c>
+      <c r="M165" t="s">
+        <v>451</v>
+      </c>
+      <c r="N165" t="s">
+        <v>451</v>
+      </c>
+      <c r="O165" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>33</v>
+      </c>
+      <c r="B166" t="s">
+        <v>486</v>
+      </c>
+      <c r="C166" t="s">
+        <v>448</v>
+      </c>
+      <c r="E166" t="s">
+        <v>611</v>
+      </c>
+      <c r="H166">
+        <v>2.6</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166" t="s">
+        <v>39</v>
+      </c>
+      <c r="K166" t="s">
+        <v>451</v>
+      </c>
+      <c r="L166" t="s">
+        <v>451</v>
+      </c>
+      <c r="M166" t="s">
+        <v>451</v>
+      </c>
+      <c r="N166" t="s">
+        <v>451</v>
+      </c>
+      <c r="O166" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>33</v>
+      </c>
+      <c r="B167" t="s">
+        <v>504</v>
+      </c>
+      <c r="C167" t="s">
+        <v>450</v>
+      </c>
+      <c r="E167" t="s">
+        <v>611</v>
+      </c>
+      <c r="H167">
+        <v>3.1</v>
+      </c>
+      <c r="I167">
+        <v>5</v>
+      </c>
+      <c r="J167" t="s">
+        <v>39</v>
+      </c>
+      <c r="K167" t="s">
+        <v>451</v>
+      </c>
+      <c r="L167" t="s">
+        <v>452</v>
+      </c>
+      <c r="M167" t="s">
+        <v>452</v>
+      </c>
+      <c r="N167" t="s">
+        <v>452</v>
+      </c>
+      <c r="O167" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>33</v>
+      </c>
+      <c r="B168" t="s">
+        <v>486</v>
+      </c>
+      <c r="C168" t="s">
+        <v>450</v>
+      </c>
+      <c r="E168" t="s">
+        <v>611</v>
+      </c>
+      <c r="H168">
+        <v>3.3</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168" t="s">
+        <v>39</v>
+      </c>
+      <c r="K168" t="s">
+        <v>451</v>
+      </c>
+      <c r="L168" t="s">
+        <v>451</v>
+      </c>
+      <c r="M168" t="s">
+        <v>452</v>
+      </c>
+      <c r="N168" t="s">
+        <v>451</v>
+      </c>
+      <c r="O168" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>31</v>
+      </c>
+      <c r="B169" t="s">
+        <v>488</v>
+      </c>
+      <c r="C169" t="s">
+        <v>454</v>
+      </c>
+      <c r="D169" t="s">
+        <v>488</v>
+      </c>
+      <c r="E169" t="s">
+        <v>488</v>
+      </c>
+      <c r="F169" t="s">
+        <v>488</v>
+      </c>
+      <c r="G169" t="s">
+        <v>488</v>
+      </c>
+      <c r="H169" t="s">
+        <v>488</v>
+      </c>
+      <c r="I169" t="s">
+        <v>488</v>
+      </c>
+      <c r="J169" t="s">
+        <v>488</v>
+      </c>
+      <c r="K169" t="s">
+        <v>488</v>
+      </c>
+      <c r="L169" t="s">
+        <v>488</v>
+      </c>
+      <c r="M169" t="s">
+        <v>488</v>
+      </c>
+      <c r="N169" t="s">
+        <v>488</v>
+      </c>
+      <c r="O169" t="s">
+        <v>488</v>
+      </c>
+      <c r="P169" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>488</v>
+      </c>
+      <c r="R169" t="s">
+        <v>488</v>
+      </c>
+      <c r="S169" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>32</v>
+      </c>
+      <c r="B170" t="s">
+        <v>488</v>
+      </c>
+      <c r="C170" t="s">
+        <v>454</v>
+      </c>
+      <c r="D170" t="s">
+        <v>488</v>
+      </c>
+      <c r="E170" t="s">
+        <v>488</v>
+      </c>
+      <c r="F170" t="s">
+        <v>488</v>
+      </c>
+      <c r="G170" t="s">
+        <v>488</v>
+      </c>
+      <c r="H170" t="s">
+        <v>488</v>
+      </c>
+      <c r="I170" t="s">
+        <v>488</v>
+      </c>
+      <c r="J170" t="s">
+        <v>488</v>
+      </c>
+      <c r="K170" t="s">
+        <v>488</v>
+      </c>
+      <c r="L170" t="s">
+        <v>488</v>
+      </c>
+      <c r="M170" t="s">
+        <v>488</v>
+      </c>
+      <c r="N170" t="s">
+        <v>488</v>
+      </c>
+      <c r="O170" t="s">
+        <v>488</v>
+      </c>
+      <c r="P170" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>488</v>
+      </c>
+      <c r="R170" t="s">
+        <v>488</v>
+      </c>
+      <c r="S170" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>36</v>
+      </c>
+      <c r="B171" t="s">
+        <v>488</v>
+      </c>
+      <c r="C171" t="s">
+        <v>454</v>
+      </c>
+      <c r="D171" t="s">
+        <v>488</v>
+      </c>
+      <c r="E171" t="s">
+        <v>488</v>
+      </c>
+      <c r="F171" t="s">
+        <v>488</v>
+      </c>
+      <c r="G171" t="s">
+        <v>488</v>
+      </c>
+      <c r="H171" t="s">
+        <v>488</v>
+      </c>
+      <c r="I171" t="s">
+        <v>488</v>
+      </c>
+      <c r="J171" t="s">
+        <v>488</v>
+      </c>
+      <c r="K171" t="s">
+        <v>488</v>
+      </c>
+      <c r="L171" t="s">
+        <v>488</v>
+      </c>
+      <c r="M171" t="s">
+        <v>488</v>
+      </c>
+      <c r="N171" t="s">
+        <v>488</v>
+      </c>
+      <c r="O171" t="s">
+        <v>488</v>
+      </c>
+      <c r="P171" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>488</v>
+      </c>
+      <c r="R171" t="s">
+        <v>488</v>
+      </c>
+      <c r="S171" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="172" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>35</v>
+      </c>
+      <c r="B172" t="s">
+        <v>488</v>
+      </c>
+      <c r="C172" t="s">
+        <v>454</v>
+      </c>
+      <c r="D172" t="s">
+        <v>488</v>
+      </c>
+      <c r="E172" t="s">
+        <v>488</v>
+      </c>
+      <c r="F172" t="s">
+        <v>488</v>
+      </c>
+      <c r="G172" t="s">
+        <v>488</v>
+      </c>
+      <c r="H172" t="s">
+        <v>488</v>
+      </c>
+      <c r="I172" t="s">
+        <v>488</v>
+      </c>
+      <c r="J172" t="s">
+        <v>488</v>
+      </c>
+      <c r="K172" t="s">
+        <v>488</v>
+      </c>
+      <c r="L172" t="s">
+        <v>488</v>
+      </c>
+      <c r="M172" t="s">
+        <v>488</v>
+      </c>
+      <c r="N172" t="s">
+        <v>488</v>
+      </c>
+      <c r="O172" t="s">
+        <v>488</v>
+      </c>
+      <c r="P172" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>488</v>
+      </c>
+      <c r="R172" t="s">
+        <v>488</v>
+      </c>
+      <c r="S172" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>34</v>
+      </c>
+      <c r="B173" t="s">
+        <v>488</v>
+      </c>
+      <c r="C173" t="s">
+        <v>454</v>
+      </c>
+      <c r="D173" t="s">
+        <v>488</v>
+      </c>
+      <c r="E173" t="s">
+        <v>488</v>
+      </c>
+      <c r="F173" t="s">
+        <v>488</v>
+      </c>
+      <c r="G173" t="s">
+        <v>488</v>
+      </c>
+      <c r="H173" t="s">
+        <v>488</v>
+      </c>
+      <c r="I173" t="s">
+        <v>488</v>
+      </c>
+      <c r="J173" t="s">
+        <v>488</v>
+      </c>
+      <c r="K173" t="s">
+        <v>488</v>
+      </c>
+      <c r="L173" t="s">
+        <v>488</v>
+      </c>
+      <c r="M173" t="s">
+        <v>488</v>
+      </c>
+      <c r="N173" t="s">
+        <v>488</v>
+      </c>
+      <c r="O173" t="s">
+        <v>488</v>
+      </c>
+      <c r="P173" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>488</v>
+      </c>
+      <c r="R173" t="s">
+        <v>488</v>
+      </c>
+      <c r="S173" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>63</v>
+      </c>
+      <c r="B174" t="s">
+        <v>535</v>
+      </c>
+      <c r="C174" t="s">
+        <v>447</v>
+      </c>
+      <c r="E174" t="s">
+        <v>611</v>
+      </c>
+      <c r="F174" t="s">
+        <v>666</v>
+      </c>
+      <c r="H174">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174" t="s">
+        <v>189</v>
+      </c>
+      <c r="K174" t="s">
+        <v>451</v>
+      </c>
+      <c r="L174" t="s">
+        <v>451</v>
+      </c>
+      <c r="M174" t="s">
+        <v>451</v>
+      </c>
+      <c r="N174" t="s">
+        <v>451</v>
+      </c>
+      <c r="O174" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>63</v>
+      </c>
+      <c r="B175" t="s">
+        <v>486</v>
+      </c>
+      <c r="C175" t="s">
+        <v>447</v>
+      </c>
+      <c r="E175" t="s">
+        <v>611</v>
+      </c>
+      <c r="H175">
+        <v>4</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175" t="s">
+        <v>189</v>
+      </c>
+      <c r="K175" t="s">
+        <v>451</v>
+      </c>
+      <c r="L175" t="s">
+        <v>451</v>
+      </c>
+      <c r="M175" t="s">
+        <v>451</v>
+      </c>
+      <c r="N175" t="s">
+        <v>451</v>
+      </c>
+      <c r="O175" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>63</v>
+      </c>
+      <c r="B176" t="s">
+        <v>486</v>
+      </c>
+      <c r="C176" t="s">
+        <v>447</v>
+      </c>
+      <c r="E176" t="s">
+        <v>611</v>
+      </c>
+      <c r="H176">
+        <v>6</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176" t="s">
+        <v>189</v>
+      </c>
+      <c r="K176" t="s">
+        <v>451</v>
+      </c>
+      <c r="L176" t="s">
+        <v>451</v>
+      </c>
+      <c r="M176" t="s">
+        <v>451</v>
+      </c>
+      <c r="N176" t="s">
+        <v>451</v>
+      </c>
+      <c r="O176" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="177" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>63</v>
+      </c>
+      <c r="B177" t="s">
+        <v>486</v>
+      </c>
+      <c r="C177" t="s">
+        <v>447</v>
+      </c>
+      <c r="E177" t="s">
+        <v>611</v>
+      </c>
+      <c r="H177">
+        <v>3.5</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177" t="s">
+        <v>189</v>
+      </c>
+      <c r="K177" t="s">
+        <v>451</v>
+      </c>
+      <c r="L177" t="s">
+        <v>451</v>
+      </c>
+      <c r="M177" t="s">
+        <v>451</v>
+      </c>
+      <c r="N177" t="s">
+        <v>451</v>
+      </c>
+      <c r="O177" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="178" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>63</v>
+      </c>
+      <c r="B178" t="s">
+        <v>486</v>
+      </c>
+      <c r="C178" t="s">
+        <v>447</v>
+      </c>
+      <c r="E178" t="s">
+        <v>611</v>
+      </c>
+      <c r="H178">
+        <v>2.7</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178" t="s">
+        <v>189</v>
+      </c>
+      <c r="K178" t="s">
+        <v>451</v>
+      </c>
+      <c r="L178" t="s">
+        <v>451</v>
+      </c>
+      <c r="M178" t="s">
+        <v>451</v>
+      </c>
+      <c r="N178" t="s">
+        <v>451</v>
+      </c>
+      <c r="O178" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>63</v>
+      </c>
+      <c r="B179" t="s">
+        <v>486</v>
+      </c>
+      <c r="C179" t="s">
+        <v>447</v>
+      </c>
+      <c r="E179" t="s">
+        <v>611</v>
+      </c>
+      <c r="H179">
+        <v>3</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179" t="s">
+        <v>39</v>
+      </c>
+      <c r="K179" t="s">
+        <v>451</v>
+      </c>
+      <c r="L179" t="s">
+        <v>451</v>
+      </c>
+      <c r="M179" t="s">
+        <v>451</v>
+      </c>
+      <c r="N179" t="s">
+        <v>451</v>
+      </c>
+      <c r="O179" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>63</v>
+      </c>
+      <c r="B180" t="s">
+        <v>533</v>
+      </c>
+      <c r="C180" t="s">
+        <v>448</v>
+      </c>
+      <c r="E180" t="s">
+        <v>611</v>
+      </c>
+      <c r="H180">
+        <v>3.8</v>
+      </c>
+      <c r="I180">
+        <v>2</v>
+      </c>
+      <c r="J180" t="s">
+        <v>39</v>
+      </c>
+      <c r="K180" t="s">
+        <v>451</v>
+      </c>
+      <c r="L180" t="s">
+        <v>451</v>
+      </c>
+      <c r="M180" t="s">
+        <v>452</v>
+      </c>
+      <c r="N180" t="s">
+        <v>451</v>
+      </c>
+      <c r="O180" t="s">
+        <v>451</v>
+      </c>
+      <c r="S180" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>63</v>
+      </c>
+      <c r="B181" t="s">
+        <v>486</v>
+      </c>
+      <c r="C181" t="s">
+        <v>448</v>
+      </c>
+      <c r="E181" t="s">
+        <v>611</v>
+      </c>
+      <c r="H181">
+        <v>4.2</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181" t="s">
+        <v>189</v>
+      </c>
+      <c r="K181" t="s">
+        <v>451</v>
+      </c>
+      <c r="L181" t="s">
+        <v>451</v>
+      </c>
+      <c r="M181" t="s">
+        <v>452</v>
+      </c>
+      <c r="N181" t="s">
+        <v>451</v>
+      </c>
+      <c r="O181" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>63</v>
+      </c>
+      <c r="B182" t="s">
+        <v>486</v>
+      </c>
+      <c r="C182" t="s">
+        <v>448</v>
+      </c>
+      <c r="E182" t="s">
+        <v>611</v>
+      </c>
+      <c r="H182">
+        <v>2.5</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182" t="s">
+        <v>39</v>
+      </c>
+      <c r="K182" t="s">
+        <v>451</v>
+      </c>
+      <c r="L182" t="s">
+        <v>451</v>
+      </c>
+      <c r="M182" t="s">
+        <v>452</v>
+      </c>
+      <c r="N182" t="s">
+        <v>451</v>
+      </c>
+      <c r="O182" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>63</v>
+      </c>
+      <c r="B183" t="s">
+        <v>486</v>
+      </c>
+      <c r="C183" t="s">
+        <v>448</v>
+      </c>
+      <c r="E183" t="s">
+        <v>611</v>
+      </c>
+      <c r="F183" t="s">
+        <v>667</v>
+      </c>
+      <c r="H183">
+        <v>4.8</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183" t="s">
+        <v>189</v>
+      </c>
+      <c r="K183" t="s">
+        <v>451</v>
+      </c>
+      <c r="L183" t="s">
+        <v>451</v>
+      </c>
+      <c r="M183" t="s">
+        <v>452</v>
+      </c>
+      <c r="N183" t="s">
+        <v>451</v>
+      </c>
+      <c r="O183" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>63</v>
+      </c>
+      <c r="B184" t="s">
+        <v>486</v>
+      </c>
+      <c r="C184" t="s">
+        <v>447</v>
+      </c>
+      <c r="E184" t="s">
+        <v>611</v>
+      </c>
+      <c r="H184">
+        <v>6.2</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184" t="s">
+        <v>189</v>
+      </c>
+      <c r="K184" t="s">
+        <v>451</v>
+      </c>
+      <c r="L184" t="s">
+        <v>451</v>
+      </c>
+      <c r="M184" t="s">
+        <v>452</v>
+      </c>
+      <c r="N184" t="s">
+        <v>451</v>
+      </c>
+      <c r="O184" t="s">
+        <v>451</v>
+      </c>
+      <c r="P184" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>63</v>
+      </c>
+      <c r="B185" t="s">
+        <v>486</v>
+      </c>
+      <c r="C185" t="s">
+        <v>448</v>
+      </c>
+      <c r="E185" t="s">
+        <v>611</v>
+      </c>
+      <c r="H185">
+        <v>2.6</v>
+      </c>
+      <c r="I185">
+        <v>2</v>
+      </c>
+      <c r="J185" t="s">
+        <v>189</v>
+      </c>
+      <c r="K185" t="s">
+        <v>451</v>
+      </c>
+      <c r="L185" t="s">
+        <v>451</v>
+      </c>
+      <c r="M185" t="s">
+        <v>451</v>
+      </c>
+      <c r="N185" t="s">
+        <v>451</v>
+      </c>
+      <c r="O185" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>63</v>
+      </c>
+      <c r="B186" t="s">
+        <v>486</v>
+      </c>
+      <c r="C186" t="s">
+        <v>448</v>
+      </c>
+      <c r="E186" t="s">
+        <v>611</v>
+      </c>
+      <c r="H186">
+        <v>3</v>
+      </c>
+      <c r="I186">
+        <v>2</v>
+      </c>
+      <c r="J186" t="s">
+        <v>189</v>
+      </c>
+      <c r="K186" t="s">
+        <v>451</v>
+      </c>
+      <c r="L186" t="s">
+        <v>451</v>
+      </c>
+      <c r="M186" t="s">
+        <v>452</v>
+      </c>
+      <c r="N186" t="s">
+        <v>451</v>
+      </c>
+      <c r="O186" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="6">
+        <v>63</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="E187" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="H187" s="6">
+        <v>5.8</v>
+      </c>
+      <c r="I187" s="6">
+        <v>1</v>
+      </c>
+      <c r="J187" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K187" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="L187" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="M187" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="N187" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="O187" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>63</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="C188" t="s">
+        <v>448</v>
+      </c>
+      <c r="E188" t="s">
+        <v>611</v>
+      </c>
+      <c r="H188">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188" t="s">
+        <v>98</v>
+      </c>
+      <c r="K188" t="s">
+        <v>451</v>
+      </c>
+      <c r="L188" t="s">
+        <v>451</v>
+      </c>
+      <c r="M188" t="s">
+        <v>452</v>
+      </c>
+      <c r="N188" t="s">
+        <v>451</v>
+      </c>
+      <c r="O188" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>63</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="C189" t="s">
+        <v>448</v>
+      </c>
+      <c r="E189" t="s">
+        <v>611</v>
+      </c>
+      <c r="H189">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I189">
+        <v>4</v>
+      </c>
+      <c r="J189" t="s">
+        <v>189</v>
+      </c>
+      <c r="K189" t="s">
+        <v>451</v>
+      </c>
+      <c r="L189" t="s">
+        <v>451</v>
+      </c>
+      <c r="M189" t="s">
+        <v>452</v>
+      </c>
+      <c r="N189" t="s">
+        <v>451</v>
+      </c>
+      <c r="O189" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>63</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="C190" t="s">
+        <v>448</v>
+      </c>
+      <c r="E190" t="s">
+        <v>611</v>
+      </c>
+      <c r="H190">
+        <v>6.5</v>
+      </c>
+      <c r="I190">
+        <v>2</v>
+      </c>
+      <c r="J190" t="s">
+        <v>189</v>
+      </c>
+      <c r="K190" t="s">
+        <v>451</v>
+      </c>
+      <c r="L190" t="s">
+        <v>451</v>
+      </c>
+      <c r="M190" t="s">
+        <v>452</v>
+      </c>
+      <c r="N190" t="s">
+        <v>451</v>
+      </c>
+      <c r="O190" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>63</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="C191" t="s">
+        <v>448</v>
+      </c>
+      <c r="E191" t="s">
+        <v>611</v>
+      </c>
+      <c r="H191">
+        <v>2.6</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191" t="s">
+        <v>189</v>
+      </c>
+      <c r="K191" t="s">
+        <v>451</v>
+      </c>
+      <c r="L191" t="s">
+        <v>451</v>
+      </c>
+      <c r="M191" t="s">
+        <v>452</v>
+      </c>
+      <c r="N191" t="s">
+        <v>451</v>
+      </c>
+      <c r="O191" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>63</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="C192" t="s">
+        <v>448</v>
+      </c>
+      <c r="E192" t="s">
+        <v>611</v>
+      </c>
+      <c r="H192">
+        <v>7.4</v>
+      </c>
+      <c r="I192">
+        <v>5</v>
+      </c>
+      <c r="J192" t="s">
+        <v>189</v>
+      </c>
+      <c r="K192" t="s">
+        <v>451</v>
+      </c>
+      <c r="L192" t="s">
+        <v>452</v>
+      </c>
+      <c r="M192" t="s">
+        <v>452</v>
+      </c>
+      <c r="N192" t="s">
+        <v>452</v>
+      </c>
+      <c r="O192" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="193" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>63</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="C193" t="s">
+        <v>448</v>
+      </c>
+      <c r="E193" t="s">
+        <v>611</v>
+      </c>
+      <c r="H193">
+        <v>8.5</v>
+      </c>
+      <c r="I193">
+        <v>2</v>
+      </c>
+      <c r="J193" t="s">
+        <v>98</v>
+      </c>
+      <c r="K193" t="s">
+        <v>451</v>
+      </c>
+      <c r="L193" t="s">
+        <v>451</v>
+      </c>
+      <c r="M193" t="s">
+        <v>452</v>
+      </c>
+      <c r="N193" t="s">
+        <v>451</v>
+      </c>
+      <c r="O193" t="s">
+        <v>451</v>
+      </c>
+      <c r="S193" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="194" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>63</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="C194" t="s">
+        <v>448</v>
+      </c>
+      <c r="E194" t="s">
+        <v>611</v>
+      </c>
+      <c r="H194">
+        <v>3</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194" t="s">
+        <v>39</v>
+      </c>
+      <c r="K194" t="s">
+        <v>451</v>
+      </c>
+      <c r="L194" t="s">
+        <v>451</v>
+      </c>
+      <c r="M194" t="s">
+        <v>452</v>
+      </c>
+      <c r="N194" t="s">
+        <v>451</v>
+      </c>
+      <c r="O194" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="195" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>63</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C195" t="s">
+        <v>447</v>
+      </c>
+      <c r="E195" t="s">
+        <v>611</v>
+      </c>
+      <c r="H195">
+        <v>2.8</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195" t="s">
+        <v>39</v>
+      </c>
+      <c r="K195" t="s">
+        <v>451</v>
+      </c>
+      <c r="L195" t="s">
+        <v>451</v>
+      </c>
+      <c r="M195" t="s">
+        <v>451</v>
+      </c>
+      <c r="N195" t="s">
+        <v>451</v>
+      </c>
+      <c r="O195" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>63</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C196" t="s">
+        <v>447</v>
+      </c>
+      <c r="E196" t="s">
+        <v>611</v>
+      </c>
+      <c r="H196">
+        <v>4</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196" t="s">
+        <v>189</v>
+      </c>
+      <c r="K196" t="s">
+        <v>452</v>
+      </c>
+      <c r="L196" t="s">
+        <v>451</v>
+      </c>
+      <c r="M196" t="s">
+        <v>452</v>
+      </c>
+      <c r="N196" t="s">
+        <v>451</v>
+      </c>
+      <c r="O196" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="197" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>63</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="C197" t="s">
+        <v>448</v>
+      </c>
+      <c r="E197" t="s">
+        <v>611</v>
+      </c>
+      <c r="H197">
+        <v>2.9</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197" t="s">
+        <v>189</v>
+      </c>
+      <c r="K197" t="s">
+        <v>451</v>
+      </c>
+      <c r="L197" t="s">
+        <v>451</v>
+      </c>
+      <c r="M197" t="s">
+        <v>451</v>
+      </c>
+      <c r="N197" t="s">
+        <v>451</v>
+      </c>
+      <c r="O197" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="198" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>63</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="C198" t="s">
+        <v>448</v>
+      </c>
+      <c r="E198" t="s">
+        <v>611</v>
+      </c>
+      <c r="F198" t="s">
+        <v>674</v>
+      </c>
+      <c r="H198">
+        <v>3.5</v>
+      </c>
+      <c r="I198">
+        <v>3</v>
+      </c>
+      <c r="J198" t="s">
+        <v>39</v>
+      </c>
+      <c r="K198" t="s">
+        <v>451</v>
+      </c>
+      <c r="L198" t="s">
+        <v>451</v>
+      </c>
+      <c r="M198" t="s">
+        <v>452</v>
+      </c>
+      <c r="N198" t="s">
+        <v>451</v>
+      </c>
+      <c r="O198" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="199" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>63</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C199" t="s">
+        <v>448</v>
+      </c>
+      <c r="E199" t="s">
+        <v>611</v>
+      </c>
+      <c r="H199">
+        <v>8.5</v>
+      </c>
+      <c r="I199">
+        <v>4</v>
+      </c>
+      <c r="J199" t="s">
+        <v>98</v>
+      </c>
+      <c r="K199" t="s">
+        <v>451</v>
+      </c>
+      <c r="L199" t="s">
+        <v>451</v>
+      </c>
+      <c r="M199" t="s">
+        <v>452</v>
+      </c>
+      <c r="N199" t="s">
+        <v>452</v>
+      </c>
+      <c r="O199" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="200" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>63</v>
+      </c>
+      <c r="B200" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C200" t="s">
+        <v>448</v>
+      </c>
+      <c r="E200" t="s">
+        <v>611</v>
+      </c>
+      <c r="H200">
+        <v>7.2</v>
+      </c>
+      <c r="I200">
+        <v>2</v>
+      </c>
+      <c r="J200" t="s">
+        <v>189</v>
+      </c>
+      <c r="K200" t="s">
+        <v>451</v>
+      </c>
+      <c r="L200" t="s">
+        <v>451</v>
+      </c>
+      <c r="M200" t="s">
+        <v>452</v>
+      </c>
+      <c r="N200" t="s">
+        <v>451</v>
+      </c>
+      <c r="O200" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="201" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>63</v>
+      </c>
+      <c r="B201" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C201" t="s">
+        <v>448</v>
+      </c>
+      <c r="E201" t="s">
+        <v>611</v>
+      </c>
+      <c r="H201">
+        <v>7.4</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201" t="s">
+        <v>98</v>
+      </c>
+      <c r="K201" t="s">
+        <v>451</v>
+      </c>
+      <c r="L201" t="s">
+        <v>451</v>
+      </c>
+      <c r="M201" t="s">
+        <v>452</v>
+      </c>
+      <c r="N201" t="s">
+        <v>451</v>
+      </c>
+      <c r="O201" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="202" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>63</v>
+      </c>
+      <c r="B202" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C202" t="s">
+        <v>448</v>
+      </c>
+      <c r="E202" t="s">
+        <v>611</v>
+      </c>
+      <c r="H202">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I202">
+        <v>5</v>
+      </c>
+      <c r="J202" t="s">
+        <v>98</v>
+      </c>
+      <c r="K202" t="s">
+        <v>451</v>
+      </c>
+      <c r="L202" t="s">
+        <v>451</v>
+      </c>
+      <c r="M202" t="s">
+        <v>452</v>
+      </c>
+      <c r="N202" t="s">
+        <v>452</v>
+      </c>
+      <c r="O202" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="203" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>63</v>
+      </c>
+      <c r="B203" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C203" t="s">
+        <v>448</v>
+      </c>
+      <c r="E203" t="s">
+        <v>611</v>
+      </c>
+      <c r="H203">
+        <v>4.5</v>
+      </c>
+      <c r="I203">
+        <v>1</v>
+      </c>
+      <c r="J203" t="s">
+        <v>189</v>
+      </c>
+      <c r="K203" t="s">
+        <v>451</v>
+      </c>
+      <c r="L203" t="s">
+        <v>451</v>
+      </c>
+      <c r="M203" t="s">
+        <v>452</v>
+      </c>
+      <c r="N203" t="s">
+        <v>451</v>
+      </c>
+      <c r="O203" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="204" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>63</v>
+      </c>
+      <c r="B204" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C204" t="s">
+        <v>448</v>
+      </c>
+      <c r="E204" t="s">
+        <v>611</v>
+      </c>
+      <c r="H204">
+        <v>5.2</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204" t="s">
+        <v>189</v>
+      </c>
+      <c r="K204" t="s">
+        <v>451</v>
+      </c>
+      <c r="L204" t="s">
+        <v>451</v>
+      </c>
+      <c r="M204" t="s">
+        <v>451</v>
+      </c>
+      <c r="N204" t="s">
+        <v>451</v>
+      </c>
+      <c r="O204" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="205" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>63</v>
+      </c>
+      <c r="B205" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C205" t="s">
+        <v>448</v>
+      </c>
+      <c r="E205" t="s">
+        <v>611</v>
+      </c>
+      <c r="H205">
+        <v>5.2</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205" t="s">
+        <v>189</v>
+      </c>
+      <c r="K205" t="s">
+        <v>451</v>
+      </c>
+      <c r="L205" t="s">
+        <v>451</v>
+      </c>
+      <c r="M205" t="s">
+        <v>452</v>
+      </c>
+      <c r="N205" t="s">
+        <v>451</v>
+      </c>
+      <c r="O205" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="206" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>63</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C206" t="s">
+        <v>448</v>
+      </c>
+      <c r="E206" t="s">
+        <v>611</v>
+      </c>
+      <c r="H206">
+        <v>2.9</v>
+      </c>
+      <c r="I206">
+        <v>1</v>
+      </c>
+      <c r="J206" t="s">
+        <v>39</v>
+      </c>
+      <c r="K206" t="s">
+        <v>451</v>
+      </c>
+      <c r="L206" t="s">
+        <v>451</v>
+      </c>
+      <c r="M206" t="s">
+        <v>451</v>
+      </c>
+      <c r="N206" t="s">
+        <v>451</v>
+      </c>
+      <c r="O206" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="207" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>63</v>
+      </c>
+      <c r="B207" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C207" t="s">
+        <v>448</v>
+      </c>
+      <c r="E207" t="s">
+        <v>611</v>
+      </c>
+      <c r="H207">
+        <v>7.9</v>
+      </c>
+      <c r="I207">
+        <v>4</v>
+      </c>
+      <c r="J207" t="s">
+        <v>189</v>
+      </c>
+      <c r="K207" t="s">
+        <v>451</v>
+      </c>
+      <c r="L207" t="s">
+        <v>452</v>
+      </c>
+      <c r="M207" t="s">
+        <v>452</v>
+      </c>
+      <c r="N207" t="s">
+        <v>452</v>
+      </c>
+      <c r="O207" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="208" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>63</v>
+      </c>
+      <c r="B208" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C208" t="s">
+        <v>448</v>
+      </c>
+      <c r="E208" t="s">
+        <v>611</v>
+      </c>
+      <c r="H208">
+        <v>6.4</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208" t="s">
+        <v>189</v>
+      </c>
+      <c r="K208" t="s">
+        <v>451</v>
+      </c>
+      <c r="L208" t="s">
+        <v>451</v>
+      </c>
+      <c r="M208" t="s">
+        <v>452</v>
+      </c>
+      <c r="N208" t="s">
+        <v>451</v>
+      </c>
+      <c r="O208" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="209" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>63</v>
+      </c>
+      <c r="B209" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C209" t="s">
+        <v>448</v>
+      </c>
+      <c r="E209" t="s">
+        <v>611</v>
+      </c>
+      <c r="H209">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="J209" t="s">
+        <v>189</v>
+      </c>
+      <c r="K209" t="s">
+        <v>451</v>
+      </c>
+      <c r="L209" t="s">
+        <v>451</v>
+      </c>
+      <c r="M209" t="s">
+        <v>452</v>
+      </c>
+      <c r="N209" t="s">
+        <v>451</v>
+      </c>
+      <c r="O209" t="s">
+        <v>451</v>
+      </c>
+      <c r="P209" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="210" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>63</v>
+      </c>
+      <c r="B210" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C210" t="s">
+        <v>448</v>
+      </c>
+      <c r="E210" t="s">
+        <v>611</v>
+      </c>
+      <c r="H210">
+        <v>5.2</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210" t="s">
+        <v>189</v>
+      </c>
+      <c r="K210" t="s">
+        <v>451</v>
+      </c>
+      <c r="L210" t="s">
+        <v>451</v>
+      </c>
+      <c r="M210" t="s">
+        <v>451</v>
+      </c>
+      <c r="N210" t="s">
+        <v>451</v>
+      </c>
+      <c r="O210" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="211" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="6">
+        <v>63</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="E211" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="H211" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I211" s="6">
+        <v>2</v>
+      </c>
+      <c r="J211" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K211" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="L211" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="M211" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="N211" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="O211" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="212" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>63</v>
+      </c>
+      <c r="B212" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C212" t="s">
+        <v>450</v>
+      </c>
+      <c r="E212" t="s">
+        <v>611</v>
+      </c>
+      <c r="H212">
+        <v>5.5</v>
+      </c>
+      <c r="I212">
+        <v>1</v>
+      </c>
+      <c r="J212" t="s">
+        <v>98</v>
+      </c>
+      <c r="K212" t="s">
+        <v>451</v>
+      </c>
+      <c r="L212" t="s">
+        <v>451</v>
+      </c>
+      <c r="M212" t="s">
+        <v>451</v>
+      </c>
+      <c r="N212" t="s">
+        <v>451</v>
+      </c>
+      <c r="O212" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="213" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>63</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C213" t="s">
+        <v>450</v>
+      </c>
+      <c r="E213" t="s">
+        <v>611</v>
+      </c>
+      <c r="H213">
+        <v>4.3</v>
+      </c>
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213" t="s">
+        <v>189</v>
+      </c>
+      <c r="K213" t="s">
+        <v>451</v>
+      </c>
+      <c r="L213" t="s">
+        <v>451</v>
+      </c>
+      <c r="M213" t="s">
+        <v>452</v>
+      </c>
+      <c r="N213" t="s">
+        <v>451</v>
+      </c>
+      <c r="O213" t="s">
+        <v>451</v>
+      </c>
+      <c r="P213" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="214" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>63</v>
+      </c>
+      <c r="B214" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C214" t="s">
+        <v>450</v>
+      </c>
+      <c r="E214" t="s">
+        <v>611</v>
+      </c>
+      <c r="H214">
+        <v>2.9</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214" t="s">
+        <v>189</v>
+      </c>
+      <c r="K214" t="s">
+        <v>451</v>
+      </c>
+      <c r="L214" t="s">
+        <v>451</v>
+      </c>
+      <c r="M214" t="s">
+        <v>451</v>
+      </c>
+      <c r="N214" t="s">
+        <v>451</v>
+      </c>
+      <c r="O214" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="215" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>63</v>
+      </c>
+      <c r="B215" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C215" t="s">
+        <v>450</v>
+      </c>
+      <c r="E215" t="s">
+        <v>611</v>
+      </c>
+      <c r="H215">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I215">
+        <v>1</v>
+      </c>
+      <c r="J215" t="s">
+        <v>189</v>
+      </c>
+      <c r="K215" t="s">
+        <v>451</v>
+      </c>
+      <c r="L215" t="s">
+        <v>451</v>
+      </c>
+      <c r="M215" t="s">
+        <v>451</v>
+      </c>
+      <c r="N215" t="s">
+        <v>451</v>
+      </c>
+      <c r="O215" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="216" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>63</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C216" t="s">
+        <v>450</v>
+      </c>
+      <c r="E216" t="s">
+        <v>611</v>
+      </c>
+      <c r="H216">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I216">
+        <v>1</v>
+      </c>
+      <c r="J216" t="s">
+        <v>189</v>
+      </c>
+      <c r="K216" t="s">
+        <v>451</v>
+      </c>
+      <c r="L216" t="s">
+        <v>451</v>
+      </c>
+      <c r="M216" t="s">
+        <v>451</v>
+      </c>
+      <c r="N216" t="s">
+        <v>451</v>
+      </c>
+      <c r="O216" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="217" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>63</v>
+      </c>
+      <c r="B217" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C217" t="s">
+        <v>450</v>
+      </c>
+      <c r="E217" t="s">
+        <v>611</v>
+      </c>
+      <c r="H217">
+        <v>4.3</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217" t="s">
+        <v>189</v>
+      </c>
+      <c r="K217" t="s">
+        <v>451</v>
+      </c>
+      <c r="L217" t="s">
+        <v>451</v>
+      </c>
+      <c r="M217" t="s">
+        <v>452</v>
+      </c>
+      <c r="N217" t="s">
+        <v>451</v>
+      </c>
+      <c r="O217" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="218" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>63</v>
+      </c>
+      <c r="B218" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C218" t="s">
+        <v>449</v>
+      </c>
+      <c r="E218" t="s">
+        <v>611</v>
+      </c>
+      <c r="H218">
+        <v>2.9</v>
+      </c>
+      <c r="I218">
+        <v>1</v>
+      </c>
+      <c r="J218" t="s">
+        <v>39</v>
+      </c>
+      <c r="K218" t="s">
+        <v>451</v>
+      </c>
+      <c r="L218" t="s">
+        <v>451</v>
+      </c>
+      <c r="M218" t="s">
+        <v>451</v>
+      </c>
+      <c r="N218" t="s">
+        <v>451</v>
+      </c>
+      <c r="O218" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="219" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>63</v>
+      </c>
+      <c r="B219" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C219" t="s">
+        <v>449</v>
+      </c>
+      <c r="E219" t="s">
+        <v>611</v>
+      </c>
+      <c r="H219">
+        <v>2.9</v>
+      </c>
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219" t="s">
+        <v>189</v>
+      </c>
+      <c r="K219" t="s">
+        <v>451</v>
+      </c>
+      <c r="L219" t="s">
+        <v>451</v>
+      </c>
+      <c r="M219" t="s">
+        <v>451</v>
+      </c>
+      <c r="N219" t="s">
+        <v>451</v>
+      </c>
+      <c r="O219" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="220" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>63</v>
+      </c>
+      <c r="B220" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C220" t="s">
+        <v>449</v>
+      </c>
+      <c r="E220" t="s">
+        <v>611</v>
+      </c>
+      <c r="H220">
+        <v>4.3</v>
+      </c>
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220" t="s">
+        <v>39</v>
+      </c>
+      <c r="K220" t="s">
+        <v>451</v>
+      </c>
+      <c r="L220" t="s">
+        <v>451</v>
+      </c>
+      <c r="M220" t="s">
+        <v>452</v>
+      </c>
+      <c r="N220" t="s">
+        <v>451</v>
+      </c>
+      <c r="O220" t="s">
+        <v>451</v>
+      </c>
+      <c r="P220" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="221" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>63</v>
+      </c>
+      <c r="B221" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C221" t="s">
+        <v>449</v>
+      </c>
+      <c r="E221" t="s">
+        <v>611</v>
+      </c>
+      <c r="H221">
+        <v>6.4</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221" t="s">
+        <v>189</v>
+      </c>
+      <c r="K221" t="s">
+        <v>451</v>
+      </c>
+      <c r="L221" t="s">
+        <v>451</v>
+      </c>
+      <c r="M221" t="s">
+        <v>452</v>
+      </c>
+      <c r="N221" t="s">
+        <v>451</v>
+      </c>
+      <c r="O221" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="222" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>63</v>
+      </c>
+      <c r="B222" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C222" t="s">
+        <v>449</v>
+      </c>
+      <c r="E222" t="s">
+        <v>611</v>
+      </c>
+      <c r="H222">
+        <v>4.2</v>
+      </c>
+      <c r="I222">
+        <v>1</v>
+      </c>
+      <c r="J222" t="s">
+        <v>189</v>
+      </c>
+      <c r="K222" t="s">
+        <v>451</v>
+      </c>
+      <c r="L222" t="s">
+        <v>451</v>
+      </c>
+      <c r="M222" t="s">
+        <v>452</v>
+      </c>
+      <c r="N222" t="s">
+        <v>451</v>
+      </c>
+      <c r="O222" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="223" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <v>63</v>
+      </c>
+      <c r="B223" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C223" t="s">
+        <v>449</v>
+      </c>
+      <c r="E223" t="s">
+        <v>611</v>
+      </c>
+      <c r="H223">
+        <v>3.6</v>
+      </c>
+      <c r="I223">
+        <v>1</v>
+      </c>
+      <c r="J223" t="s">
+        <v>189</v>
+      </c>
+      <c r="K223" t="s">
+        <v>451</v>
+      </c>
+      <c r="L223" t="s">
+        <v>451</v>
+      </c>
+      <c r="M223" t="s">
+        <v>452</v>
+      </c>
+      <c r="N223" t="s">
+        <v>451</v>
+      </c>
+      <c r="O223" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="224" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>63</v>
+      </c>
+      <c r="B224" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C224" t="s">
+        <v>449</v>
+      </c>
+      <c r="E224" t="s">
+        <v>611</v>
+      </c>
+      <c r="H224">
+        <v>8.5</v>
+      </c>
+      <c r="I224">
+        <v>5</v>
+      </c>
+      <c r="J224" t="s">
+        <v>189</v>
+      </c>
+      <c r="K224" t="s">
+        <v>451</v>
+      </c>
+      <c r="L224" t="s">
+        <v>452</v>
+      </c>
+      <c r="M224" t="s">
+        <v>452</v>
+      </c>
+      <c r="N224" t="s">
+        <v>452</v>
+      </c>
+      <c r="O224" t="s">
+        <v>452</v>
+      </c>
+      <c r="S224" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <v>63</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C225" t="s">
+        <v>449</v>
+      </c>
+      <c r="E225" t="s">
+        <v>611</v>
+      </c>
+      <c r="H225">
+        <v>3.3</v>
+      </c>
+      <c r="I225">
+        <v>1</v>
+      </c>
+      <c r="J225" t="s">
+        <v>189</v>
+      </c>
+      <c r="K225" t="s">
+        <v>451</v>
+      </c>
+      <c r="L225" t="s">
+        <v>451</v>
+      </c>
+      <c r="M225" t="s">
+        <v>451</v>
+      </c>
+      <c r="N225" t="s">
+        <v>451</v>
+      </c>
+      <c r="O225" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>63</v>
+      </c>
+      <c r="B226" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C226" t="s">
+        <v>447</v>
+      </c>
+      <c r="E226" t="s">
+        <v>611</v>
+      </c>
+      <c r="H226">
+        <v>4</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226" t="s">
+        <v>189</v>
+      </c>
+      <c r="K226" t="s">
+        <v>451</v>
+      </c>
+      <c r="L226" t="s">
+        <v>451</v>
+      </c>
+      <c r="M226" t="s">
+        <v>451</v>
+      </c>
+      <c r="N226" t="s">
+        <v>451</v>
+      </c>
+      <c r="O226" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>63</v>
+      </c>
+      <c r="B227" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C227" t="s">
+        <v>449</v>
+      </c>
+      <c r="E227" t="s">
+        <v>611</v>
+      </c>
+      <c r="F227" t="s">
+        <v>669</v>
+      </c>
+      <c r="H227">
+        <v>3</v>
+      </c>
+      <c r="I227">
+        <v>2</v>
+      </c>
+      <c r="J227" t="s">
+        <v>189</v>
+      </c>
+      <c r="K227" t="s">
+        <v>451</v>
+      </c>
+      <c r="L227" t="s">
+        <v>451</v>
+      </c>
+      <c r="M227" t="s">
+        <v>452</v>
+      </c>
+      <c r="N227" t="s">
+        <v>452</v>
+      </c>
+      <c r="O227" t="s">
+        <v>451</v>
+      </c>
+      <c r="P227" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <v>63</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C228" t="s">
+        <v>449</v>
+      </c>
+      <c r="E228" t="s">
+        <v>611</v>
+      </c>
+      <c r="H228">
+        <v>4</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+      <c r="J228" t="s">
+        <v>189</v>
+      </c>
+      <c r="K228" t="s">
+        <v>451</v>
+      </c>
+      <c r="L228" t="s">
+        <v>451</v>
+      </c>
+      <c r="M228" t="s">
+        <v>452</v>
+      </c>
+      <c r="N228" t="s">
+        <v>451</v>
+      </c>
+      <c r="O228" t="s">
+        <v>451</v>
+      </c>
+      <c r="P228" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <v>63</v>
+      </c>
+      <c r="B229" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C229" t="s">
+        <v>449</v>
+      </c>
+      <c r="E229" t="s">
+        <v>611</v>
+      </c>
+      <c r="H229">
+        <v>3.9</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229" t="s">
+        <v>189</v>
+      </c>
+      <c r="K229" t="s">
+        <v>451</v>
+      </c>
+      <c r="L229" t="s">
+        <v>451</v>
+      </c>
+      <c r="M229" t="s">
+        <v>452</v>
+      </c>
+      <c r="N229" t="s">
+        <v>451</v>
+      </c>
+      <c r="O229" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <v>63</v>
+      </c>
+      <c r="B230" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C230" t="s">
+        <v>449</v>
+      </c>
+      <c r="E230" t="s">
+        <v>611</v>
+      </c>
+      <c r="H230">
+        <v>2.8</v>
+      </c>
+      <c r="I230">
+        <v>1</v>
+      </c>
+      <c r="J230" t="s">
+        <v>189</v>
+      </c>
+      <c r="K230" t="s">
+        <v>451</v>
+      </c>
+      <c r="L230" t="s">
+        <v>451</v>
+      </c>
+      <c r="M230" t="s">
+        <v>452</v>
+      </c>
+      <c r="N230" t="s">
+        <v>451</v>
+      </c>
+      <c r="O230" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <v>63</v>
+      </c>
+      <c r="B231" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C231" t="s">
+        <v>449</v>
+      </c>
+      <c r="E231" t="s">
+        <v>611</v>
+      </c>
+      <c r="H231">
+        <v>2.7</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231" t="s">
+        <v>189</v>
+      </c>
+      <c r="K231" t="s">
+        <v>451</v>
+      </c>
+      <c r="L231" t="s">
+        <v>451</v>
+      </c>
+      <c r="M231" t="s">
+        <v>451</v>
+      </c>
+      <c r="N231" t="s">
+        <v>451</v>
+      </c>
+      <c r="O231" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <v>63</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C232" t="s">
+        <v>449</v>
+      </c>
+      <c r="E232" t="s">
+        <v>611</v>
+      </c>
+      <c r="H232">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I232">
+        <v>1</v>
+      </c>
+      <c r="J232" t="s">
+        <v>189</v>
+      </c>
+      <c r="K232" t="s">
+        <v>451</v>
+      </c>
+      <c r="L232" t="s">
+        <v>451</v>
+      </c>
+      <c r="M232" t="s">
+        <v>452</v>
+      </c>
+      <c r="N232" t="s">
+        <v>451</v>
+      </c>
+      <c r="O232" t="s">
+        <v>451</v>
+      </c>
+      <c r="P232" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A233">
+        <v>63</v>
+      </c>
+      <c r="B233" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C233" t="s">
+        <v>449</v>
+      </c>
+      <c r="E233" t="s">
+        <v>611</v>
+      </c>
+      <c r="H233">
+        <v>2.5</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="J233" t="s">
+        <v>39</v>
+      </c>
+      <c r="K233" t="s">
+        <v>451</v>
+      </c>
+      <c r="L233" t="s">
+        <v>451</v>
+      </c>
+      <c r="M233" t="s">
+        <v>451</v>
+      </c>
+      <c r="N233" t="s">
+        <v>451</v>
+      </c>
+      <c r="O233" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A234">
+        <v>63</v>
+      </c>
+      <c r="B234" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C234" t="s">
+        <v>449</v>
+      </c>
+      <c r="E234" t="s">
+        <v>611</v>
+      </c>
+      <c r="H234">
+        <v>6.8</v>
+      </c>
+      <c r="I234">
+        <v>1</v>
+      </c>
+      <c r="J234" t="s">
+        <v>189</v>
+      </c>
+      <c r="K234" t="s">
+        <v>451</v>
+      </c>
+      <c r="L234" t="s">
+        <v>451</v>
+      </c>
+      <c r="M234" t="s">
+        <v>452</v>
+      </c>
+      <c r="N234" t="s">
+        <v>451</v>
+      </c>
+      <c r="O234" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <v>63</v>
+      </c>
+      <c r="B235" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C235" t="s">
+        <v>449</v>
+      </c>
+      <c r="E235" t="s">
+        <v>611</v>
+      </c>
+      <c r="H235">
+        <v>7.1</v>
+      </c>
+      <c r="I235">
+        <v>2</v>
+      </c>
+      <c r="J235" t="s">
+        <v>189</v>
+      </c>
+      <c r="K235" t="s">
+        <v>451</v>
+      </c>
+      <c r="L235" t="s">
+        <v>451</v>
+      </c>
+      <c r="M235" t="s">
+        <v>451</v>
+      </c>
+      <c r="N235" t="s">
+        <v>451</v>
+      </c>
+      <c r="O235" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A236">
+        <v>63</v>
+      </c>
+      <c r="B236" t="s">
+        <v>504</v>
+      </c>
+      <c r="C236" t="s">
+        <v>448</v>
+      </c>
+      <c r="E236" t="s">
+        <v>611</v>
+      </c>
+      <c r="F236" t="s">
+        <v>670</v>
+      </c>
+      <c r="H236">
+        <v>9.5</v>
+      </c>
+      <c r="I236">
+        <v>5</v>
+      </c>
+      <c r="J236" t="s">
+        <v>189</v>
+      </c>
+      <c r="K236" t="s">
+        <v>451</v>
+      </c>
+      <c r="L236" t="s">
+        <v>452</v>
+      </c>
+      <c r="M236" t="s">
+        <v>452</v>
+      </c>
+      <c r="N236" t="s">
+        <v>452</v>
+      </c>
+      <c r="O236" t="s">
+        <v>451</v>
+      </c>
+      <c r="P236" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A237">
+        <v>56</v>
+      </c>
+      <c r="B237" t="s">
+        <v>504</v>
+      </c>
+      <c r="C237" t="s">
+        <v>448</v>
+      </c>
+      <c r="E237" t="s">
+        <v>671</v>
+      </c>
+      <c r="H237">
+        <v>9.4</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237" t="s">
+        <v>189</v>
+      </c>
+      <c r="K237" t="s">
+        <v>451</v>
+      </c>
+      <c r="L237" t="s">
+        <v>451</v>
+      </c>
+      <c r="M237" t="s">
+        <v>451</v>
+      </c>
+      <c r="N237" t="s">
+        <v>451</v>
+      </c>
+      <c r="O237" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q237">
+        <v>0</v>
+      </c>
+      <c r="R237">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22214,7 +25343,7 @@
         <v>470</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>469</v>
@@ -24567,22 +27696,22 @@
         <v>468</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>627</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -24642,7 +27771,7 @@
         <v>582</v>
       </c>
       <c r="F4" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H4" t="s">
         <v>488</v>
@@ -24688,7 +27817,7 @@
         <v>582</v>
       </c>
       <c r="G7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H7" t="s">
         <v>488</v>
@@ -24708,7 +27837,7 @@
         <v>582</v>
       </c>
       <c r="F8" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H8" t="s">
         <v>488</v>
@@ -24754,7 +27883,7 @@
         <v>582</v>
       </c>
       <c r="G11" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H11" t="s">
         <v>488</v>
@@ -24774,7 +27903,7 @@
         <v>582</v>
       </c>
       <c r="F12" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H12" t="s">
         <v>488</v>
@@ -24820,16 +27949,16 @@
         <v>468</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -24875,7 +28004,7 @@
         <v>582</v>
       </c>
       <c r="F3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G3" t="s">
         <v>452</v>
@@ -24927,7 +28056,7 @@
         <v>582</v>
       </c>
       <c r="F6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G6" t="s">
         <v>452</v>
@@ -24979,7 +28108,7 @@
         <v>582</v>
       </c>
       <c r="F9" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G9" t="s">
         <v>452</v>
@@ -25031,7 +28160,7 @@
         <v>582</v>
       </c>
       <c r="F12" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G12" t="s">
         <v>452</v>
@@ -25083,7 +28212,7 @@
         <v>582</v>
       </c>
       <c r="F15" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G15" t="s">
         <v>452</v>
@@ -25135,7 +28264,7 @@
         <v>582</v>
       </c>
       <c r="F18" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G18" t="s">
         <v>452</v>
@@ -25170,7 +28299,7 @@
         <v>452</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -25190,7 +28319,7 @@
         <v>582</v>
       </c>
       <c r="F21" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G21" t="s">
         <v>452</v>
@@ -25225,7 +28354,7 @@
         <v>452</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -25245,7 +28374,7 @@
         <v>582</v>
       </c>
       <c r="F24" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G24" t="s">
         <v>452</v>
@@ -25280,7 +28409,7 @@
         <v>452</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -25300,7 +28429,7 @@
         <v>582</v>
       </c>
       <c r="F27" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G27" t="s">
         <v>452</v>
@@ -25309,7 +28438,7 @@
         <v>451</v>
       </c>
       <c r="I27" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -25338,7 +28467,7 @@
         <v>452</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -25358,7 +28487,7 @@
         <v>582</v>
       </c>
       <c r="F30" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G30" t="s">
         <v>452</v>
@@ -25410,7 +28539,7 @@
         <v>582</v>
       </c>
       <c r="F33" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G33" t="s">
         <v>452</v>
@@ -25445,7 +28574,7 @@
         <v>452</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -25465,7 +28594,7 @@
         <v>582</v>
       </c>
       <c r="F36" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G36" t="s">
         <v>452</v>
@@ -25474,7 +28603,7 @@
         <v>451</v>
       </c>
       <c r="I36" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
@@ -25520,7 +28649,7 @@
         <v>582</v>
       </c>
       <c r="F39" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G39" t="s">
         <v>452</v>
@@ -25572,7 +28701,7 @@
         <v>582</v>
       </c>
       <c r="F42" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G42" t="s">
         <v>452</v>
@@ -25624,7 +28753,7 @@
         <v>582</v>
       </c>
       <c r="F45" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G45" t="s">
         <v>452</v>
